--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,51 +13,68 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -69,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -161,6 +178,18 @@
     <t xml:space="preserve">spec_type_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -170,15 +199,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -225,12 +248,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -309,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -337,6 +354,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -388,7 +413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,6 +423,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,14 +660,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,19 +677,101 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -671,13 +782,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -697,7 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -728,10 +839,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -753,7 +864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -781,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -803,7 +914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -837,10 +948,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -914,7 +1025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -942,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -961,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1047,7 +1158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1084,16 +1195,16 @@
         <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>76</v>
@@ -1177,7 +1288,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1403,6 +1514,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1410,7 +1595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,13 +1605,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1437,26 +1622,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>33.2107808085433</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1474,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1502,10 +1687,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1524,7 +1709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1552,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1569,86 +1754,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,16 +19,16 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
@@ -41,40 +41,72 @@
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -86,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -133,118 +165,115 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -683,19 +712,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -706,14 +735,14 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -759,19 +788,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -782,13 +811,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -813,14 +842,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,23 +865,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -869,14 +892,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -892,17 +915,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -942,16 +971,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -962,7 +991,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -973,14 +1002,14 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -996,7 +1025,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1007,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1053,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1100,46 +1129,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -1180,34 +1209,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1264,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1286,14 +1315,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1315,30 +1344,26 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:F2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1378,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1389,10 +1414,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1E-022</v>
@@ -1441,19 +1466,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1464,7 +1489,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1474,14 +1499,14 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1491,7 +1516,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1516,7 +1541,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1526,8 +1551,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,10 +1563,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -1552,24 +1577,24 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1605,13 +1630,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1622,26 +1647,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>33.2107808085433</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1664,14 +1689,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,12 +1712,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1737,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$E$1</definedName>
@@ -52,9 +52,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
   <si>
     <t>Id</t>
   </si>
@@ -174,64 +174,82 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compartment c</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>compartment c</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>spec_type_0</t>
@@ -419,10 +437,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -476,7 +494,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,53 +562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -545,14 +570,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +591,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -588,33 +613,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -633,103 +651,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,79 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,17 +845,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,7 +858,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,17 +878,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,15 +922,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -911,150 +929,150 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1644,22 +1662,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -1676,13 +1694,13 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>FALSE()</f>
@@ -1732,19 +1750,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1761,22 +1779,22 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1815,13 +1833,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1869,13 +1887,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1927,16 +1945,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>16</v>
@@ -1991,16 +2009,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2017,58 +2035,58 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2108,10 +2126,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2162,28 +2180,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2231,46 +2249,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2411,30 +2429,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1028" width="8.575" style="1"/>
-    <col min="1029" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2459,52 +2477,68 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:10">
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="9">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2">
+  <autoFilter ref="A1:H2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2541,19 +2575,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2570,10 +2604,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2582,15 +2616,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2599,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2640,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2663,30 +2697,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2731,19 +2765,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2760,36 +2794,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2829,10 +2863,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -2884,10 +2918,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -321,7 +321,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>test_reaction_1</t>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -439,8 +445,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -480,21 +486,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,16 +522,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -539,23 +545,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,9 +560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,14 +576,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,17 +621,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -651,13 +657,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,169 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,11 +851,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,7 +885,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,21 +901,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,161 +934,155 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1641,7 +1647,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1810,14 +1816,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1825,7 +1831,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1842,15 +1848,21 @@
         <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1893,7 +1905,7 @@
         <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1945,13 +1957,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>58</v>
@@ -2012,10 +2024,10 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -2035,7 +2047,7 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>82</v>
@@ -2044,12 +2056,12 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>82</v>
@@ -2058,12 +2070,12 @@
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
@@ -2072,21 +2084,21 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>58</v>
@@ -2189,19 +2201,19 @@
         <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2249,46 +2261,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2431,7 +2443,7 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -186,241 +186,253 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compartment c</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>test_reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat * spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol gDCW^-1 h^-1</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>compartment c</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>spec_type_1</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>test_reaction_1</t>
-  </si>
-  <si>
-    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>test_reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat * spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>mmol gDCW^-1 h^-1</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -443,9 +455,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -486,9 +498,91 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -501,7 +595,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,82 +617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,39 +632,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -657,19 +669,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,109 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,49 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,45 +860,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -922,11 +895,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,147 +937,164 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,6 +1115,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1110,9 +1125,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1762,13 +1774,13 @@
         <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1818,7 +1830,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1842,10 +1854,10 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>85</v>
@@ -1902,7 +1914,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>87</v>
@@ -1945,39 +1957,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="6"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="1" max="1025" width="8.575" style="7"/>
+    <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1994,20 +2006,22 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.575" style="1"/>
+    <col min="2" max="3" width="8.575" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="8.575" style="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
@@ -2021,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>89</v>
@@ -2030,7 +2044,7 @@
         <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2099,6 +2113,34 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2138,10 +2180,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2195,25 +2237,25 @@
         <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2261,46 +2303,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2441,24 +2483,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="1" max="1030" width="8.575" style="1"/>
+    <col min="1031" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2495,58 +2537,52 @@
         <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2587,19 +2623,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2616,10 +2652,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2628,15 +2664,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2645,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2686,13 +2722,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2709,30 +2745,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2777,19 +2813,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2806,36 +2842,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2875,10 +2911,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -2906,17 +2942,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1022" width="8.575" style="1"/>
     <col min="1023" max="16384" width="9" style="1"/>
@@ -2930,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2946,6 +2982,17 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -67,9 +67,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -315,6 +315,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -330,6 +333,9 @@
     <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -346,9 +352,6 @@
   </si>
   <si>
     <t>k_cat * spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>Reaction rate units</t>
@@ -455,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -498,17 +501,63 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -518,8 +567,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,38 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,75 +656,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -669,187 +672,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +863,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -874,6 +903,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,204 +959,145 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1652,14 +1655,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1668,11 +1671,11 @@
     <col min="2" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="5" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1698,35 +1701,41 @@
         <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2">
+  <autoFilter ref="A1:J2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1768,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>49</v>
@@ -1797,22 +1806,22 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1860,10 +1869,10 @@
         <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1917,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1969,13 +1978,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>56</v>
@@ -2038,10 +2047,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>56</v>
@@ -2061,58 +2070,58 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -2120,31 +2129,31 @@
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H5">
+  <autoFilter ref="A1:H7">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2234,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>56</v>
@@ -2243,19 +2252,19 @@
         <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2303,46 +2312,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2485,7 +2494,7 @@
   <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2996,7 +3005,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,96 +5,97 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Observables!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Observables!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -162,6 +163,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -409,9 +425,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -458,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -506,99 +519,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,21 +531,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,6 +549,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -650,10 +640,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,7 +685,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,37 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,31 +829,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,97 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,28 +879,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,8 +929,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -955,153 +962,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1129,6 +1142,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1543,52 +1559,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1602,19 +1618,19 @@
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1622,25 +1638,25 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B15">
@@ -1655,9 +1671,75 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1022" width="8.575" style="1"/>
+    <col min="1023" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1683,31 +1765,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
@@ -1718,20 +1800,20 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -1777,25 +1859,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1806,22 +1888,22 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -1860,25 +1942,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1893,7 +1975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -1920,19 +2002,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1951,7 +2033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -1978,22 +2060,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
@@ -2012,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J7"/>
@@ -2044,22 +2126,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -2070,86 +2152,86 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2189,16 +2271,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2217,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2243,34 +2325,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>17</v>
@@ -2285,7 +2367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -2312,46 +2394,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2380,7 +2462,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2430,6 +2512,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G2"/>
@@ -2456,13 +2615,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2473,10 +2632,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P2"/>
@@ -2516,40 +2675,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
@@ -2560,26 +2719,26 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -2588,10 +2747,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -2632,25 +2791,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2661,10 +2820,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2673,15 +2832,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2690,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -2731,19 +2890,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2754,30 +2913,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -2822,25 +2981,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2851,36 +3010,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2920,16 +3079,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
@@ -2946,70 +3105,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1022" width="8.575" style="1"/>
-    <col min="1023" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D2">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -39,8 +39,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -74,12 +74,12 @@
     <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
@@ -379,7 +379,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -471,10 +471,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -519,13 +519,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -534,34 +527,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -580,8 +571,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,6 +604,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -604,14 +619,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,11 +632,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,16 +648,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,14 +664,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,7 +685,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,175 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,15 +884,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +913,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -962,155 +968,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2038,12 +2038,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2516,7 +2516,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -178,6 +178,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -395,9 +401,6 @@
   </si>
   <si>
     <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>nonCarbonExchangeRate</t>
@@ -472,9 +475,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -520,6 +523,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -536,6 +554,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -543,21 +584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,38 +607,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,7 +622,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,21 +665,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -685,7 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +706,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +748,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,19 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,49 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +844,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,43 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +879,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -918,21 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -940,6 +943,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,146 +979,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1695,16 +1698,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -1715,13 +1718,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1765,31 +1768,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
@@ -1800,20 +1803,20 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1859,25 +1862,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1888,22 +1891,22 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1942,25 +1945,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2002,19 +2005,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2038,7 +2041,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2060,22 +2063,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
@@ -2126,22 +2129,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -2152,86 +2155,86 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2271,16 +2274,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2325,34 +2328,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>17</v>
@@ -2394,46 +2397,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2514,15 +2517,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -2567,18 +2570,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2615,13 +2626,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2632,10 +2643,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2675,40 +2686,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
@@ -2719,26 +2730,26 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -2747,10 +2758,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2791,25 +2802,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2820,10 +2831,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2832,15 +2843,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2849,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2890,19 +2901,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2913,30 +2924,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2981,25 +2992,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -3010,36 +3021,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3079,16 +3090,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,13 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
@@ -43,16 +44,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
@@ -86,16 +87,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>Id</t>
   </si>
@@ -190,6 +191,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>test_submodel</t>
   </si>
   <si>
@@ -427,10 +431,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -474,10 +493,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -517,14 +536,60 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,62 +603,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,9 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,39 +634,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,9 +661,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,7 +707,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +749,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,25 +851,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,133 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,17 +901,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,7 +914,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,6 +930,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,186 +992,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1126,6 +1145,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1562,52 +1584,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1615,25 +1637,25 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1641,25 +1663,25 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B15">
@@ -1674,23 +1696,23 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1022" width="8.575" style="1"/>
-    <col min="1023" max="16384" width="9" style="1"/>
+    <col min="1" max="1023" width="8.575" style="1"/>
+    <col min="1024" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1698,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1710,21 +1732,24 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1740,14 +1765,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1756,11 +1781,11 @@
     <col min="2" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="5" max="1027" width="8.575" style="1"/>
+    <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1768,25 +1793,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -1795,28 +1820,31 @@
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>86</v>
+      <c r="F2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1832,14 +1860,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1850,11 +1878,11 @@
     <col min="4" max="4" width="8.575" style="1"/>
     <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
-    <col min="7" max="1024" width="8.575" style="1"/>
-    <col min="1025" max="16384" width="9" style="1"/>
+    <col min="7" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1862,19 +1890,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1883,30 +1911,33 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>86</v>
+      <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1922,14 +1953,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1937,7 +1968,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1945,19 +1976,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1966,9 +1997,12 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1981,23 +2015,23 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:I1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2005,13 +2039,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2020,9 +2054,12 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2039,51 +2076,54 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="7"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="1" max="1026" width="8.575" style="8"/>
+    <col min="1027" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2100,14 +2140,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2117,11 +2157,11 @@
     <col min="4" max="4" width="9.25" style="1"/>
     <col min="5" max="5" width="8.575" style="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2129,16 +2169,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2147,94 +2187,97 @@
         <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="4">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="4">
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>100</v>
+      <c r="F4" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="6">
+        <v>92</v>
+      </c>
+      <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2250,23 +2293,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2274,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2286,9 +2329,12 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2305,14 +2351,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2320,7 +2366,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2328,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>109</v>
@@ -2346,21 +2392,45 @@
         <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2373,85 +2443,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2514,12 +2597,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="F3" sqref="F3"/>
@@ -2530,7 +2698,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="10"/>
+    <col min="1016" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -2602,23 +2770,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2635,22 +2803,25 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2">
+  <autoFilter ref="A1:G2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2662,58 +2833,58 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1030" width="8.575" style="1"/>
-    <col min="1031" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+    <row r="1" customHeight="1" spans="1:17">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
@@ -2722,46 +2893,49 @@
         <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="6">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2777,24 +2951,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="2" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2802,19 +2976,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2823,44 +2997,47 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5">
         <v>29</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="5">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2876,24 +3053,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="6" width="15.6416666666667" style="1"/>
-    <col min="7" max="1025" width="9.10833333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2901,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2916,38 +3093,41 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2963,14 +3143,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -2980,11 +3160,11 @@
     <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.575" style="1"/>
     <col min="5" max="5" width="12.625" style="1"/>
-    <col min="6" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="6" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2992,19 +3172,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -3013,44 +3193,47 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3066,23 +3249,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3090,10 +3273,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -3101,10 +3284,13 @@
       <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -185,7 +185,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -197,7 +197,7 @@
     <t>test_submodel</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -236,19 +236,19 @@
     <t>compartment c</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat * spec_type_0[c]</t>
@@ -493,9 +490,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -549,14 +546,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -572,17 +561,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,8 +575,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,16 +598,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,38 +636,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,6 +658,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -707,13 +704,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,13 +770,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,55 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,91 +878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,15 +907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -930,32 +918,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,143 +954,178 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1867,7 +1864,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1930,11 +1927,8 @@
       <c r="D2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>87</v>
@@ -1985,10 +1979,10 @@
         <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2045,7 +2039,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2100,13 +2094,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>64</v>
@@ -2147,7 +2141,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2172,10 +2166,10 @@
         <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>64</v>
@@ -2198,24 +2192,18 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
@@ -2226,58 +2214,49 @@
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2274,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2374,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>64</v>
@@ -2386,10 +2365,10 @@
         <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>23</v>
@@ -2404,22 +2383,22 @@
         <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>16</v>
@@ -2469,10 +2448,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>64</v>
@@ -2481,7 +2460,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -2602,12 +2581,12 @@
   <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2624,46 +2603,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2772,12 +2751,12 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2816,7 +2795,7 @@
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2840,7 +2819,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2958,7 +2937,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3019,7 +2998,7 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3036,7 +3015,7 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3150,7 +3129,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -490,10 +490,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -535,7 +535,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,28 +561,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -576,15 +568,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,15 +599,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,11 +621,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,17 +635,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,33 +675,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -704,7 +704,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +788,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,25 +836,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,121 +878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,17 +922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,13 +946,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,162 +987,149 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2666,10 +2666,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -2751,7 +2751,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
@@ -45,9 +47,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$5</definedName>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="143">
   <si>
     <t>Id</t>
   </si>
@@ -131,327 +133,321 @@
     <t>0.0.1</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>test_submodel</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compartment c</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>test_reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat * spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol gDCW^-1 h^-1</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>test_submodel</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>compartment c</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>spec_type_1</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>test_reaction_1</t>
-  </si>
-  <si>
-    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>test_reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat * spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>mmol gDCW^-1 h^-1</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -483,6 +479,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -490,12 +534,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,27 +573,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,30 +585,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,15 +616,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,10 +658,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,16 +673,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -658,9 +696,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,18 +720,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -704,13 +742,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,31 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,25 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,19 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +874,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,25 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,19 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,69 +933,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -979,8 +954,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,145 +1024,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1141,6 +1179,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1167,16 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1565,123 +1596,106 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:B15"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575"/>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
-      <c r="A2" s="12" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:2">
-      <c r="A3" s="12" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:2">
-      <c r="A4" s="12" t="s">
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:2">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:2">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" ht="27" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" ht="27" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" ht="54" spans="1:2">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="15"/>
+      <c r="B12" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1705,8 +1719,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1023" width="8.575" style="1"/>
-    <col min="1024" max="16384" width="9" style="1"/>
+    <col min="1" max="1023" width="8.575" style="3"/>
+    <col min="1024" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -1717,36 +1731,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1774,12 +1788,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="1027" width="8.575" style="1"/>
-    <col min="1028" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.575" style="3"/>
+    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29" style="3" customWidth="1"/>
+    <col min="5" max="1027" width="8.575" style="3"/>
+    <col min="1028" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1790,58 +1804,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="5" t="b">
+      <c r="E2" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>87</v>
+      <c r="F2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1869,14 +1883,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.575" style="1"/>
-    <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.575" style="3"/>
+    <col min="5" max="5" width="4.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="3" customWidth="1"/>
+    <col min="7" max="1025" width="8.575" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1887,51 +1901,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>87</v>
+      <c r="G2" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1973,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1970,34 +1984,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2021,8 +2035,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -2033,28 +2047,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2082,43 +2096,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="8"/>
-    <col min="1027" max="16384" width="9" style="8"/>
+    <col min="1" max="1026" width="8.575" style="9"/>
+    <col min="1027" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>16</v>
+      <c r="C1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2146,13 +2160,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.575" style="1"/>
-    <col min="4" max="4" width="9.25" style="1"/>
-    <col min="5" max="5" width="8.575" style="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.575" style="3"/>
+    <col min="4" max="4" width="9.25" style="3"/>
+    <col min="5" max="5" width="8.575" style="3"/>
+    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="7" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -2163,100 +2177,100 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="D3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="5">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="5">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D7" s="8">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6.02214075862e+23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2284,8 +2298,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2296,25 +2310,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2342,75 +2356,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
+      <c r="U1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2434,78 +2448,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="3"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>21</v>
+      <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2532,38 +2546,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1025" width="8.575" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2591,8 +2605,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1025" width="8.575" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -2603,52 +2617,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2661,12 +2675,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -2674,18 +2827,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="3"/>
+    <col min="1016" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -2695,49 +2848,49 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
         <v>7.75</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2761,8 +2914,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -2773,30 +2926,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2824,97 +2977,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="8">
+        <v>4.58e-17</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4.58e-18</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="7">
-        <v>4.58e-17</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.58e-18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2942,9 +3095,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2955,68 +3108,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="6">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6">
         <v>29</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3044,9 +3197,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="15.6416666666667" style="1"/>
-    <col min="7" max="1026" width="9.10833333333333" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="15.6416666666667" style="3"/>
+    <col min="7" max="1026" width="9.10833333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -3057,56 +3210,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>66</v>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3134,13 +3287,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.575" style="1"/>
-    <col min="5" max="5" width="12.625" style="1"/>
-    <col min="6" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="3"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.575" style="3"/>
+    <col min="5" max="5" width="12.625" style="3"/>
+    <col min="6" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -3151,68 +3304,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3">
+        <v>33.2107808085433</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1">
-        <v>33.2107808085433</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>73</v>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3240,37 +3393,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
+      <c r="C1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -442,6 +442,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -508,6 +511,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -521,9 +527,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -535,9 +538,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -571,9 +574,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,44 +585,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -639,12 +604,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,16 +655,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,30 +686,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +705,28 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -742,13 +745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +769,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,19 +805,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,103 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,13 +871,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,21 +936,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -985,21 +973,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1025,6 +998,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1033,153 +1021,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1613,52 +1613,49 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1666,7 +1663,7 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1674,25 +1671,25 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B12">
@@ -1719,8 +1716,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1023" width="8.575" style="3"/>
-    <col min="1024" max="16384" width="9" style="3"/>
+    <col min="1" max="1023" width="8.575" style="1"/>
+    <col min="1024" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -1753,13 +1750,13 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1788,12 +1785,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.575" style="3"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="1027" width="8.575" style="3"/>
-    <col min="1028" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="1027" width="8.575" style="1"/>
+    <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
@@ -1840,21 +1837,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="6" t="b">
+      <c r="E2" s="5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1883,14 +1880,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.575" style="3"/>
-    <col min="5" max="5" width="4.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="3" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.575" style="1"/>
+    <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -1931,20 +1928,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1973,7 +1970,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2035,8 +2032,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -2096,30 +2093,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="9"/>
-    <col min="1027" max="16384" width="9" style="9"/>
+    <col min="1" max="1026" width="8.575" style="8"/>
+    <col min="1027" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2128,10 +2125,10 @@
       <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2160,13 +2157,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.575" style="3"/>
-    <col min="4" max="4" width="9.25" style="3"/>
-    <col min="5" max="5" width="8.575" style="3"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.575" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="8.575" style="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -2204,72 +2201,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2298,8 +2295,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2356,74 +2353,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="3"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2436,90 +2433,93 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="3"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2546,22 +2546,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2605,8 +2605,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
@@ -2617,46 +2617,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -2701,31 +2701,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2743,14 +2743,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2758,7 +2758,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2769,43 +2769,46 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2827,17 +2830,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="3"/>
-    <col min="1016" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2850,7 +2853,7 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
@@ -2858,7 +2861,7 @@
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2866,7 +2869,7 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
@@ -2874,7 +2877,7 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2914,8 +2917,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
@@ -2944,11 +2947,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2977,18 +2980,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="3"/>
-    <col min="1032" max="16384" width="9" style="3"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3034,39 +3037,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3095,9 +3098,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
-    <col min="2" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -3138,37 +3141,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>29</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>29</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3197,9 +3200,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="6" width="15.6416666666667" style="3"/>
-    <col min="7" max="1026" width="9.10833333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="6" width="15.6416666666667" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -3235,30 +3238,30 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3287,13 +3290,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.575" style="3"/>
-    <col min="5" max="5" width="12.625" style="3"/>
-    <col min="6" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.575" style="1"/>
+    <col min="5" max="5" width="12.625" style="1"/>
+    <col min="6" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -3335,36 +3338,36 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3393,24 +3396,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -3419,7 +3422,7 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="7" activeTab="18"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="160">
   <si>
     <t>Table</t>
   </si>
@@ -216,7 +216,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -558,9 +558,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -590,10 +587,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -647,6 +644,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -655,28 +667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,9 +691,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,24 +734,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,9 +748,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,30 +786,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,7 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +826,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,103 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,55 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,11 +1008,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,7 +1042,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,21 +1063,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1074,17 +1077,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,138 +1108,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2675,12 +2672,12 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:V2"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3077,14 +3074,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3092,7 +3089,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3124,12 +3121,9 @@
         <v>151</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3168,25 +3162,25 @@
         <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3207,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
   <si>
     <t>Table</t>
   </si>
@@ -243,15 +243,6 @@
     <t>degC</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>Framework</t>
   </si>
   <si>
@@ -262,6 +253,9 @@
   </si>
   <si>
     <t>Initial volume</t>
+  </si>
+  <si>
+    <t>pH</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -279,19 +273,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Distribution</t>
+    <t>Volume distribution</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Volume mean</t>
   </si>
   <si>
-    <t>Standard deviation</t>
+    <t>Volume standard deviation</t>
   </si>
   <si>
-    <t>Units</t>
+    <t>Volume units</t>
   </si>
   <si>
     <t>Initial density</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>c</t>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>density_c</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Structure</t>
@@ -354,6 +354,9 @@
     <t>Compartment</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>spec_type_0[c]</t>
   </si>
   <si>
@@ -361,6 +364,15 @@
   </si>
   <si>
     <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-spec_type_0[c]</t>
@@ -587,10 +599,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -644,16 +656,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,17 +693,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,35 +730,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,44 +738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,10 +759,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -814,7 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +838,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +928,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,25 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,25 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,61 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,6 +1017,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1019,6 +1064,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,23 +1097,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,170 +1117,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1969,10 +1981,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>38</v>
@@ -2027,10 +2039,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -2050,13 +2062,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2112,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -2118,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
@@ -2156,20 +2168,20 @@
     </row>
     <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E3" s="6" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2218,19 +2230,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -2250,19 +2262,19 @@
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2307,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
       <c r="D1" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E1" s="11"/>
     </row>
@@ -2307,19 +2319,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>38</v>
@@ -2373,13 +2385,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -2434,16 +2446,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>38</v>
@@ -2506,13 +2518,13 @@
         <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -2532,71 +2544,71 @@
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D2" s="6">
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D3" s="6">
         <v>0.3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D7" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2636,10 +2648,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -2687,7 +2699,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:14">
       <c r="G1" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5" t="s">
@@ -2707,13 +2719,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>77</v>
@@ -2722,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>44</v>
@@ -2731,28 +2743,28 @@
         <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>38</v>
@@ -2914,19 +2926,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>38</v>
@@ -3013,46 +3025,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>38</v>
@@ -3076,7 +3088,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3097,28 +3109,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3162,25 +3174,25 @@
         <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3201,7 +3213,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3272,15 +3284,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -3317,34 +3329,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3381,7 +3377,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
@@ -3401,10 +3397,10 @@
     </row>
     <row r="2" s="6" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3422,18 +3418,18 @@
   <sheetPr/>
   <dimension ref="A1:XFD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="1" max="1033" width="8.575" style="1"/>
+    <col min="1034" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
@@ -3445,14 +3441,16 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="M1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="11"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -4467,8 +4465,8 @@
       <c r="AML1" s="12"/>
       <c r="AMM1" s="12"/>
       <c r="AMN1" s="12"/>
-      <c r="AMO1"/>
-      <c r="AMP1"/>
+      <c r="AMO1" s="12"/>
+      <c r="AMP1" s="12"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -19832,52 +19830,56 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
@@ -20887,8 +20889,8 @@
       <c r="AML2" s="12"/>
       <c r="AMM2" s="12"/>
       <c r="AMN2" s="12"/>
-      <c r="AMO2"/>
-      <c r="AMP2"/>
+      <c r="AMO2" s="12"/>
+      <c r="AMP2" s="12"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -36244,28 +36246,28 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:12">
+    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I3" s="8">
         <v>4.58e-17</v>
@@ -36274,9 +36276,15 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -36284,8 +36292,9 @@
   <autoFilter ref="A2:H3">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -36429,7 +36438,7 @@
         <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -36449,30 +36458,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -36520,16 +36529,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -36549,36 +36558,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="160">
   <si>
     <t>Table</t>
   </si>
@@ -273,22 +273,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Volume distribution</t>
+    <t>Distribution</t>
   </si>
   <si>
-    <t>Volume mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Volume standard deviation</t>
+    <t>Standard deviation</t>
   </si>
   <si>
-    <t>Volume units</t>
+    <t>Units</t>
   </si>
   <si>
     <t>Initial density</t>
   </si>
   <si>
-    <t>pH units</t>
+    <t>Value</t>
   </si>
   <si>
     <t>c</t>
@@ -354,9 +354,6 @@
     <t>Compartment</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>spec_type_0[c]</t>
   </si>
   <si>
@@ -364,15 +361,6 @@
   </si>
   <si>
     <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-spec_type_0[c]</t>
@@ -438,9 +426,6 @@
     <t>k_cat * spec_type_0[c]</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -486,7 +471,16 @@
     <t>Genotype</t>
   </si>
   <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -499,12 +493,6 @@
   </si>
   <si>
     <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
   </si>
   <si>
     <t>Method</t>
@@ -600,9 +588,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -656,13 +644,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,17 +696,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -699,20 +718,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -721,9 +726,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,15 +743,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,14 +767,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,33 +780,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -826,7 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,37 +832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +880,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,19 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,49 +970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,11 +1008,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,30 +1091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1120,142 +1108,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1268,6 +1256,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1707,216 +1698,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.7083333333333" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="16" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7083333333333" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="17" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
         <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
         <v>175</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19">
         <v>125</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
         <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19">
         <v>167</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19">
         <v>95</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1981,10 +1972,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>38</v>
@@ -2039,10 +2030,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -2062,10 +2053,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>70</v>
@@ -2105,22 +2096,22 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -2130,25 +2121,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
@@ -2166,22 +2157,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="6" t="b">
+      <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>106</v>
+      <c r="F3" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2230,19 +2221,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -2260,21 +2251,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>106</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2306,10 +2297,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
-      <c r="D1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="11"/>
+      <c r="D1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -2319,19 +2310,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>38</v>
@@ -2385,13 +2376,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -2434,30 +2425,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="9"/>
-    <col min="1027" max="16384" width="9" style="9"/>
+    <col min="1" max="1026" width="8.575" style="10"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2466,10 +2457,10 @@
       <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2518,13 +2509,13 @@
         <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -2542,51 +2533,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="6">
+    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>119</v>
+      <c r="F2" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="7">
         <v>0.3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="7">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>119</v>
+      <c r="F4" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -2597,18 +2588,18 @@
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2648,10 +2639,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -2682,14 +2673,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2697,21 +2688,29 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="7:14">
-      <c r="G1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+    <row r="1" customHeight="1" spans="7:20">
+      <c r="G1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="Q1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="5"/>
     </row>
-    <row r="2" customHeight="1" spans="1:22">
+    <row r="2" customHeight="1" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2719,13 +2718,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>77</v>
@@ -2734,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>44</v>
@@ -2746,43 +2745,51 @@
         <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2859,7 +2866,7 @@
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2867,25 +2874,25 @@
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B12">
@@ -2900,65 +2907,70 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="1"/>
-    <col min="1023" max="1023" width="9.10833333333333"/>
+    <col min="3" max="1023" width="9.10833333333333" style="1"/>
+    <col min="1024" max="1024" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="7:8">
+      <c r="G1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
       <c r="C3" s="4"/>
@@ -2988,7 +3000,14 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
+    <row r="10" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3025,46 +3044,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>38</v>
@@ -3109,28 +3128,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3174,25 +3193,25 @@
         <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3213,7 +3232,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3316,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="15"/>
+    <col min="1016" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3395,8 +3414,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3418,12 +3437,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:N4"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3433,1040 +3452,1040 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="11" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12"/>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12"/>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12"/>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
-      <c r="GM1" s="12"/>
-      <c r="GN1" s="12"/>
-      <c r="GO1" s="12"/>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
-      <c r="GT1" s="12"/>
-      <c r="GU1" s="12"/>
-      <c r="GV1" s="12"/>
-      <c r="GW1" s="12"/>
-      <c r="GX1" s="12"/>
-      <c r="GY1" s="12"/>
-      <c r="GZ1" s="12"/>
-      <c r="HA1" s="12"/>
-      <c r="HB1" s="12"/>
-      <c r="HC1" s="12"/>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="12"/>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12"/>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12"/>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
-      <c r="HV1" s="12"/>
-      <c r="HW1" s="12"/>
-      <c r="HX1" s="12"/>
-      <c r="HY1" s="12"/>
-      <c r="HZ1" s="12"/>
-      <c r="IA1" s="12"/>
-      <c r="IB1" s="12"/>
-      <c r="IC1" s="12"/>
-      <c r="ID1" s="12"/>
-      <c r="IE1" s="12"/>
-      <c r="IF1" s="12"/>
-      <c r="IG1" s="12"/>
-      <c r="IH1" s="12"/>
-      <c r="II1" s="12"/>
-      <c r="IJ1" s="12"/>
-      <c r="IK1" s="12"/>
-      <c r="IL1" s="12"/>
-      <c r="IM1" s="12"/>
-      <c r="IN1" s="12"/>
-      <c r="IO1" s="12"/>
-      <c r="IP1" s="12"/>
-      <c r="IQ1" s="12"/>
-      <c r="IR1" s="12"/>
-      <c r="IS1" s="12"/>
-      <c r="IT1" s="12"/>
-      <c r="IU1" s="12"/>
-      <c r="IV1" s="12"/>
-      <c r="IW1" s="12"/>
-      <c r="IX1" s="12"/>
-      <c r="IY1" s="12"/>
-      <c r="IZ1" s="12"/>
-      <c r="JA1" s="12"/>
-      <c r="JB1" s="12"/>
-      <c r="JC1" s="12"/>
-      <c r="JD1" s="12"/>
-      <c r="JE1" s="12"/>
-      <c r="JF1" s="12"/>
-      <c r="JG1" s="12"/>
-      <c r="JH1" s="12"/>
-      <c r="JI1" s="12"/>
-      <c r="JJ1" s="12"/>
-      <c r="JK1" s="12"/>
-      <c r="JL1" s="12"/>
-      <c r="JM1" s="12"/>
-      <c r="JN1" s="12"/>
-      <c r="JO1" s="12"/>
-      <c r="JP1" s="12"/>
-      <c r="JQ1" s="12"/>
-      <c r="JR1" s="12"/>
-      <c r="JS1" s="12"/>
-      <c r="JT1" s="12"/>
-      <c r="JU1" s="12"/>
-      <c r="JV1" s="12"/>
-      <c r="JW1" s="12"/>
-      <c r="JX1" s="12"/>
-      <c r="JY1" s="12"/>
-      <c r="JZ1" s="12"/>
-      <c r="KA1" s="12"/>
-      <c r="KB1" s="12"/>
-      <c r="KC1" s="12"/>
-      <c r="KD1" s="12"/>
-      <c r="KE1" s="12"/>
-      <c r="KF1" s="12"/>
-      <c r="KG1" s="12"/>
-      <c r="KH1" s="12"/>
-      <c r="KI1" s="12"/>
-      <c r="KJ1" s="12"/>
-      <c r="KK1" s="12"/>
-      <c r="KL1" s="12"/>
-      <c r="KM1" s="12"/>
-      <c r="KN1" s="12"/>
-      <c r="KO1" s="12"/>
-      <c r="KP1" s="12"/>
-      <c r="KQ1" s="12"/>
-      <c r="KR1" s="12"/>
-      <c r="KS1" s="12"/>
-      <c r="KT1" s="12"/>
-      <c r="KU1" s="12"/>
-      <c r="KV1" s="12"/>
-      <c r="KW1" s="12"/>
-      <c r="KX1" s="12"/>
-      <c r="KY1" s="12"/>
-      <c r="KZ1" s="12"/>
-      <c r="LA1" s="12"/>
-      <c r="LB1" s="12"/>
-      <c r="LC1" s="12"/>
-      <c r="LD1" s="12"/>
-      <c r="LE1" s="12"/>
-      <c r="LF1" s="12"/>
-      <c r="LG1" s="12"/>
-      <c r="LH1" s="12"/>
-      <c r="LI1" s="12"/>
-      <c r="LJ1" s="12"/>
-      <c r="LK1" s="12"/>
-      <c r="LL1" s="12"/>
-      <c r="LM1" s="12"/>
-      <c r="LN1" s="12"/>
-      <c r="LO1" s="12"/>
-      <c r="LP1" s="12"/>
-      <c r="LQ1" s="12"/>
-      <c r="LR1" s="12"/>
-      <c r="LS1" s="12"/>
-      <c r="LT1" s="12"/>
-      <c r="LU1" s="12"/>
-      <c r="LV1" s="12"/>
-      <c r="LW1" s="12"/>
-      <c r="LX1" s="12"/>
-      <c r="LY1" s="12"/>
-      <c r="LZ1" s="12"/>
-      <c r="MA1" s="12"/>
-      <c r="MB1" s="12"/>
-      <c r="MC1" s="12"/>
-      <c r="MD1" s="12"/>
-      <c r="ME1" s="12"/>
-      <c r="MF1" s="12"/>
-      <c r="MG1" s="12"/>
-      <c r="MH1" s="12"/>
-      <c r="MI1" s="12"/>
-      <c r="MJ1" s="12"/>
-      <c r="MK1" s="12"/>
-      <c r="ML1" s="12"/>
-      <c r="MM1" s="12"/>
-      <c r="MN1" s="12"/>
-      <c r="MO1" s="12"/>
-      <c r="MP1" s="12"/>
-      <c r="MQ1" s="12"/>
-      <c r="MR1" s="12"/>
-      <c r="MS1" s="12"/>
-      <c r="MT1" s="12"/>
-      <c r="MU1" s="12"/>
-      <c r="MV1" s="12"/>
-      <c r="MW1" s="12"/>
-      <c r="MX1" s="12"/>
-      <c r="MY1" s="12"/>
-      <c r="MZ1" s="12"/>
-      <c r="NA1" s="12"/>
-      <c r="NB1" s="12"/>
-      <c r="NC1" s="12"/>
-      <c r="ND1" s="12"/>
-      <c r="NE1" s="12"/>
-      <c r="NF1" s="12"/>
-      <c r="NG1" s="12"/>
-      <c r="NH1" s="12"/>
-      <c r="NI1" s="12"/>
-      <c r="NJ1" s="12"/>
-      <c r="NK1" s="12"/>
-      <c r="NL1" s="12"/>
-      <c r="NM1" s="12"/>
-      <c r="NN1" s="12"/>
-      <c r="NO1" s="12"/>
-      <c r="NP1" s="12"/>
-      <c r="NQ1" s="12"/>
-      <c r="NR1" s="12"/>
-      <c r="NS1" s="12"/>
-      <c r="NT1" s="12"/>
-      <c r="NU1" s="12"/>
-      <c r="NV1" s="12"/>
-      <c r="NW1" s="12"/>
-      <c r="NX1" s="12"/>
-      <c r="NY1" s="12"/>
-      <c r="NZ1" s="12"/>
-      <c r="OA1" s="12"/>
-      <c r="OB1" s="12"/>
-      <c r="OC1" s="12"/>
-      <c r="OD1" s="12"/>
-      <c r="OE1" s="12"/>
-      <c r="OF1" s="12"/>
-      <c r="OG1" s="12"/>
-      <c r="OH1" s="12"/>
-      <c r="OI1" s="12"/>
-      <c r="OJ1" s="12"/>
-      <c r="OK1" s="12"/>
-      <c r="OL1" s="12"/>
-      <c r="OM1" s="12"/>
-      <c r="ON1" s="12"/>
-      <c r="OO1" s="12"/>
-      <c r="OP1" s="12"/>
-      <c r="OQ1" s="12"/>
-      <c r="OR1" s="12"/>
-      <c r="OS1" s="12"/>
-      <c r="OT1" s="12"/>
-      <c r="OU1" s="12"/>
-      <c r="OV1" s="12"/>
-      <c r="OW1" s="12"/>
-      <c r="OX1" s="12"/>
-      <c r="OY1" s="12"/>
-      <c r="OZ1" s="12"/>
-      <c r="PA1" s="12"/>
-      <c r="PB1" s="12"/>
-      <c r="PC1" s="12"/>
-      <c r="PD1" s="12"/>
-      <c r="PE1" s="12"/>
-      <c r="PF1" s="12"/>
-      <c r="PG1" s="12"/>
-      <c r="PH1" s="12"/>
-      <c r="PI1" s="12"/>
-      <c r="PJ1" s="12"/>
-      <c r="PK1" s="12"/>
-      <c r="PL1" s="12"/>
-      <c r="PM1" s="12"/>
-      <c r="PN1" s="12"/>
-      <c r="PO1" s="12"/>
-      <c r="PP1" s="12"/>
-      <c r="PQ1" s="12"/>
-      <c r="PR1" s="12"/>
-      <c r="PS1" s="12"/>
-      <c r="PT1" s="12"/>
-      <c r="PU1" s="12"/>
-      <c r="PV1" s="12"/>
-      <c r="PW1" s="12"/>
-      <c r="PX1" s="12"/>
-      <c r="PY1" s="12"/>
-      <c r="PZ1" s="12"/>
-      <c r="QA1" s="12"/>
-      <c r="QB1" s="12"/>
-      <c r="QC1" s="12"/>
-      <c r="QD1" s="12"/>
-      <c r="QE1" s="12"/>
-      <c r="QF1" s="12"/>
-      <c r="QG1" s="12"/>
-      <c r="QH1" s="12"/>
-      <c r="QI1" s="12"/>
-      <c r="QJ1" s="12"/>
-      <c r="QK1" s="12"/>
-      <c r="QL1" s="12"/>
-      <c r="QM1" s="12"/>
-      <c r="QN1" s="12"/>
-      <c r="QO1" s="12"/>
-      <c r="QP1" s="12"/>
-      <c r="QQ1" s="12"/>
-      <c r="QR1" s="12"/>
-      <c r="QS1" s="12"/>
-      <c r="QT1" s="12"/>
-      <c r="QU1" s="12"/>
-      <c r="QV1" s="12"/>
-      <c r="QW1" s="12"/>
-      <c r="QX1" s="12"/>
-      <c r="QY1" s="12"/>
-      <c r="QZ1" s="12"/>
-      <c r="RA1" s="12"/>
-      <c r="RB1" s="12"/>
-      <c r="RC1" s="12"/>
-      <c r="RD1" s="12"/>
-      <c r="RE1" s="12"/>
-      <c r="RF1" s="12"/>
-      <c r="RG1" s="12"/>
-      <c r="RH1" s="12"/>
-      <c r="RI1" s="12"/>
-      <c r="RJ1" s="12"/>
-      <c r="RK1" s="12"/>
-      <c r="RL1" s="12"/>
-      <c r="RM1" s="12"/>
-      <c r="RN1" s="12"/>
-      <c r="RO1" s="12"/>
-      <c r="RP1" s="12"/>
-      <c r="RQ1" s="12"/>
-      <c r="RR1" s="12"/>
-      <c r="RS1" s="12"/>
-      <c r="RT1" s="12"/>
-      <c r="RU1" s="12"/>
-      <c r="RV1" s="12"/>
-      <c r="RW1" s="12"/>
-      <c r="RX1" s="12"/>
-      <c r="RY1" s="12"/>
-      <c r="RZ1" s="12"/>
-      <c r="SA1" s="12"/>
-      <c r="SB1" s="12"/>
-      <c r="SC1" s="12"/>
-      <c r="SD1" s="12"/>
-      <c r="SE1" s="12"/>
-      <c r="SF1" s="12"/>
-      <c r="SG1" s="12"/>
-      <c r="SH1" s="12"/>
-      <c r="SI1" s="12"/>
-      <c r="SJ1" s="12"/>
-      <c r="SK1" s="12"/>
-      <c r="SL1" s="12"/>
-      <c r="SM1" s="12"/>
-      <c r="SN1" s="12"/>
-      <c r="SO1" s="12"/>
-      <c r="SP1" s="12"/>
-      <c r="SQ1" s="12"/>
-      <c r="SR1" s="12"/>
-      <c r="SS1" s="12"/>
-      <c r="ST1" s="12"/>
-      <c r="SU1" s="12"/>
-      <c r="SV1" s="12"/>
-      <c r="SW1" s="12"/>
-      <c r="SX1" s="12"/>
-      <c r="SY1" s="12"/>
-      <c r="SZ1" s="12"/>
-      <c r="TA1" s="12"/>
-      <c r="TB1" s="12"/>
-      <c r="TC1" s="12"/>
-      <c r="TD1" s="12"/>
-      <c r="TE1" s="12"/>
-      <c r="TF1" s="12"/>
-      <c r="TG1" s="12"/>
-      <c r="TH1" s="12"/>
-      <c r="TI1" s="12"/>
-      <c r="TJ1" s="12"/>
-      <c r="TK1" s="12"/>
-      <c r="TL1" s="12"/>
-      <c r="TM1" s="12"/>
-      <c r="TN1" s="12"/>
-      <c r="TO1" s="12"/>
-      <c r="TP1" s="12"/>
-      <c r="TQ1" s="12"/>
-      <c r="TR1" s="12"/>
-      <c r="TS1" s="12"/>
-      <c r="TT1" s="12"/>
-      <c r="TU1" s="12"/>
-      <c r="TV1" s="12"/>
-      <c r="TW1" s="12"/>
-      <c r="TX1" s="12"/>
-      <c r="TY1" s="12"/>
-      <c r="TZ1" s="12"/>
-      <c r="UA1" s="12"/>
-      <c r="UB1" s="12"/>
-      <c r="UC1" s="12"/>
-      <c r="UD1" s="12"/>
-      <c r="UE1" s="12"/>
-      <c r="UF1" s="12"/>
-      <c r="UG1" s="12"/>
-      <c r="UH1" s="12"/>
-      <c r="UI1" s="12"/>
-      <c r="UJ1" s="12"/>
-      <c r="UK1" s="12"/>
-      <c r="UL1" s="12"/>
-      <c r="UM1" s="12"/>
-      <c r="UN1" s="12"/>
-      <c r="UO1" s="12"/>
-      <c r="UP1" s="12"/>
-      <c r="UQ1" s="12"/>
-      <c r="UR1" s="12"/>
-      <c r="US1" s="12"/>
-      <c r="UT1" s="12"/>
-      <c r="UU1" s="12"/>
-      <c r="UV1" s="12"/>
-      <c r="UW1" s="12"/>
-      <c r="UX1" s="12"/>
-      <c r="UY1" s="12"/>
-      <c r="UZ1" s="12"/>
-      <c r="VA1" s="12"/>
-      <c r="VB1" s="12"/>
-      <c r="VC1" s="12"/>
-      <c r="VD1" s="12"/>
-      <c r="VE1" s="12"/>
-      <c r="VF1" s="12"/>
-      <c r="VG1" s="12"/>
-      <c r="VH1" s="12"/>
-      <c r="VI1" s="12"/>
-      <c r="VJ1" s="12"/>
-      <c r="VK1" s="12"/>
-      <c r="VL1" s="12"/>
-      <c r="VM1" s="12"/>
-      <c r="VN1" s="12"/>
-      <c r="VO1" s="12"/>
-      <c r="VP1" s="12"/>
-      <c r="VQ1" s="12"/>
-      <c r="VR1" s="12"/>
-      <c r="VS1" s="12"/>
-      <c r="VT1" s="12"/>
-      <c r="VU1" s="12"/>
-      <c r="VV1" s="12"/>
-      <c r="VW1" s="12"/>
-      <c r="VX1" s="12"/>
-      <c r="VY1" s="12"/>
-      <c r="VZ1" s="12"/>
-      <c r="WA1" s="12"/>
-      <c r="WB1" s="12"/>
-      <c r="WC1" s="12"/>
-      <c r="WD1" s="12"/>
-      <c r="WE1" s="12"/>
-      <c r="WF1" s="12"/>
-      <c r="WG1" s="12"/>
-      <c r="WH1" s="12"/>
-      <c r="WI1" s="12"/>
-      <c r="WJ1" s="12"/>
-      <c r="WK1" s="12"/>
-      <c r="WL1" s="12"/>
-      <c r="WM1" s="12"/>
-      <c r="WN1" s="12"/>
-      <c r="WO1" s="12"/>
-      <c r="WP1" s="12"/>
-      <c r="WQ1" s="12"/>
-      <c r="WR1" s="12"/>
-      <c r="WS1" s="12"/>
-      <c r="WT1" s="12"/>
-      <c r="WU1" s="12"/>
-      <c r="WV1" s="12"/>
-      <c r="WW1" s="12"/>
-      <c r="WX1" s="12"/>
-      <c r="WY1" s="12"/>
-      <c r="WZ1" s="12"/>
-      <c r="XA1" s="12"/>
-      <c r="XB1" s="12"/>
-      <c r="XC1" s="12"/>
-      <c r="XD1" s="12"/>
-      <c r="XE1" s="12"/>
-      <c r="XF1" s="12"/>
-      <c r="XG1" s="12"/>
-      <c r="XH1" s="12"/>
-      <c r="XI1" s="12"/>
-      <c r="XJ1" s="12"/>
-      <c r="XK1" s="12"/>
-      <c r="XL1" s="12"/>
-      <c r="XM1" s="12"/>
-      <c r="XN1" s="12"/>
-      <c r="XO1" s="12"/>
-      <c r="XP1" s="12"/>
-      <c r="XQ1" s="12"/>
-      <c r="XR1" s="12"/>
-      <c r="XS1" s="12"/>
-      <c r="XT1" s="12"/>
-      <c r="XU1" s="12"/>
-      <c r="XV1" s="12"/>
-      <c r="XW1" s="12"/>
-      <c r="XX1" s="12"/>
-      <c r="XY1" s="12"/>
-      <c r="XZ1" s="12"/>
-      <c r="YA1" s="12"/>
-      <c r="YB1" s="12"/>
-      <c r="YC1" s="12"/>
-      <c r="YD1" s="12"/>
-      <c r="YE1" s="12"/>
-      <c r="YF1" s="12"/>
-      <c r="YG1" s="12"/>
-      <c r="YH1" s="12"/>
-      <c r="YI1" s="12"/>
-      <c r="YJ1" s="12"/>
-      <c r="YK1" s="12"/>
-      <c r="YL1" s="12"/>
-      <c r="YM1" s="12"/>
-      <c r="YN1" s="12"/>
-      <c r="YO1" s="12"/>
-      <c r="YP1" s="12"/>
-      <c r="YQ1" s="12"/>
-      <c r="YR1" s="12"/>
-      <c r="YS1" s="12"/>
-      <c r="YT1" s="12"/>
-      <c r="YU1" s="12"/>
-      <c r="YV1" s="12"/>
-      <c r="YW1" s="12"/>
-      <c r="YX1" s="12"/>
-      <c r="YY1" s="12"/>
-      <c r="YZ1" s="12"/>
-      <c r="ZA1" s="12"/>
-      <c r="ZB1" s="12"/>
-      <c r="ZC1" s="12"/>
-      <c r="ZD1" s="12"/>
-      <c r="ZE1" s="12"/>
-      <c r="ZF1" s="12"/>
-      <c r="ZG1" s="12"/>
-      <c r="ZH1" s="12"/>
-      <c r="ZI1" s="12"/>
-      <c r="ZJ1" s="12"/>
-      <c r="ZK1" s="12"/>
-      <c r="ZL1" s="12"/>
-      <c r="ZM1" s="12"/>
-      <c r="ZN1" s="12"/>
-      <c r="ZO1" s="12"/>
-      <c r="ZP1" s="12"/>
-      <c r="ZQ1" s="12"/>
-      <c r="ZR1" s="12"/>
-      <c r="ZS1" s="12"/>
-      <c r="ZT1" s="12"/>
-      <c r="ZU1" s="12"/>
-      <c r="ZV1" s="12"/>
-      <c r="ZW1" s="12"/>
-      <c r="ZX1" s="12"/>
-      <c r="ZY1" s="12"/>
-      <c r="ZZ1" s="12"/>
-      <c r="AAA1" s="12"/>
-      <c r="AAB1" s="12"/>
-      <c r="AAC1" s="12"/>
-      <c r="AAD1" s="12"/>
-      <c r="AAE1" s="12"/>
-      <c r="AAF1" s="12"/>
-      <c r="AAG1" s="12"/>
-      <c r="AAH1" s="12"/>
-      <c r="AAI1" s="12"/>
-      <c r="AAJ1" s="12"/>
-      <c r="AAK1" s="12"/>
-      <c r="AAL1" s="12"/>
-      <c r="AAM1" s="12"/>
-      <c r="AAN1" s="12"/>
-      <c r="AAO1" s="12"/>
-      <c r="AAP1" s="12"/>
-      <c r="AAQ1" s="12"/>
-      <c r="AAR1" s="12"/>
-      <c r="AAS1" s="12"/>
-      <c r="AAT1" s="12"/>
-      <c r="AAU1" s="12"/>
-      <c r="AAV1" s="12"/>
-      <c r="AAW1" s="12"/>
-      <c r="AAX1" s="12"/>
-      <c r="AAY1" s="12"/>
-      <c r="AAZ1" s="12"/>
-      <c r="ABA1" s="12"/>
-      <c r="ABB1" s="12"/>
-      <c r="ABC1" s="12"/>
-      <c r="ABD1" s="12"/>
-      <c r="ABE1" s="12"/>
-      <c r="ABF1" s="12"/>
-      <c r="ABG1" s="12"/>
-      <c r="ABH1" s="12"/>
-      <c r="ABI1" s="12"/>
-      <c r="ABJ1" s="12"/>
-      <c r="ABK1" s="12"/>
-      <c r="ABL1" s="12"/>
-      <c r="ABM1" s="12"/>
-      <c r="ABN1" s="12"/>
-      <c r="ABO1" s="12"/>
-      <c r="ABP1" s="12"/>
-      <c r="ABQ1" s="12"/>
-      <c r="ABR1" s="12"/>
-      <c r="ABS1" s="12"/>
-      <c r="ABT1" s="12"/>
-      <c r="ABU1" s="12"/>
-      <c r="ABV1" s="12"/>
-      <c r="ABW1" s="12"/>
-      <c r="ABX1" s="12"/>
-      <c r="ABY1" s="12"/>
-      <c r="ABZ1" s="12"/>
-      <c r="ACA1" s="12"/>
-      <c r="ACB1" s="12"/>
-      <c r="ACC1" s="12"/>
-      <c r="ACD1" s="12"/>
-      <c r="ACE1" s="12"/>
-      <c r="ACF1" s="12"/>
-      <c r="ACG1" s="12"/>
-      <c r="ACH1" s="12"/>
-      <c r="ACI1" s="12"/>
-      <c r="ACJ1" s="12"/>
-      <c r="ACK1" s="12"/>
-      <c r="ACL1" s="12"/>
-      <c r="ACM1" s="12"/>
-      <c r="ACN1" s="12"/>
-      <c r="ACO1" s="12"/>
-      <c r="ACP1" s="12"/>
-      <c r="ACQ1" s="12"/>
-      <c r="ACR1" s="12"/>
-      <c r="ACS1" s="12"/>
-      <c r="ACT1" s="12"/>
-      <c r="ACU1" s="12"/>
-      <c r="ACV1" s="12"/>
-      <c r="ACW1" s="12"/>
-      <c r="ACX1" s="12"/>
-      <c r="ACY1" s="12"/>
-      <c r="ACZ1" s="12"/>
-      <c r="ADA1" s="12"/>
-      <c r="ADB1" s="12"/>
-      <c r="ADC1" s="12"/>
-      <c r="ADD1" s="12"/>
-      <c r="ADE1" s="12"/>
-      <c r="ADF1" s="12"/>
-      <c r="ADG1" s="12"/>
-      <c r="ADH1" s="12"/>
-      <c r="ADI1" s="12"/>
-      <c r="ADJ1" s="12"/>
-      <c r="ADK1" s="12"/>
-      <c r="ADL1" s="12"/>
-      <c r="ADM1" s="12"/>
-      <c r="ADN1" s="12"/>
-      <c r="ADO1" s="12"/>
-      <c r="ADP1" s="12"/>
-      <c r="ADQ1" s="12"/>
-      <c r="ADR1" s="12"/>
-      <c r="ADS1" s="12"/>
-      <c r="ADT1" s="12"/>
-      <c r="ADU1" s="12"/>
-      <c r="ADV1" s="12"/>
-      <c r="ADW1" s="12"/>
-      <c r="ADX1" s="12"/>
-      <c r="ADY1" s="12"/>
-      <c r="ADZ1" s="12"/>
-      <c r="AEA1" s="12"/>
-      <c r="AEB1" s="12"/>
-      <c r="AEC1" s="12"/>
-      <c r="AED1" s="12"/>
-      <c r="AEE1" s="12"/>
-      <c r="AEF1" s="12"/>
-      <c r="AEG1" s="12"/>
-      <c r="AEH1" s="12"/>
-      <c r="AEI1" s="12"/>
-      <c r="AEJ1" s="12"/>
-      <c r="AEK1" s="12"/>
-      <c r="AEL1" s="12"/>
-      <c r="AEM1" s="12"/>
-      <c r="AEN1" s="12"/>
-      <c r="AEO1" s="12"/>
-      <c r="AEP1" s="12"/>
-      <c r="AEQ1" s="12"/>
-      <c r="AER1" s="12"/>
-      <c r="AES1" s="12"/>
-      <c r="AET1" s="12"/>
-      <c r="AEU1" s="12"/>
-      <c r="AEV1" s="12"/>
-      <c r="AEW1" s="12"/>
-      <c r="AEX1" s="12"/>
-      <c r="AEY1" s="12"/>
-      <c r="AEZ1" s="12"/>
-      <c r="AFA1" s="12"/>
-      <c r="AFB1" s="12"/>
-      <c r="AFC1" s="12"/>
-      <c r="AFD1" s="12"/>
-      <c r="AFE1" s="12"/>
-      <c r="AFF1" s="12"/>
-      <c r="AFG1" s="12"/>
-      <c r="AFH1" s="12"/>
-      <c r="AFI1" s="12"/>
-      <c r="AFJ1" s="12"/>
-      <c r="AFK1" s="12"/>
-      <c r="AFL1" s="12"/>
-      <c r="AFM1" s="12"/>
-      <c r="AFN1" s="12"/>
-      <c r="AFO1" s="12"/>
-      <c r="AFP1" s="12"/>
-      <c r="AFQ1" s="12"/>
-      <c r="AFR1" s="12"/>
-      <c r="AFS1" s="12"/>
-      <c r="AFT1" s="12"/>
-      <c r="AFU1" s="12"/>
-      <c r="AFV1" s="12"/>
-      <c r="AFW1" s="12"/>
-      <c r="AFX1" s="12"/>
-      <c r="AFY1" s="12"/>
-      <c r="AFZ1" s="12"/>
-      <c r="AGA1" s="12"/>
-      <c r="AGB1" s="12"/>
-      <c r="AGC1" s="12"/>
-      <c r="AGD1" s="12"/>
-      <c r="AGE1" s="12"/>
-      <c r="AGF1" s="12"/>
-      <c r="AGG1" s="12"/>
-      <c r="AGH1" s="12"/>
-      <c r="AGI1" s="12"/>
-      <c r="AGJ1" s="12"/>
-      <c r="AGK1" s="12"/>
-      <c r="AGL1" s="12"/>
-      <c r="AGM1" s="12"/>
-      <c r="AGN1" s="12"/>
-      <c r="AGO1" s="12"/>
-      <c r="AGP1" s="12"/>
-      <c r="AGQ1" s="12"/>
-      <c r="AGR1" s="12"/>
-      <c r="AGS1" s="12"/>
-      <c r="AGT1" s="12"/>
-      <c r="AGU1" s="12"/>
-      <c r="AGV1" s="12"/>
-      <c r="AGW1" s="12"/>
-      <c r="AGX1" s="12"/>
-      <c r="AGY1" s="12"/>
-      <c r="AGZ1" s="12"/>
-      <c r="AHA1" s="12"/>
-      <c r="AHB1" s="12"/>
-      <c r="AHC1" s="12"/>
-      <c r="AHD1" s="12"/>
-      <c r="AHE1" s="12"/>
-      <c r="AHF1" s="12"/>
-      <c r="AHG1" s="12"/>
-      <c r="AHH1" s="12"/>
-      <c r="AHI1" s="12"/>
-      <c r="AHJ1" s="12"/>
-      <c r="AHK1" s="12"/>
-      <c r="AHL1" s="12"/>
-      <c r="AHM1" s="12"/>
-      <c r="AHN1" s="12"/>
-      <c r="AHO1" s="12"/>
-      <c r="AHP1" s="12"/>
-      <c r="AHQ1" s="12"/>
-      <c r="AHR1" s="12"/>
-      <c r="AHS1" s="12"/>
-      <c r="AHT1" s="12"/>
-      <c r="AHU1" s="12"/>
-      <c r="AHV1" s="12"/>
-      <c r="AHW1" s="12"/>
-      <c r="AHX1" s="12"/>
-      <c r="AHY1" s="12"/>
-      <c r="AHZ1" s="12"/>
-      <c r="AIA1" s="12"/>
-      <c r="AIB1" s="12"/>
-      <c r="AIC1" s="12"/>
-      <c r="AID1" s="12"/>
-      <c r="AIE1" s="12"/>
-      <c r="AIF1" s="12"/>
-      <c r="AIG1" s="12"/>
-      <c r="AIH1" s="12"/>
-      <c r="AII1" s="12"/>
-      <c r="AIJ1" s="12"/>
-      <c r="AIK1" s="12"/>
-      <c r="AIL1" s="12"/>
-      <c r="AIM1" s="12"/>
-      <c r="AIN1" s="12"/>
-      <c r="AIO1" s="12"/>
-      <c r="AIP1" s="12"/>
-      <c r="AIQ1" s="12"/>
-      <c r="AIR1" s="12"/>
-      <c r="AIS1" s="12"/>
-      <c r="AIT1" s="12"/>
-      <c r="AIU1" s="12"/>
-      <c r="AIV1" s="12"/>
-      <c r="AIW1" s="12"/>
-      <c r="AIX1" s="12"/>
-      <c r="AIY1" s="12"/>
-      <c r="AIZ1" s="12"/>
-      <c r="AJA1" s="12"/>
-      <c r="AJB1" s="12"/>
-      <c r="AJC1" s="12"/>
-      <c r="AJD1" s="12"/>
-      <c r="AJE1" s="12"/>
-      <c r="AJF1" s="12"/>
-      <c r="AJG1" s="12"/>
-      <c r="AJH1" s="12"/>
-      <c r="AJI1" s="12"/>
-      <c r="AJJ1" s="12"/>
-      <c r="AJK1" s="12"/>
-      <c r="AJL1" s="12"/>
-      <c r="AJM1" s="12"/>
-      <c r="AJN1" s="12"/>
-      <c r="AJO1" s="12"/>
-      <c r="AJP1" s="12"/>
-      <c r="AJQ1" s="12"/>
-      <c r="AJR1" s="12"/>
-      <c r="AJS1" s="12"/>
-      <c r="AJT1" s="12"/>
-      <c r="AJU1" s="12"/>
-      <c r="AJV1" s="12"/>
-      <c r="AJW1" s="12"/>
-      <c r="AJX1" s="12"/>
-      <c r="AJY1" s="12"/>
-      <c r="AJZ1" s="12"/>
-      <c r="AKA1" s="12"/>
-      <c r="AKB1" s="12"/>
-      <c r="AKC1" s="12"/>
-      <c r="AKD1" s="12"/>
-      <c r="AKE1" s="12"/>
-      <c r="AKF1" s="12"/>
-      <c r="AKG1" s="12"/>
-      <c r="AKH1" s="12"/>
-      <c r="AKI1" s="12"/>
-      <c r="AKJ1" s="12"/>
-      <c r="AKK1" s="12"/>
-      <c r="AKL1" s="12"/>
-      <c r="AKM1" s="12"/>
-      <c r="AKN1" s="12"/>
-      <c r="AKO1" s="12"/>
-      <c r="AKP1" s="12"/>
-      <c r="AKQ1" s="12"/>
-      <c r="AKR1" s="12"/>
-      <c r="AKS1" s="12"/>
-      <c r="AKT1" s="12"/>
-      <c r="AKU1" s="12"/>
-      <c r="AKV1" s="12"/>
-      <c r="AKW1" s="12"/>
-      <c r="AKX1" s="12"/>
-      <c r="AKY1" s="12"/>
-      <c r="AKZ1" s="12"/>
-      <c r="ALA1" s="12"/>
-      <c r="ALB1" s="12"/>
-      <c r="ALC1" s="12"/>
-      <c r="ALD1" s="12"/>
-      <c r="ALE1" s="12"/>
-      <c r="ALF1" s="12"/>
-      <c r="ALG1" s="12"/>
-      <c r="ALH1" s="12"/>
-      <c r="ALI1" s="12"/>
-      <c r="ALJ1" s="12"/>
-      <c r="ALK1" s="12"/>
-      <c r="ALL1" s="12"/>
-      <c r="ALM1" s="12"/>
-      <c r="ALN1" s="12"/>
-      <c r="ALO1" s="12"/>
-      <c r="ALP1" s="12"/>
-      <c r="ALQ1" s="12"/>
-      <c r="ALR1" s="12"/>
-      <c r="ALS1" s="12"/>
-      <c r="ALT1" s="12"/>
-      <c r="ALU1" s="12"/>
-      <c r="ALV1" s="12"/>
-      <c r="ALW1" s="12"/>
-      <c r="ALX1" s="12"/>
-      <c r="ALY1" s="12"/>
-      <c r="ALZ1" s="12"/>
-      <c r="AMA1" s="12"/>
-      <c r="AMB1" s="12"/>
-      <c r="AMC1" s="12"/>
-      <c r="AMD1" s="12"/>
-      <c r="AME1" s="12"/>
-      <c r="AMF1" s="12"/>
-      <c r="AMG1" s="12"/>
-      <c r="AMH1" s="12"/>
-      <c r="AMI1" s="12"/>
-      <c r="AMJ1" s="12"/>
-      <c r="AMK1" s="12"/>
-      <c r="AML1" s="12"/>
-      <c r="AMM1" s="12"/>
-      <c r="AMN1" s="12"/>
-      <c r="AMO1" s="12"/>
-      <c r="AMP1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13"/>
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="13"/>
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13"/>
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13"/>
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13"/>
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="13"/>
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="13"/>
+      <c r="IP1" s="13"/>
+      <c r="IQ1" s="13"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="13"/>
+      <c r="IT1" s="13"/>
+      <c r="IU1" s="13"/>
+      <c r="IV1" s="13"/>
+      <c r="IW1" s="13"/>
+      <c r="IX1" s="13"/>
+      <c r="IY1" s="13"/>
+      <c r="IZ1" s="13"/>
+      <c r="JA1" s="13"/>
+      <c r="JB1" s="13"/>
+      <c r="JC1" s="13"/>
+      <c r="JD1" s="13"/>
+      <c r="JE1" s="13"/>
+      <c r="JF1" s="13"/>
+      <c r="JG1" s="13"/>
+      <c r="JH1" s="13"/>
+      <c r="JI1" s="13"/>
+      <c r="JJ1" s="13"/>
+      <c r="JK1" s="13"/>
+      <c r="JL1" s="13"/>
+      <c r="JM1" s="13"/>
+      <c r="JN1" s="13"/>
+      <c r="JO1" s="13"/>
+      <c r="JP1" s="13"/>
+      <c r="JQ1" s="13"/>
+      <c r="JR1" s="13"/>
+      <c r="JS1" s="13"/>
+      <c r="JT1" s="13"/>
+      <c r="JU1" s="13"/>
+      <c r="JV1" s="13"/>
+      <c r="JW1" s="13"/>
+      <c r="JX1" s="13"/>
+      <c r="JY1" s="13"/>
+      <c r="JZ1" s="13"/>
+      <c r="KA1" s="13"/>
+      <c r="KB1" s="13"/>
+      <c r="KC1" s="13"/>
+      <c r="KD1" s="13"/>
+      <c r="KE1" s="13"/>
+      <c r="KF1" s="13"/>
+      <c r="KG1" s="13"/>
+      <c r="KH1" s="13"/>
+      <c r="KI1" s="13"/>
+      <c r="KJ1" s="13"/>
+      <c r="KK1" s="13"/>
+      <c r="KL1" s="13"/>
+      <c r="KM1" s="13"/>
+      <c r="KN1" s="13"/>
+      <c r="KO1" s="13"/>
+      <c r="KP1" s="13"/>
+      <c r="KQ1" s="13"/>
+      <c r="KR1" s="13"/>
+      <c r="KS1" s="13"/>
+      <c r="KT1" s="13"/>
+      <c r="KU1" s="13"/>
+      <c r="KV1" s="13"/>
+      <c r="KW1" s="13"/>
+      <c r="KX1" s="13"/>
+      <c r="KY1" s="13"/>
+      <c r="KZ1" s="13"/>
+      <c r="LA1" s="13"/>
+      <c r="LB1" s="13"/>
+      <c r="LC1" s="13"/>
+      <c r="LD1" s="13"/>
+      <c r="LE1" s="13"/>
+      <c r="LF1" s="13"/>
+      <c r="LG1" s="13"/>
+      <c r="LH1" s="13"/>
+      <c r="LI1" s="13"/>
+      <c r="LJ1" s="13"/>
+      <c r="LK1" s="13"/>
+      <c r="LL1" s="13"/>
+      <c r="LM1" s="13"/>
+      <c r="LN1" s="13"/>
+      <c r="LO1" s="13"/>
+      <c r="LP1" s="13"/>
+      <c r="LQ1" s="13"/>
+      <c r="LR1" s="13"/>
+      <c r="LS1" s="13"/>
+      <c r="LT1" s="13"/>
+      <c r="LU1" s="13"/>
+      <c r="LV1" s="13"/>
+      <c r="LW1" s="13"/>
+      <c r="LX1" s="13"/>
+      <c r="LY1" s="13"/>
+      <c r="LZ1" s="13"/>
+      <c r="MA1" s="13"/>
+      <c r="MB1" s="13"/>
+      <c r="MC1" s="13"/>
+      <c r="MD1" s="13"/>
+      <c r="ME1" s="13"/>
+      <c r="MF1" s="13"/>
+      <c r="MG1" s="13"/>
+      <c r="MH1" s="13"/>
+      <c r="MI1" s="13"/>
+      <c r="MJ1" s="13"/>
+      <c r="MK1" s="13"/>
+      <c r="ML1" s="13"/>
+      <c r="MM1" s="13"/>
+      <c r="MN1" s="13"/>
+      <c r="MO1" s="13"/>
+      <c r="MP1" s="13"/>
+      <c r="MQ1" s="13"/>
+      <c r="MR1" s="13"/>
+      <c r="MS1" s="13"/>
+      <c r="MT1" s="13"/>
+      <c r="MU1" s="13"/>
+      <c r="MV1" s="13"/>
+      <c r="MW1" s="13"/>
+      <c r="MX1" s="13"/>
+      <c r="MY1" s="13"/>
+      <c r="MZ1" s="13"/>
+      <c r="NA1" s="13"/>
+      <c r="NB1" s="13"/>
+      <c r="NC1" s="13"/>
+      <c r="ND1" s="13"/>
+      <c r="NE1" s="13"/>
+      <c r="NF1" s="13"/>
+      <c r="NG1" s="13"/>
+      <c r="NH1" s="13"/>
+      <c r="NI1" s="13"/>
+      <c r="NJ1" s="13"/>
+      <c r="NK1" s="13"/>
+      <c r="NL1" s="13"/>
+      <c r="NM1" s="13"/>
+      <c r="NN1" s="13"/>
+      <c r="NO1" s="13"/>
+      <c r="NP1" s="13"/>
+      <c r="NQ1" s="13"/>
+      <c r="NR1" s="13"/>
+      <c r="NS1" s="13"/>
+      <c r="NT1" s="13"/>
+      <c r="NU1" s="13"/>
+      <c r="NV1" s="13"/>
+      <c r="NW1" s="13"/>
+      <c r="NX1" s="13"/>
+      <c r="NY1" s="13"/>
+      <c r="NZ1" s="13"/>
+      <c r="OA1" s="13"/>
+      <c r="OB1" s="13"/>
+      <c r="OC1" s="13"/>
+      <c r="OD1" s="13"/>
+      <c r="OE1" s="13"/>
+      <c r="OF1" s="13"/>
+      <c r="OG1" s="13"/>
+      <c r="OH1" s="13"/>
+      <c r="OI1" s="13"/>
+      <c r="OJ1" s="13"/>
+      <c r="OK1" s="13"/>
+      <c r="OL1" s="13"/>
+      <c r="OM1" s="13"/>
+      <c r="ON1" s="13"/>
+      <c r="OO1" s="13"/>
+      <c r="OP1" s="13"/>
+      <c r="OQ1" s="13"/>
+      <c r="OR1" s="13"/>
+      <c r="OS1" s="13"/>
+      <c r="OT1" s="13"/>
+      <c r="OU1" s="13"/>
+      <c r="OV1" s="13"/>
+      <c r="OW1" s="13"/>
+      <c r="OX1" s="13"/>
+      <c r="OY1" s="13"/>
+      <c r="OZ1" s="13"/>
+      <c r="PA1" s="13"/>
+      <c r="PB1" s="13"/>
+      <c r="PC1" s="13"/>
+      <c r="PD1" s="13"/>
+      <c r="PE1" s="13"/>
+      <c r="PF1" s="13"/>
+      <c r="PG1" s="13"/>
+      <c r="PH1" s="13"/>
+      <c r="PI1" s="13"/>
+      <c r="PJ1" s="13"/>
+      <c r="PK1" s="13"/>
+      <c r="PL1" s="13"/>
+      <c r="PM1" s="13"/>
+      <c r="PN1" s="13"/>
+      <c r="PO1" s="13"/>
+      <c r="PP1" s="13"/>
+      <c r="PQ1" s="13"/>
+      <c r="PR1" s="13"/>
+      <c r="PS1" s="13"/>
+      <c r="PT1" s="13"/>
+      <c r="PU1" s="13"/>
+      <c r="PV1" s="13"/>
+      <c r="PW1" s="13"/>
+      <c r="PX1" s="13"/>
+      <c r="PY1" s="13"/>
+      <c r="PZ1" s="13"/>
+      <c r="QA1" s="13"/>
+      <c r="QB1" s="13"/>
+      <c r="QC1" s="13"/>
+      <c r="QD1" s="13"/>
+      <c r="QE1" s="13"/>
+      <c r="QF1" s="13"/>
+      <c r="QG1" s="13"/>
+      <c r="QH1" s="13"/>
+      <c r="QI1" s="13"/>
+      <c r="QJ1" s="13"/>
+      <c r="QK1" s="13"/>
+      <c r="QL1" s="13"/>
+      <c r="QM1" s="13"/>
+      <c r="QN1" s="13"/>
+      <c r="QO1" s="13"/>
+      <c r="QP1" s="13"/>
+      <c r="QQ1" s="13"/>
+      <c r="QR1" s="13"/>
+      <c r="QS1" s="13"/>
+      <c r="QT1" s="13"/>
+      <c r="QU1" s="13"/>
+      <c r="QV1" s="13"/>
+      <c r="QW1" s="13"/>
+      <c r="QX1" s="13"/>
+      <c r="QY1" s="13"/>
+      <c r="QZ1" s="13"/>
+      <c r="RA1" s="13"/>
+      <c r="RB1" s="13"/>
+      <c r="RC1" s="13"/>
+      <c r="RD1" s="13"/>
+      <c r="RE1" s="13"/>
+      <c r="RF1" s="13"/>
+      <c r="RG1" s="13"/>
+      <c r="RH1" s="13"/>
+      <c r="RI1" s="13"/>
+      <c r="RJ1" s="13"/>
+      <c r="RK1" s="13"/>
+      <c r="RL1" s="13"/>
+      <c r="RM1" s="13"/>
+      <c r="RN1" s="13"/>
+      <c r="RO1" s="13"/>
+      <c r="RP1" s="13"/>
+      <c r="RQ1" s="13"/>
+      <c r="RR1" s="13"/>
+      <c r="RS1" s="13"/>
+      <c r="RT1" s="13"/>
+      <c r="RU1" s="13"/>
+      <c r="RV1" s="13"/>
+      <c r="RW1" s="13"/>
+      <c r="RX1" s="13"/>
+      <c r="RY1" s="13"/>
+      <c r="RZ1" s="13"/>
+      <c r="SA1" s="13"/>
+      <c r="SB1" s="13"/>
+      <c r="SC1" s="13"/>
+      <c r="SD1" s="13"/>
+      <c r="SE1" s="13"/>
+      <c r="SF1" s="13"/>
+      <c r="SG1" s="13"/>
+      <c r="SH1" s="13"/>
+      <c r="SI1" s="13"/>
+      <c r="SJ1" s="13"/>
+      <c r="SK1" s="13"/>
+      <c r="SL1" s="13"/>
+      <c r="SM1" s="13"/>
+      <c r="SN1" s="13"/>
+      <c r="SO1" s="13"/>
+      <c r="SP1" s="13"/>
+      <c r="SQ1" s="13"/>
+      <c r="SR1" s="13"/>
+      <c r="SS1" s="13"/>
+      <c r="ST1" s="13"/>
+      <c r="SU1" s="13"/>
+      <c r="SV1" s="13"/>
+      <c r="SW1" s="13"/>
+      <c r="SX1" s="13"/>
+      <c r="SY1" s="13"/>
+      <c r="SZ1" s="13"/>
+      <c r="TA1" s="13"/>
+      <c r="TB1" s="13"/>
+      <c r="TC1" s="13"/>
+      <c r="TD1" s="13"/>
+      <c r="TE1" s="13"/>
+      <c r="TF1" s="13"/>
+      <c r="TG1" s="13"/>
+      <c r="TH1" s="13"/>
+      <c r="TI1" s="13"/>
+      <c r="TJ1" s="13"/>
+      <c r="TK1" s="13"/>
+      <c r="TL1" s="13"/>
+      <c r="TM1" s="13"/>
+      <c r="TN1" s="13"/>
+      <c r="TO1" s="13"/>
+      <c r="TP1" s="13"/>
+      <c r="TQ1" s="13"/>
+      <c r="TR1" s="13"/>
+      <c r="TS1" s="13"/>
+      <c r="TT1" s="13"/>
+      <c r="TU1" s="13"/>
+      <c r="TV1" s="13"/>
+      <c r="TW1" s="13"/>
+      <c r="TX1" s="13"/>
+      <c r="TY1" s="13"/>
+      <c r="TZ1" s="13"/>
+      <c r="UA1" s="13"/>
+      <c r="UB1" s="13"/>
+      <c r="UC1" s="13"/>
+      <c r="UD1" s="13"/>
+      <c r="UE1" s="13"/>
+      <c r="UF1" s="13"/>
+      <c r="UG1" s="13"/>
+      <c r="UH1" s="13"/>
+      <c r="UI1" s="13"/>
+      <c r="UJ1" s="13"/>
+      <c r="UK1" s="13"/>
+      <c r="UL1" s="13"/>
+      <c r="UM1" s="13"/>
+      <c r="UN1" s="13"/>
+      <c r="UO1" s="13"/>
+      <c r="UP1" s="13"/>
+      <c r="UQ1" s="13"/>
+      <c r="UR1" s="13"/>
+      <c r="US1" s="13"/>
+      <c r="UT1" s="13"/>
+      <c r="UU1" s="13"/>
+      <c r="UV1" s="13"/>
+      <c r="UW1" s="13"/>
+      <c r="UX1" s="13"/>
+      <c r="UY1" s="13"/>
+      <c r="UZ1" s="13"/>
+      <c r="VA1" s="13"/>
+      <c r="VB1" s="13"/>
+      <c r="VC1" s="13"/>
+      <c r="VD1" s="13"/>
+      <c r="VE1" s="13"/>
+      <c r="VF1" s="13"/>
+      <c r="VG1" s="13"/>
+      <c r="VH1" s="13"/>
+      <c r="VI1" s="13"/>
+      <c r="VJ1" s="13"/>
+      <c r="VK1" s="13"/>
+      <c r="VL1" s="13"/>
+      <c r="VM1" s="13"/>
+      <c r="VN1" s="13"/>
+      <c r="VO1" s="13"/>
+      <c r="VP1" s="13"/>
+      <c r="VQ1" s="13"/>
+      <c r="VR1" s="13"/>
+      <c r="VS1" s="13"/>
+      <c r="VT1" s="13"/>
+      <c r="VU1" s="13"/>
+      <c r="VV1" s="13"/>
+      <c r="VW1" s="13"/>
+      <c r="VX1" s="13"/>
+      <c r="VY1" s="13"/>
+      <c r="VZ1" s="13"/>
+      <c r="WA1" s="13"/>
+      <c r="WB1" s="13"/>
+      <c r="WC1" s="13"/>
+      <c r="WD1" s="13"/>
+      <c r="WE1" s="13"/>
+      <c r="WF1" s="13"/>
+      <c r="WG1" s="13"/>
+      <c r="WH1" s="13"/>
+      <c r="WI1" s="13"/>
+      <c r="WJ1" s="13"/>
+      <c r="WK1" s="13"/>
+      <c r="WL1" s="13"/>
+      <c r="WM1" s="13"/>
+      <c r="WN1" s="13"/>
+      <c r="WO1" s="13"/>
+      <c r="WP1" s="13"/>
+      <c r="WQ1" s="13"/>
+      <c r="WR1" s="13"/>
+      <c r="WS1" s="13"/>
+      <c r="WT1" s="13"/>
+      <c r="WU1" s="13"/>
+      <c r="WV1" s="13"/>
+      <c r="WW1" s="13"/>
+      <c r="WX1" s="13"/>
+      <c r="WY1" s="13"/>
+      <c r="WZ1" s="13"/>
+      <c r="XA1" s="13"/>
+      <c r="XB1" s="13"/>
+      <c r="XC1" s="13"/>
+      <c r="XD1" s="13"/>
+      <c r="XE1" s="13"/>
+      <c r="XF1" s="13"/>
+      <c r="XG1" s="13"/>
+      <c r="XH1" s="13"/>
+      <c r="XI1" s="13"/>
+      <c r="XJ1" s="13"/>
+      <c r="XK1" s="13"/>
+      <c r="XL1" s="13"/>
+      <c r="XM1" s="13"/>
+      <c r="XN1" s="13"/>
+      <c r="XO1" s="13"/>
+      <c r="XP1" s="13"/>
+      <c r="XQ1" s="13"/>
+      <c r="XR1" s="13"/>
+      <c r="XS1" s="13"/>
+      <c r="XT1" s="13"/>
+      <c r="XU1" s="13"/>
+      <c r="XV1" s="13"/>
+      <c r="XW1" s="13"/>
+      <c r="XX1" s="13"/>
+      <c r="XY1" s="13"/>
+      <c r="XZ1" s="13"/>
+      <c r="YA1" s="13"/>
+      <c r="YB1" s="13"/>
+      <c r="YC1" s="13"/>
+      <c r="YD1" s="13"/>
+      <c r="YE1" s="13"/>
+      <c r="YF1" s="13"/>
+      <c r="YG1" s="13"/>
+      <c r="YH1" s="13"/>
+      <c r="YI1" s="13"/>
+      <c r="YJ1" s="13"/>
+      <c r="YK1" s="13"/>
+      <c r="YL1" s="13"/>
+      <c r="YM1" s="13"/>
+      <c r="YN1" s="13"/>
+      <c r="YO1" s="13"/>
+      <c r="YP1" s="13"/>
+      <c r="YQ1" s="13"/>
+      <c r="YR1" s="13"/>
+      <c r="YS1" s="13"/>
+      <c r="YT1" s="13"/>
+      <c r="YU1" s="13"/>
+      <c r="YV1" s="13"/>
+      <c r="YW1" s="13"/>
+      <c r="YX1" s="13"/>
+      <c r="YY1" s="13"/>
+      <c r="YZ1" s="13"/>
+      <c r="ZA1" s="13"/>
+      <c r="ZB1" s="13"/>
+      <c r="ZC1" s="13"/>
+      <c r="ZD1" s="13"/>
+      <c r="ZE1" s="13"/>
+      <c r="ZF1" s="13"/>
+      <c r="ZG1" s="13"/>
+      <c r="ZH1" s="13"/>
+      <c r="ZI1" s="13"/>
+      <c r="ZJ1" s="13"/>
+      <c r="ZK1" s="13"/>
+      <c r="ZL1" s="13"/>
+      <c r="ZM1" s="13"/>
+      <c r="ZN1" s="13"/>
+      <c r="ZO1" s="13"/>
+      <c r="ZP1" s="13"/>
+      <c r="ZQ1" s="13"/>
+      <c r="ZR1" s="13"/>
+      <c r="ZS1" s="13"/>
+      <c r="ZT1" s="13"/>
+      <c r="ZU1" s="13"/>
+      <c r="ZV1" s="13"/>
+      <c r="ZW1" s="13"/>
+      <c r="ZX1" s="13"/>
+      <c r="ZY1" s="13"/>
+      <c r="ZZ1" s="13"/>
+      <c r="AAA1" s="13"/>
+      <c r="AAB1" s="13"/>
+      <c r="AAC1" s="13"/>
+      <c r="AAD1" s="13"/>
+      <c r="AAE1" s="13"/>
+      <c r="AAF1" s="13"/>
+      <c r="AAG1" s="13"/>
+      <c r="AAH1" s="13"/>
+      <c r="AAI1" s="13"/>
+      <c r="AAJ1" s="13"/>
+      <c r="AAK1" s="13"/>
+      <c r="AAL1" s="13"/>
+      <c r="AAM1" s="13"/>
+      <c r="AAN1" s="13"/>
+      <c r="AAO1" s="13"/>
+      <c r="AAP1" s="13"/>
+      <c r="AAQ1" s="13"/>
+      <c r="AAR1" s="13"/>
+      <c r="AAS1" s="13"/>
+      <c r="AAT1" s="13"/>
+      <c r="AAU1" s="13"/>
+      <c r="AAV1" s="13"/>
+      <c r="AAW1" s="13"/>
+      <c r="AAX1" s="13"/>
+      <c r="AAY1" s="13"/>
+      <c r="AAZ1" s="13"/>
+      <c r="ABA1" s="13"/>
+      <c r="ABB1" s="13"/>
+      <c r="ABC1" s="13"/>
+      <c r="ABD1" s="13"/>
+      <c r="ABE1" s="13"/>
+      <c r="ABF1" s="13"/>
+      <c r="ABG1" s="13"/>
+      <c r="ABH1" s="13"/>
+      <c r="ABI1" s="13"/>
+      <c r="ABJ1" s="13"/>
+      <c r="ABK1" s="13"/>
+      <c r="ABL1" s="13"/>
+      <c r="ABM1" s="13"/>
+      <c r="ABN1" s="13"/>
+      <c r="ABO1" s="13"/>
+      <c r="ABP1" s="13"/>
+      <c r="ABQ1" s="13"/>
+      <c r="ABR1" s="13"/>
+      <c r="ABS1" s="13"/>
+      <c r="ABT1" s="13"/>
+      <c r="ABU1" s="13"/>
+      <c r="ABV1" s="13"/>
+      <c r="ABW1" s="13"/>
+      <c r="ABX1" s="13"/>
+      <c r="ABY1" s="13"/>
+      <c r="ABZ1" s="13"/>
+      <c r="ACA1" s="13"/>
+      <c r="ACB1" s="13"/>
+      <c r="ACC1" s="13"/>
+      <c r="ACD1" s="13"/>
+      <c r="ACE1" s="13"/>
+      <c r="ACF1" s="13"/>
+      <c r="ACG1" s="13"/>
+      <c r="ACH1" s="13"/>
+      <c r="ACI1" s="13"/>
+      <c r="ACJ1" s="13"/>
+      <c r="ACK1" s="13"/>
+      <c r="ACL1" s="13"/>
+      <c r="ACM1" s="13"/>
+      <c r="ACN1" s="13"/>
+      <c r="ACO1" s="13"/>
+      <c r="ACP1" s="13"/>
+      <c r="ACQ1" s="13"/>
+      <c r="ACR1" s="13"/>
+      <c r="ACS1" s="13"/>
+      <c r="ACT1" s="13"/>
+      <c r="ACU1" s="13"/>
+      <c r="ACV1" s="13"/>
+      <c r="ACW1" s="13"/>
+      <c r="ACX1" s="13"/>
+      <c r="ACY1" s="13"/>
+      <c r="ACZ1" s="13"/>
+      <c r="ADA1" s="13"/>
+      <c r="ADB1" s="13"/>
+      <c r="ADC1" s="13"/>
+      <c r="ADD1" s="13"/>
+      <c r="ADE1" s="13"/>
+      <c r="ADF1" s="13"/>
+      <c r="ADG1" s="13"/>
+      <c r="ADH1" s="13"/>
+      <c r="ADI1" s="13"/>
+      <c r="ADJ1" s="13"/>
+      <c r="ADK1" s="13"/>
+      <c r="ADL1" s="13"/>
+      <c r="ADM1" s="13"/>
+      <c r="ADN1" s="13"/>
+      <c r="ADO1" s="13"/>
+      <c r="ADP1" s="13"/>
+      <c r="ADQ1" s="13"/>
+      <c r="ADR1" s="13"/>
+      <c r="ADS1" s="13"/>
+      <c r="ADT1" s="13"/>
+      <c r="ADU1" s="13"/>
+      <c r="ADV1" s="13"/>
+      <c r="ADW1" s="13"/>
+      <c r="ADX1" s="13"/>
+      <c r="ADY1" s="13"/>
+      <c r="ADZ1" s="13"/>
+      <c r="AEA1" s="13"/>
+      <c r="AEB1" s="13"/>
+      <c r="AEC1" s="13"/>
+      <c r="AED1" s="13"/>
+      <c r="AEE1" s="13"/>
+      <c r="AEF1" s="13"/>
+      <c r="AEG1" s="13"/>
+      <c r="AEH1" s="13"/>
+      <c r="AEI1" s="13"/>
+      <c r="AEJ1" s="13"/>
+      <c r="AEK1" s="13"/>
+      <c r="AEL1" s="13"/>
+      <c r="AEM1" s="13"/>
+      <c r="AEN1" s="13"/>
+      <c r="AEO1" s="13"/>
+      <c r="AEP1" s="13"/>
+      <c r="AEQ1" s="13"/>
+      <c r="AER1" s="13"/>
+      <c r="AES1" s="13"/>
+      <c r="AET1" s="13"/>
+      <c r="AEU1" s="13"/>
+      <c r="AEV1" s="13"/>
+      <c r="AEW1" s="13"/>
+      <c r="AEX1" s="13"/>
+      <c r="AEY1" s="13"/>
+      <c r="AEZ1" s="13"/>
+      <c r="AFA1" s="13"/>
+      <c r="AFB1" s="13"/>
+      <c r="AFC1" s="13"/>
+      <c r="AFD1" s="13"/>
+      <c r="AFE1" s="13"/>
+      <c r="AFF1" s="13"/>
+      <c r="AFG1" s="13"/>
+      <c r="AFH1" s="13"/>
+      <c r="AFI1" s="13"/>
+      <c r="AFJ1" s="13"/>
+      <c r="AFK1" s="13"/>
+      <c r="AFL1" s="13"/>
+      <c r="AFM1" s="13"/>
+      <c r="AFN1" s="13"/>
+      <c r="AFO1" s="13"/>
+      <c r="AFP1" s="13"/>
+      <c r="AFQ1" s="13"/>
+      <c r="AFR1" s="13"/>
+      <c r="AFS1" s="13"/>
+      <c r="AFT1" s="13"/>
+      <c r="AFU1" s="13"/>
+      <c r="AFV1" s="13"/>
+      <c r="AFW1" s="13"/>
+      <c r="AFX1" s="13"/>
+      <c r="AFY1" s="13"/>
+      <c r="AFZ1" s="13"/>
+      <c r="AGA1" s="13"/>
+      <c r="AGB1" s="13"/>
+      <c r="AGC1" s="13"/>
+      <c r="AGD1" s="13"/>
+      <c r="AGE1" s="13"/>
+      <c r="AGF1" s="13"/>
+      <c r="AGG1" s="13"/>
+      <c r="AGH1" s="13"/>
+      <c r="AGI1" s="13"/>
+      <c r="AGJ1" s="13"/>
+      <c r="AGK1" s="13"/>
+      <c r="AGL1" s="13"/>
+      <c r="AGM1" s="13"/>
+      <c r="AGN1" s="13"/>
+      <c r="AGO1" s="13"/>
+      <c r="AGP1" s="13"/>
+      <c r="AGQ1" s="13"/>
+      <c r="AGR1" s="13"/>
+      <c r="AGS1" s="13"/>
+      <c r="AGT1" s="13"/>
+      <c r="AGU1" s="13"/>
+      <c r="AGV1" s="13"/>
+      <c r="AGW1" s="13"/>
+      <c r="AGX1" s="13"/>
+      <c r="AGY1" s="13"/>
+      <c r="AGZ1" s="13"/>
+      <c r="AHA1" s="13"/>
+      <c r="AHB1" s="13"/>
+      <c r="AHC1" s="13"/>
+      <c r="AHD1" s="13"/>
+      <c r="AHE1" s="13"/>
+      <c r="AHF1" s="13"/>
+      <c r="AHG1" s="13"/>
+      <c r="AHH1" s="13"/>
+      <c r="AHI1" s="13"/>
+      <c r="AHJ1" s="13"/>
+      <c r="AHK1" s="13"/>
+      <c r="AHL1" s="13"/>
+      <c r="AHM1" s="13"/>
+      <c r="AHN1" s="13"/>
+      <c r="AHO1" s="13"/>
+      <c r="AHP1" s="13"/>
+      <c r="AHQ1" s="13"/>
+      <c r="AHR1" s="13"/>
+      <c r="AHS1" s="13"/>
+      <c r="AHT1" s="13"/>
+      <c r="AHU1" s="13"/>
+      <c r="AHV1" s="13"/>
+      <c r="AHW1" s="13"/>
+      <c r="AHX1" s="13"/>
+      <c r="AHY1" s="13"/>
+      <c r="AHZ1" s="13"/>
+      <c r="AIA1" s="13"/>
+      <c r="AIB1" s="13"/>
+      <c r="AIC1" s="13"/>
+      <c r="AID1" s="13"/>
+      <c r="AIE1" s="13"/>
+      <c r="AIF1" s="13"/>
+      <c r="AIG1" s="13"/>
+      <c r="AIH1" s="13"/>
+      <c r="AII1" s="13"/>
+      <c r="AIJ1" s="13"/>
+      <c r="AIK1" s="13"/>
+      <c r="AIL1" s="13"/>
+      <c r="AIM1" s="13"/>
+      <c r="AIN1" s="13"/>
+      <c r="AIO1" s="13"/>
+      <c r="AIP1" s="13"/>
+      <c r="AIQ1" s="13"/>
+      <c r="AIR1" s="13"/>
+      <c r="AIS1" s="13"/>
+      <c r="AIT1" s="13"/>
+      <c r="AIU1" s="13"/>
+      <c r="AIV1" s="13"/>
+      <c r="AIW1" s="13"/>
+      <c r="AIX1" s="13"/>
+      <c r="AIY1" s="13"/>
+      <c r="AIZ1" s="13"/>
+      <c r="AJA1" s="13"/>
+      <c r="AJB1" s="13"/>
+      <c r="AJC1" s="13"/>
+      <c r="AJD1" s="13"/>
+      <c r="AJE1" s="13"/>
+      <c r="AJF1" s="13"/>
+      <c r="AJG1" s="13"/>
+      <c r="AJH1" s="13"/>
+      <c r="AJI1" s="13"/>
+      <c r="AJJ1" s="13"/>
+      <c r="AJK1" s="13"/>
+      <c r="AJL1" s="13"/>
+      <c r="AJM1" s="13"/>
+      <c r="AJN1" s="13"/>
+      <c r="AJO1" s="13"/>
+      <c r="AJP1" s="13"/>
+      <c r="AJQ1" s="13"/>
+      <c r="AJR1" s="13"/>
+      <c r="AJS1" s="13"/>
+      <c r="AJT1" s="13"/>
+      <c r="AJU1" s="13"/>
+      <c r="AJV1" s="13"/>
+      <c r="AJW1" s="13"/>
+      <c r="AJX1" s="13"/>
+      <c r="AJY1" s="13"/>
+      <c r="AJZ1" s="13"/>
+      <c r="AKA1" s="13"/>
+      <c r="AKB1" s="13"/>
+      <c r="AKC1" s="13"/>
+      <c r="AKD1" s="13"/>
+      <c r="AKE1" s="13"/>
+      <c r="AKF1" s="13"/>
+      <c r="AKG1" s="13"/>
+      <c r="AKH1" s="13"/>
+      <c r="AKI1" s="13"/>
+      <c r="AKJ1" s="13"/>
+      <c r="AKK1" s="13"/>
+      <c r="AKL1" s="13"/>
+      <c r="AKM1" s="13"/>
+      <c r="AKN1" s="13"/>
+      <c r="AKO1" s="13"/>
+      <c r="AKP1" s="13"/>
+      <c r="AKQ1" s="13"/>
+      <c r="AKR1" s="13"/>
+      <c r="AKS1" s="13"/>
+      <c r="AKT1" s="13"/>
+      <c r="AKU1" s="13"/>
+      <c r="AKV1" s="13"/>
+      <c r="AKW1" s="13"/>
+      <c r="AKX1" s="13"/>
+      <c r="AKY1" s="13"/>
+      <c r="AKZ1" s="13"/>
+      <c r="ALA1" s="13"/>
+      <c r="ALB1" s="13"/>
+      <c r="ALC1" s="13"/>
+      <c r="ALD1" s="13"/>
+      <c r="ALE1" s="13"/>
+      <c r="ALF1" s="13"/>
+      <c r="ALG1" s="13"/>
+      <c r="ALH1" s="13"/>
+      <c r="ALI1" s="13"/>
+      <c r="ALJ1" s="13"/>
+      <c r="ALK1" s="13"/>
+      <c r="ALL1" s="13"/>
+      <c r="ALM1" s="13"/>
+      <c r="ALN1" s="13"/>
+      <c r="ALO1" s="13"/>
+      <c r="ALP1" s="13"/>
+      <c r="ALQ1" s="13"/>
+      <c r="ALR1" s="13"/>
+      <c r="ALS1" s="13"/>
+      <c r="ALT1" s="13"/>
+      <c r="ALU1" s="13"/>
+      <c r="ALV1" s="13"/>
+      <c r="ALW1" s="13"/>
+      <c r="ALX1" s="13"/>
+      <c r="ALY1" s="13"/>
+      <c r="ALZ1" s="13"/>
+      <c r="AMA1" s="13"/>
+      <c r="AMB1" s="13"/>
+      <c r="AMC1" s="13"/>
+      <c r="AMD1" s="13"/>
+      <c r="AME1" s="13"/>
+      <c r="AMF1" s="13"/>
+      <c r="AMG1" s="13"/>
+      <c r="AMH1" s="13"/>
+      <c r="AMI1" s="13"/>
+      <c r="AMJ1" s="13"/>
+      <c r="AMK1" s="13"/>
+      <c r="AML1" s="13"/>
+      <c r="AMM1" s="13"/>
+      <c r="AMN1" s="13"/>
+      <c r="AMO1" s="13"/>
+      <c r="AMP1" s="13"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -19823,7 +19842,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -19860,10 +19879,10 @@
         <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>38</v>
@@ -19880,1017 +19899,1017 @@
       <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="12"/>
-      <c r="CA2" s="12"/>
-      <c r="CB2" s="12"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="12"/>
-      <c r="DN2" s="12"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="12"/>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12"/>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12"/>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12"/>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="12"/>
-      <c r="FA2" s="12"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12"/>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12"/>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12"/>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
-      <c r="FP2" s="12"/>
-      <c r="FQ2" s="12"/>
-      <c r="FR2" s="12"/>
-      <c r="FS2" s="12"/>
-      <c r="FT2" s="12"/>
-      <c r="FU2" s="12"/>
-      <c r="FV2" s="12"/>
-      <c r="FW2" s="12"/>
-      <c r="FX2" s="12"/>
-      <c r="FY2" s="12"/>
-      <c r="FZ2" s="12"/>
-      <c r="GA2" s="12"/>
-      <c r="GB2" s="12"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="12"/>
-      <c r="GE2" s="12"/>
-      <c r="GF2" s="12"/>
-      <c r="GG2" s="12"/>
-      <c r="GH2" s="12"/>
-      <c r="GI2" s="12"/>
-      <c r="GJ2" s="12"/>
-      <c r="GK2" s="12"/>
-      <c r="GL2" s="12"/>
-      <c r="GM2" s="12"/>
-      <c r="GN2" s="12"/>
-      <c r="GO2" s="12"/>
-      <c r="GP2" s="12"/>
-      <c r="GQ2" s="12"/>
-      <c r="GR2" s="12"/>
-      <c r="GS2" s="12"/>
-      <c r="GT2" s="12"/>
-      <c r="GU2" s="12"/>
-      <c r="GV2" s="12"/>
-      <c r="GW2" s="12"/>
-      <c r="GX2" s="12"/>
-      <c r="GY2" s="12"/>
-      <c r="GZ2" s="12"/>
-      <c r="HA2" s="12"/>
-      <c r="HB2" s="12"/>
-      <c r="HC2" s="12"/>
-      <c r="HD2" s="12"/>
-      <c r="HE2" s="12"/>
-      <c r="HF2" s="12"/>
-      <c r="HG2" s="12"/>
-      <c r="HH2" s="12"/>
-      <c r="HI2" s="12"/>
-      <c r="HJ2" s="12"/>
-      <c r="HK2" s="12"/>
-      <c r="HL2" s="12"/>
-      <c r="HM2" s="12"/>
-      <c r="HN2" s="12"/>
-      <c r="HO2" s="12"/>
-      <c r="HP2" s="12"/>
-      <c r="HQ2" s="12"/>
-      <c r="HR2" s="12"/>
-      <c r="HS2" s="12"/>
-      <c r="HT2" s="12"/>
-      <c r="HU2" s="12"/>
-      <c r="HV2" s="12"/>
-      <c r="HW2" s="12"/>
-      <c r="HX2" s="12"/>
-      <c r="HY2" s="12"/>
-      <c r="HZ2" s="12"/>
-      <c r="IA2" s="12"/>
-      <c r="IB2" s="12"/>
-      <c r="IC2" s="12"/>
-      <c r="ID2" s="12"/>
-      <c r="IE2" s="12"/>
-      <c r="IF2" s="12"/>
-      <c r="IG2" s="12"/>
-      <c r="IH2" s="12"/>
-      <c r="II2" s="12"/>
-      <c r="IJ2" s="12"/>
-      <c r="IK2" s="12"/>
-      <c r="IL2" s="12"/>
-      <c r="IM2" s="12"/>
-      <c r="IN2" s="12"/>
-      <c r="IO2" s="12"/>
-      <c r="IP2" s="12"/>
-      <c r="IQ2" s="12"/>
-      <c r="IR2" s="12"/>
-      <c r="IS2" s="12"/>
-      <c r="IT2" s="12"/>
-      <c r="IU2" s="12"/>
-      <c r="IV2" s="12"/>
-      <c r="IW2" s="12"/>
-      <c r="IX2" s="12"/>
-      <c r="IY2" s="12"/>
-      <c r="IZ2" s="12"/>
-      <c r="JA2" s="12"/>
-      <c r="JB2" s="12"/>
-      <c r="JC2" s="12"/>
-      <c r="JD2" s="12"/>
-      <c r="JE2" s="12"/>
-      <c r="JF2" s="12"/>
-      <c r="JG2" s="12"/>
-      <c r="JH2" s="12"/>
-      <c r="JI2" s="12"/>
-      <c r="JJ2" s="12"/>
-      <c r="JK2" s="12"/>
-      <c r="JL2" s="12"/>
-      <c r="JM2" s="12"/>
-      <c r="JN2" s="12"/>
-      <c r="JO2" s="12"/>
-      <c r="JP2" s="12"/>
-      <c r="JQ2" s="12"/>
-      <c r="JR2" s="12"/>
-      <c r="JS2" s="12"/>
-      <c r="JT2" s="12"/>
-      <c r="JU2" s="12"/>
-      <c r="JV2" s="12"/>
-      <c r="JW2" s="12"/>
-      <c r="JX2" s="12"/>
-      <c r="JY2" s="12"/>
-      <c r="JZ2" s="12"/>
-      <c r="KA2" s="12"/>
-      <c r="KB2" s="12"/>
-      <c r="KC2" s="12"/>
-      <c r="KD2" s="12"/>
-      <c r="KE2" s="12"/>
-      <c r="KF2" s="12"/>
-      <c r="KG2" s="12"/>
-      <c r="KH2" s="12"/>
-      <c r="KI2" s="12"/>
-      <c r="KJ2" s="12"/>
-      <c r="KK2" s="12"/>
-      <c r="KL2" s="12"/>
-      <c r="KM2" s="12"/>
-      <c r="KN2" s="12"/>
-      <c r="KO2" s="12"/>
-      <c r="KP2" s="12"/>
-      <c r="KQ2" s="12"/>
-      <c r="KR2" s="12"/>
-      <c r="KS2" s="12"/>
-      <c r="KT2" s="12"/>
-      <c r="KU2" s="12"/>
-      <c r="KV2" s="12"/>
-      <c r="KW2" s="12"/>
-      <c r="KX2" s="12"/>
-      <c r="KY2" s="12"/>
-      <c r="KZ2" s="12"/>
-      <c r="LA2" s="12"/>
-      <c r="LB2" s="12"/>
-      <c r="LC2" s="12"/>
-      <c r="LD2" s="12"/>
-      <c r="LE2" s="12"/>
-      <c r="LF2" s="12"/>
-      <c r="LG2" s="12"/>
-      <c r="LH2" s="12"/>
-      <c r="LI2" s="12"/>
-      <c r="LJ2" s="12"/>
-      <c r="LK2" s="12"/>
-      <c r="LL2" s="12"/>
-      <c r="LM2" s="12"/>
-      <c r="LN2" s="12"/>
-      <c r="LO2" s="12"/>
-      <c r="LP2" s="12"/>
-      <c r="LQ2" s="12"/>
-      <c r="LR2" s="12"/>
-      <c r="LS2" s="12"/>
-      <c r="LT2" s="12"/>
-      <c r="LU2" s="12"/>
-      <c r="LV2" s="12"/>
-      <c r="LW2" s="12"/>
-      <c r="LX2" s="12"/>
-      <c r="LY2" s="12"/>
-      <c r="LZ2" s="12"/>
-      <c r="MA2" s="12"/>
-      <c r="MB2" s="12"/>
-      <c r="MC2" s="12"/>
-      <c r="MD2" s="12"/>
-      <c r="ME2" s="12"/>
-      <c r="MF2" s="12"/>
-      <c r="MG2" s="12"/>
-      <c r="MH2" s="12"/>
-      <c r="MI2" s="12"/>
-      <c r="MJ2" s="12"/>
-      <c r="MK2" s="12"/>
-      <c r="ML2" s="12"/>
-      <c r="MM2" s="12"/>
-      <c r="MN2" s="12"/>
-      <c r="MO2" s="12"/>
-      <c r="MP2" s="12"/>
-      <c r="MQ2" s="12"/>
-      <c r="MR2" s="12"/>
-      <c r="MS2" s="12"/>
-      <c r="MT2" s="12"/>
-      <c r="MU2" s="12"/>
-      <c r="MV2" s="12"/>
-      <c r="MW2" s="12"/>
-      <c r="MX2" s="12"/>
-      <c r="MY2" s="12"/>
-      <c r="MZ2" s="12"/>
-      <c r="NA2" s="12"/>
-      <c r="NB2" s="12"/>
-      <c r="NC2" s="12"/>
-      <c r="ND2" s="12"/>
-      <c r="NE2" s="12"/>
-      <c r="NF2" s="12"/>
-      <c r="NG2" s="12"/>
-      <c r="NH2" s="12"/>
-      <c r="NI2" s="12"/>
-      <c r="NJ2" s="12"/>
-      <c r="NK2" s="12"/>
-      <c r="NL2" s="12"/>
-      <c r="NM2" s="12"/>
-      <c r="NN2" s="12"/>
-      <c r="NO2" s="12"/>
-      <c r="NP2" s="12"/>
-      <c r="NQ2" s="12"/>
-      <c r="NR2" s="12"/>
-      <c r="NS2" s="12"/>
-      <c r="NT2" s="12"/>
-      <c r="NU2" s="12"/>
-      <c r="NV2" s="12"/>
-      <c r="NW2" s="12"/>
-      <c r="NX2" s="12"/>
-      <c r="NY2" s="12"/>
-      <c r="NZ2" s="12"/>
-      <c r="OA2" s="12"/>
-      <c r="OB2" s="12"/>
-      <c r="OC2" s="12"/>
-      <c r="OD2" s="12"/>
-      <c r="OE2" s="12"/>
-      <c r="OF2" s="12"/>
-      <c r="OG2" s="12"/>
-      <c r="OH2" s="12"/>
-      <c r="OI2" s="12"/>
-      <c r="OJ2" s="12"/>
-      <c r="OK2" s="12"/>
-      <c r="OL2" s="12"/>
-      <c r="OM2" s="12"/>
-      <c r="ON2" s="12"/>
-      <c r="OO2" s="12"/>
-      <c r="OP2" s="12"/>
-      <c r="OQ2" s="12"/>
-      <c r="OR2" s="12"/>
-      <c r="OS2" s="12"/>
-      <c r="OT2" s="12"/>
-      <c r="OU2" s="12"/>
-      <c r="OV2" s="12"/>
-      <c r="OW2" s="12"/>
-      <c r="OX2" s="12"/>
-      <c r="OY2" s="12"/>
-      <c r="OZ2" s="12"/>
-      <c r="PA2" s="12"/>
-      <c r="PB2" s="12"/>
-      <c r="PC2" s="12"/>
-      <c r="PD2" s="12"/>
-      <c r="PE2" s="12"/>
-      <c r="PF2" s="12"/>
-      <c r="PG2" s="12"/>
-      <c r="PH2" s="12"/>
-      <c r="PI2" s="12"/>
-      <c r="PJ2" s="12"/>
-      <c r="PK2" s="12"/>
-      <c r="PL2" s="12"/>
-      <c r="PM2" s="12"/>
-      <c r="PN2" s="12"/>
-      <c r="PO2" s="12"/>
-      <c r="PP2" s="12"/>
-      <c r="PQ2" s="12"/>
-      <c r="PR2" s="12"/>
-      <c r="PS2" s="12"/>
-      <c r="PT2" s="12"/>
-      <c r="PU2" s="12"/>
-      <c r="PV2" s="12"/>
-      <c r="PW2" s="12"/>
-      <c r="PX2" s="12"/>
-      <c r="PY2" s="12"/>
-      <c r="PZ2" s="12"/>
-      <c r="QA2" s="12"/>
-      <c r="QB2" s="12"/>
-      <c r="QC2" s="12"/>
-      <c r="QD2" s="12"/>
-      <c r="QE2" s="12"/>
-      <c r="QF2" s="12"/>
-      <c r="QG2" s="12"/>
-      <c r="QH2" s="12"/>
-      <c r="QI2" s="12"/>
-      <c r="QJ2" s="12"/>
-      <c r="QK2" s="12"/>
-      <c r="QL2" s="12"/>
-      <c r="QM2" s="12"/>
-      <c r="QN2" s="12"/>
-      <c r="QO2" s="12"/>
-      <c r="QP2" s="12"/>
-      <c r="QQ2" s="12"/>
-      <c r="QR2" s="12"/>
-      <c r="QS2" s="12"/>
-      <c r="QT2" s="12"/>
-      <c r="QU2" s="12"/>
-      <c r="QV2" s="12"/>
-      <c r="QW2" s="12"/>
-      <c r="QX2" s="12"/>
-      <c r="QY2" s="12"/>
-      <c r="QZ2" s="12"/>
-      <c r="RA2" s="12"/>
-      <c r="RB2" s="12"/>
-      <c r="RC2" s="12"/>
-      <c r="RD2" s="12"/>
-      <c r="RE2" s="12"/>
-      <c r="RF2" s="12"/>
-      <c r="RG2" s="12"/>
-      <c r="RH2" s="12"/>
-      <c r="RI2" s="12"/>
-      <c r="RJ2" s="12"/>
-      <c r="RK2" s="12"/>
-      <c r="RL2" s="12"/>
-      <c r="RM2" s="12"/>
-      <c r="RN2" s="12"/>
-      <c r="RO2" s="12"/>
-      <c r="RP2" s="12"/>
-      <c r="RQ2" s="12"/>
-      <c r="RR2" s="12"/>
-      <c r="RS2" s="12"/>
-      <c r="RT2" s="12"/>
-      <c r="RU2" s="12"/>
-      <c r="RV2" s="12"/>
-      <c r="RW2" s="12"/>
-      <c r="RX2" s="12"/>
-      <c r="RY2" s="12"/>
-      <c r="RZ2" s="12"/>
-      <c r="SA2" s="12"/>
-      <c r="SB2" s="12"/>
-      <c r="SC2" s="12"/>
-      <c r="SD2" s="12"/>
-      <c r="SE2" s="12"/>
-      <c r="SF2" s="12"/>
-      <c r="SG2" s="12"/>
-      <c r="SH2" s="12"/>
-      <c r="SI2" s="12"/>
-      <c r="SJ2" s="12"/>
-      <c r="SK2" s="12"/>
-      <c r="SL2" s="12"/>
-      <c r="SM2" s="12"/>
-      <c r="SN2" s="12"/>
-      <c r="SO2" s="12"/>
-      <c r="SP2" s="12"/>
-      <c r="SQ2" s="12"/>
-      <c r="SR2" s="12"/>
-      <c r="SS2" s="12"/>
-      <c r="ST2" s="12"/>
-      <c r="SU2" s="12"/>
-      <c r="SV2" s="12"/>
-      <c r="SW2" s="12"/>
-      <c r="SX2" s="12"/>
-      <c r="SY2" s="12"/>
-      <c r="SZ2" s="12"/>
-      <c r="TA2" s="12"/>
-      <c r="TB2" s="12"/>
-      <c r="TC2" s="12"/>
-      <c r="TD2" s="12"/>
-      <c r="TE2" s="12"/>
-      <c r="TF2" s="12"/>
-      <c r="TG2" s="12"/>
-      <c r="TH2" s="12"/>
-      <c r="TI2" s="12"/>
-      <c r="TJ2" s="12"/>
-      <c r="TK2" s="12"/>
-      <c r="TL2" s="12"/>
-      <c r="TM2" s="12"/>
-      <c r="TN2" s="12"/>
-      <c r="TO2" s="12"/>
-      <c r="TP2" s="12"/>
-      <c r="TQ2" s="12"/>
-      <c r="TR2" s="12"/>
-      <c r="TS2" s="12"/>
-      <c r="TT2" s="12"/>
-      <c r="TU2" s="12"/>
-      <c r="TV2" s="12"/>
-      <c r="TW2" s="12"/>
-      <c r="TX2" s="12"/>
-      <c r="TY2" s="12"/>
-      <c r="TZ2" s="12"/>
-      <c r="UA2" s="12"/>
-      <c r="UB2" s="12"/>
-      <c r="UC2" s="12"/>
-      <c r="UD2" s="12"/>
-      <c r="UE2" s="12"/>
-      <c r="UF2" s="12"/>
-      <c r="UG2" s="12"/>
-      <c r="UH2" s="12"/>
-      <c r="UI2" s="12"/>
-      <c r="UJ2" s="12"/>
-      <c r="UK2" s="12"/>
-      <c r="UL2" s="12"/>
-      <c r="UM2" s="12"/>
-      <c r="UN2" s="12"/>
-      <c r="UO2" s="12"/>
-      <c r="UP2" s="12"/>
-      <c r="UQ2" s="12"/>
-      <c r="UR2" s="12"/>
-      <c r="US2" s="12"/>
-      <c r="UT2" s="12"/>
-      <c r="UU2" s="12"/>
-      <c r="UV2" s="12"/>
-      <c r="UW2" s="12"/>
-      <c r="UX2" s="12"/>
-      <c r="UY2" s="12"/>
-      <c r="UZ2" s="12"/>
-      <c r="VA2" s="12"/>
-      <c r="VB2" s="12"/>
-      <c r="VC2" s="12"/>
-      <c r="VD2" s="12"/>
-      <c r="VE2" s="12"/>
-      <c r="VF2" s="12"/>
-      <c r="VG2" s="12"/>
-      <c r="VH2" s="12"/>
-      <c r="VI2" s="12"/>
-      <c r="VJ2" s="12"/>
-      <c r="VK2" s="12"/>
-      <c r="VL2" s="12"/>
-      <c r="VM2" s="12"/>
-      <c r="VN2" s="12"/>
-      <c r="VO2" s="12"/>
-      <c r="VP2" s="12"/>
-      <c r="VQ2" s="12"/>
-      <c r="VR2" s="12"/>
-      <c r="VS2" s="12"/>
-      <c r="VT2" s="12"/>
-      <c r="VU2" s="12"/>
-      <c r="VV2" s="12"/>
-      <c r="VW2" s="12"/>
-      <c r="VX2" s="12"/>
-      <c r="VY2" s="12"/>
-      <c r="VZ2" s="12"/>
-      <c r="WA2" s="12"/>
-      <c r="WB2" s="12"/>
-      <c r="WC2" s="12"/>
-      <c r="WD2" s="12"/>
-      <c r="WE2" s="12"/>
-      <c r="WF2" s="12"/>
-      <c r="WG2" s="12"/>
-      <c r="WH2" s="12"/>
-      <c r="WI2" s="12"/>
-      <c r="WJ2" s="12"/>
-      <c r="WK2" s="12"/>
-      <c r="WL2" s="12"/>
-      <c r="WM2" s="12"/>
-      <c r="WN2" s="12"/>
-      <c r="WO2" s="12"/>
-      <c r="WP2" s="12"/>
-      <c r="WQ2" s="12"/>
-      <c r="WR2" s="12"/>
-      <c r="WS2" s="12"/>
-      <c r="WT2" s="12"/>
-      <c r="WU2" s="12"/>
-      <c r="WV2" s="12"/>
-      <c r="WW2" s="12"/>
-      <c r="WX2" s="12"/>
-      <c r="WY2" s="12"/>
-      <c r="WZ2" s="12"/>
-      <c r="XA2" s="12"/>
-      <c r="XB2" s="12"/>
-      <c r="XC2" s="12"/>
-      <c r="XD2" s="12"/>
-      <c r="XE2" s="12"/>
-      <c r="XF2" s="12"/>
-      <c r="XG2" s="12"/>
-      <c r="XH2" s="12"/>
-      <c r="XI2" s="12"/>
-      <c r="XJ2" s="12"/>
-      <c r="XK2" s="12"/>
-      <c r="XL2" s="12"/>
-      <c r="XM2" s="12"/>
-      <c r="XN2" s="12"/>
-      <c r="XO2" s="12"/>
-      <c r="XP2" s="12"/>
-      <c r="XQ2" s="12"/>
-      <c r="XR2" s="12"/>
-      <c r="XS2" s="12"/>
-      <c r="XT2" s="12"/>
-      <c r="XU2" s="12"/>
-      <c r="XV2" s="12"/>
-      <c r="XW2" s="12"/>
-      <c r="XX2" s="12"/>
-      <c r="XY2" s="12"/>
-      <c r="XZ2" s="12"/>
-      <c r="YA2" s="12"/>
-      <c r="YB2" s="12"/>
-      <c r="YC2" s="12"/>
-      <c r="YD2" s="12"/>
-      <c r="YE2" s="12"/>
-      <c r="YF2" s="12"/>
-      <c r="YG2" s="12"/>
-      <c r="YH2" s="12"/>
-      <c r="YI2" s="12"/>
-      <c r="YJ2" s="12"/>
-      <c r="YK2" s="12"/>
-      <c r="YL2" s="12"/>
-      <c r="YM2" s="12"/>
-      <c r="YN2" s="12"/>
-      <c r="YO2" s="12"/>
-      <c r="YP2" s="12"/>
-      <c r="YQ2" s="12"/>
-      <c r="YR2" s="12"/>
-      <c r="YS2" s="12"/>
-      <c r="YT2" s="12"/>
-      <c r="YU2" s="12"/>
-      <c r="YV2" s="12"/>
-      <c r="YW2" s="12"/>
-      <c r="YX2" s="12"/>
-      <c r="YY2" s="12"/>
-      <c r="YZ2" s="12"/>
-      <c r="ZA2" s="12"/>
-      <c r="ZB2" s="12"/>
-      <c r="ZC2" s="12"/>
-      <c r="ZD2" s="12"/>
-      <c r="ZE2" s="12"/>
-      <c r="ZF2" s="12"/>
-      <c r="ZG2" s="12"/>
-      <c r="ZH2" s="12"/>
-      <c r="ZI2" s="12"/>
-      <c r="ZJ2" s="12"/>
-      <c r="ZK2" s="12"/>
-      <c r="ZL2" s="12"/>
-      <c r="ZM2" s="12"/>
-      <c r="ZN2" s="12"/>
-      <c r="ZO2" s="12"/>
-      <c r="ZP2" s="12"/>
-      <c r="ZQ2" s="12"/>
-      <c r="ZR2" s="12"/>
-      <c r="ZS2" s="12"/>
-      <c r="ZT2" s="12"/>
-      <c r="ZU2" s="12"/>
-      <c r="ZV2" s="12"/>
-      <c r="ZW2" s="12"/>
-      <c r="ZX2" s="12"/>
-      <c r="ZY2" s="12"/>
-      <c r="ZZ2" s="12"/>
-      <c r="AAA2" s="12"/>
-      <c r="AAB2" s="12"/>
-      <c r="AAC2" s="12"/>
-      <c r="AAD2" s="12"/>
-      <c r="AAE2" s="12"/>
-      <c r="AAF2" s="12"/>
-      <c r="AAG2" s="12"/>
-      <c r="AAH2" s="12"/>
-      <c r="AAI2" s="12"/>
-      <c r="AAJ2" s="12"/>
-      <c r="AAK2" s="12"/>
-      <c r="AAL2" s="12"/>
-      <c r="AAM2" s="12"/>
-      <c r="AAN2" s="12"/>
-      <c r="AAO2" s="12"/>
-      <c r="AAP2" s="12"/>
-      <c r="AAQ2" s="12"/>
-      <c r="AAR2" s="12"/>
-      <c r="AAS2" s="12"/>
-      <c r="AAT2" s="12"/>
-      <c r="AAU2" s="12"/>
-      <c r="AAV2" s="12"/>
-      <c r="AAW2" s="12"/>
-      <c r="AAX2" s="12"/>
-      <c r="AAY2" s="12"/>
-      <c r="AAZ2" s="12"/>
-      <c r="ABA2" s="12"/>
-      <c r="ABB2" s="12"/>
-      <c r="ABC2" s="12"/>
-      <c r="ABD2" s="12"/>
-      <c r="ABE2" s="12"/>
-      <c r="ABF2" s="12"/>
-      <c r="ABG2" s="12"/>
-      <c r="ABH2" s="12"/>
-      <c r="ABI2" s="12"/>
-      <c r="ABJ2" s="12"/>
-      <c r="ABK2" s="12"/>
-      <c r="ABL2" s="12"/>
-      <c r="ABM2" s="12"/>
-      <c r="ABN2" s="12"/>
-      <c r="ABO2" s="12"/>
-      <c r="ABP2" s="12"/>
-      <c r="ABQ2" s="12"/>
-      <c r="ABR2" s="12"/>
-      <c r="ABS2" s="12"/>
-      <c r="ABT2" s="12"/>
-      <c r="ABU2" s="12"/>
-      <c r="ABV2" s="12"/>
-      <c r="ABW2" s="12"/>
-      <c r="ABX2" s="12"/>
-      <c r="ABY2" s="12"/>
-      <c r="ABZ2" s="12"/>
-      <c r="ACA2" s="12"/>
-      <c r="ACB2" s="12"/>
-      <c r="ACC2" s="12"/>
-      <c r="ACD2" s="12"/>
-      <c r="ACE2" s="12"/>
-      <c r="ACF2" s="12"/>
-      <c r="ACG2" s="12"/>
-      <c r="ACH2" s="12"/>
-      <c r="ACI2" s="12"/>
-      <c r="ACJ2" s="12"/>
-      <c r="ACK2" s="12"/>
-      <c r="ACL2" s="12"/>
-      <c r="ACM2" s="12"/>
-      <c r="ACN2" s="12"/>
-      <c r="ACO2" s="12"/>
-      <c r="ACP2" s="12"/>
-      <c r="ACQ2" s="12"/>
-      <c r="ACR2" s="12"/>
-      <c r="ACS2" s="12"/>
-      <c r="ACT2" s="12"/>
-      <c r="ACU2" s="12"/>
-      <c r="ACV2" s="12"/>
-      <c r="ACW2" s="12"/>
-      <c r="ACX2" s="12"/>
-      <c r="ACY2" s="12"/>
-      <c r="ACZ2" s="12"/>
-      <c r="ADA2" s="12"/>
-      <c r="ADB2" s="12"/>
-      <c r="ADC2" s="12"/>
-      <c r="ADD2" s="12"/>
-      <c r="ADE2" s="12"/>
-      <c r="ADF2" s="12"/>
-      <c r="ADG2" s="12"/>
-      <c r="ADH2" s="12"/>
-      <c r="ADI2" s="12"/>
-      <c r="ADJ2" s="12"/>
-      <c r="ADK2" s="12"/>
-      <c r="ADL2" s="12"/>
-      <c r="ADM2" s="12"/>
-      <c r="ADN2" s="12"/>
-      <c r="ADO2" s="12"/>
-      <c r="ADP2" s="12"/>
-      <c r="ADQ2" s="12"/>
-      <c r="ADR2" s="12"/>
-      <c r="ADS2" s="12"/>
-      <c r="ADT2" s="12"/>
-      <c r="ADU2" s="12"/>
-      <c r="ADV2" s="12"/>
-      <c r="ADW2" s="12"/>
-      <c r="ADX2" s="12"/>
-      <c r="ADY2" s="12"/>
-      <c r="ADZ2" s="12"/>
-      <c r="AEA2" s="12"/>
-      <c r="AEB2" s="12"/>
-      <c r="AEC2" s="12"/>
-      <c r="AED2" s="12"/>
-      <c r="AEE2" s="12"/>
-      <c r="AEF2" s="12"/>
-      <c r="AEG2" s="12"/>
-      <c r="AEH2" s="12"/>
-      <c r="AEI2" s="12"/>
-      <c r="AEJ2" s="12"/>
-      <c r="AEK2" s="12"/>
-      <c r="AEL2" s="12"/>
-      <c r="AEM2" s="12"/>
-      <c r="AEN2" s="12"/>
-      <c r="AEO2" s="12"/>
-      <c r="AEP2" s="12"/>
-      <c r="AEQ2" s="12"/>
-      <c r="AER2" s="12"/>
-      <c r="AES2" s="12"/>
-      <c r="AET2" s="12"/>
-      <c r="AEU2" s="12"/>
-      <c r="AEV2" s="12"/>
-      <c r="AEW2" s="12"/>
-      <c r="AEX2" s="12"/>
-      <c r="AEY2" s="12"/>
-      <c r="AEZ2" s="12"/>
-      <c r="AFA2" s="12"/>
-      <c r="AFB2" s="12"/>
-      <c r="AFC2" s="12"/>
-      <c r="AFD2" s="12"/>
-      <c r="AFE2" s="12"/>
-      <c r="AFF2" s="12"/>
-      <c r="AFG2" s="12"/>
-      <c r="AFH2" s="12"/>
-      <c r="AFI2" s="12"/>
-      <c r="AFJ2" s="12"/>
-      <c r="AFK2" s="12"/>
-      <c r="AFL2" s="12"/>
-      <c r="AFM2" s="12"/>
-      <c r="AFN2" s="12"/>
-      <c r="AFO2" s="12"/>
-      <c r="AFP2" s="12"/>
-      <c r="AFQ2" s="12"/>
-      <c r="AFR2" s="12"/>
-      <c r="AFS2" s="12"/>
-      <c r="AFT2" s="12"/>
-      <c r="AFU2" s="12"/>
-      <c r="AFV2" s="12"/>
-      <c r="AFW2" s="12"/>
-      <c r="AFX2" s="12"/>
-      <c r="AFY2" s="12"/>
-      <c r="AFZ2" s="12"/>
-      <c r="AGA2" s="12"/>
-      <c r="AGB2" s="12"/>
-      <c r="AGC2" s="12"/>
-      <c r="AGD2" s="12"/>
-      <c r="AGE2" s="12"/>
-      <c r="AGF2" s="12"/>
-      <c r="AGG2" s="12"/>
-      <c r="AGH2" s="12"/>
-      <c r="AGI2" s="12"/>
-      <c r="AGJ2" s="12"/>
-      <c r="AGK2" s="12"/>
-      <c r="AGL2" s="12"/>
-      <c r="AGM2" s="12"/>
-      <c r="AGN2" s="12"/>
-      <c r="AGO2" s="12"/>
-      <c r="AGP2" s="12"/>
-      <c r="AGQ2" s="12"/>
-      <c r="AGR2" s="12"/>
-      <c r="AGS2" s="12"/>
-      <c r="AGT2" s="12"/>
-      <c r="AGU2" s="12"/>
-      <c r="AGV2" s="12"/>
-      <c r="AGW2" s="12"/>
-      <c r="AGX2" s="12"/>
-      <c r="AGY2" s="12"/>
-      <c r="AGZ2" s="12"/>
-      <c r="AHA2" s="12"/>
-      <c r="AHB2" s="12"/>
-      <c r="AHC2" s="12"/>
-      <c r="AHD2" s="12"/>
-      <c r="AHE2" s="12"/>
-      <c r="AHF2" s="12"/>
-      <c r="AHG2" s="12"/>
-      <c r="AHH2" s="12"/>
-      <c r="AHI2" s="12"/>
-      <c r="AHJ2" s="12"/>
-      <c r="AHK2" s="12"/>
-      <c r="AHL2" s="12"/>
-      <c r="AHM2" s="12"/>
-      <c r="AHN2" s="12"/>
-      <c r="AHO2" s="12"/>
-      <c r="AHP2" s="12"/>
-      <c r="AHQ2" s="12"/>
-      <c r="AHR2" s="12"/>
-      <c r="AHS2" s="12"/>
-      <c r="AHT2" s="12"/>
-      <c r="AHU2" s="12"/>
-      <c r="AHV2" s="12"/>
-      <c r="AHW2" s="12"/>
-      <c r="AHX2" s="12"/>
-      <c r="AHY2" s="12"/>
-      <c r="AHZ2" s="12"/>
-      <c r="AIA2" s="12"/>
-      <c r="AIB2" s="12"/>
-      <c r="AIC2" s="12"/>
-      <c r="AID2" s="12"/>
-      <c r="AIE2" s="12"/>
-      <c r="AIF2" s="12"/>
-      <c r="AIG2" s="12"/>
-      <c r="AIH2" s="12"/>
-      <c r="AII2" s="12"/>
-      <c r="AIJ2" s="12"/>
-      <c r="AIK2" s="12"/>
-      <c r="AIL2" s="12"/>
-      <c r="AIM2" s="12"/>
-      <c r="AIN2" s="12"/>
-      <c r="AIO2" s="12"/>
-      <c r="AIP2" s="12"/>
-      <c r="AIQ2" s="12"/>
-      <c r="AIR2" s="12"/>
-      <c r="AIS2" s="12"/>
-      <c r="AIT2" s="12"/>
-      <c r="AIU2" s="12"/>
-      <c r="AIV2" s="12"/>
-      <c r="AIW2" s="12"/>
-      <c r="AIX2" s="12"/>
-      <c r="AIY2" s="12"/>
-      <c r="AIZ2" s="12"/>
-      <c r="AJA2" s="12"/>
-      <c r="AJB2" s="12"/>
-      <c r="AJC2" s="12"/>
-      <c r="AJD2" s="12"/>
-      <c r="AJE2" s="12"/>
-      <c r="AJF2" s="12"/>
-      <c r="AJG2" s="12"/>
-      <c r="AJH2" s="12"/>
-      <c r="AJI2" s="12"/>
-      <c r="AJJ2" s="12"/>
-      <c r="AJK2" s="12"/>
-      <c r="AJL2" s="12"/>
-      <c r="AJM2" s="12"/>
-      <c r="AJN2" s="12"/>
-      <c r="AJO2" s="12"/>
-      <c r="AJP2" s="12"/>
-      <c r="AJQ2" s="12"/>
-      <c r="AJR2" s="12"/>
-      <c r="AJS2" s="12"/>
-      <c r="AJT2" s="12"/>
-      <c r="AJU2" s="12"/>
-      <c r="AJV2" s="12"/>
-      <c r="AJW2" s="12"/>
-      <c r="AJX2" s="12"/>
-      <c r="AJY2" s="12"/>
-      <c r="AJZ2" s="12"/>
-      <c r="AKA2" s="12"/>
-      <c r="AKB2" s="12"/>
-      <c r="AKC2" s="12"/>
-      <c r="AKD2" s="12"/>
-      <c r="AKE2" s="12"/>
-      <c r="AKF2" s="12"/>
-      <c r="AKG2" s="12"/>
-      <c r="AKH2" s="12"/>
-      <c r="AKI2" s="12"/>
-      <c r="AKJ2" s="12"/>
-      <c r="AKK2" s="12"/>
-      <c r="AKL2" s="12"/>
-      <c r="AKM2" s="12"/>
-      <c r="AKN2" s="12"/>
-      <c r="AKO2" s="12"/>
-      <c r="AKP2" s="12"/>
-      <c r="AKQ2" s="12"/>
-      <c r="AKR2" s="12"/>
-      <c r="AKS2" s="12"/>
-      <c r="AKT2" s="12"/>
-      <c r="AKU2" s="12"/>
-      <c r="AKV2" s="12"/>
-      <c r="AKW2" s="12"/>
-      <c r="AKX2" s="12"/>
-      <c r="AKY2" s="12"/>
-      <c r="AKZ2" s="12"/>
-      <c r="ALA2" s="12"/>
-      <c r="ALB2" s="12"/>
-      <c r="ALC2" s="12"/>
-      <c r="ALD2" s="12"/>
-      <c r="ALE2" s="12"/>
-      <c r="ALF2" s="12"/>
-      <c r="ALG2" s="12"/>
-      <c r="ALH2" s="12"/>
-      <c r="ALI2" s="12"/>
-      <c r="ALJ2" s="12"/>
-      <c r="ALK2" s="12"/>
-      <c r="ALL2" s="12"/>
-      <c r="ALM2" s="12"/>
-      <c r="ALN2" s="12"/>
-      <c r="ALO2" s="12"/>
-      <c r="ALP2" s="12"/>
-      <c r="ALQ2" s="12"/>
-      <c r="ALR2" s="12"/>
-      <c r="ALS2" s="12"/>
-      <c r="ALT2" s="12"/>
-      <c r="ALU2" s="12"/>
-      <c r="ALV2" s="12"/>
-      <c r="ALW2" s="12"/>
-      <c r="ALX2" s="12"/>
-      <c r="ALY2" s="12"/>
-      <c r="ALZ2" s="12"/>
-      <c r="AMA2" s="12"/>
-      <c r="AMB2" s="12"/>
-      <c r="AMC2" s="12"/>
-      <c r="AMD2" s="12"/>
-      <c r="AME2" s="12"/>
-      <c r="AMF2" s="12"/>
-      <c r="AMG2" s="12"/>
-      <c r="AMH2" s="12"/>
-      <c r="AMI2" s="12"/>
-      <c r="AMJ2" s="12"/>
-      <c r="AMK2" s="12"/>
-      <c r="AML2" s="12"/>
-      <c r="AMM2" s="12"/>
-      <c r="AMN2" s="12"/>
-      <c r="AMO2" s="12"/>
-      <c r="AMP2" s="12"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13"/>
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13"/>
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
+      <c r="CB2" s="13"/>
+      <c r="CC2" s="13"/>
+      <c r="CD2" s="13"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="13"/>
+      <c r="CG2" s="13"/>
+      <c r="CH2" s="13"/>
+      <c r="CI2" s="13"/>
+      <c r="CJ2" s="13"/>
+      <c r="CK2" s="13"/>
+      <c r="CL2" s="13"/>
+      <c r="CM2" s="13"/>
+      <c r="CN2" s="13"/>
+      <c r="CO2" s="13"/>
+      <c r="CP2" s="13"/>
+      <c r="CQ2" s="13"/>
+      <c r="CR2" s="13"/>
+      <c r="CS2" s="13"/>
+      <c r="CT2" s="13"/>
+      <c r="CU2" s="13"/>
+      <c r="CV2" s="13"/>
+      <c r="CW2" s="13"/>
+      <c r="CX2" s="13"/>
+      <c r="CY2" s="13"/>
+      <c r="CZ2" s="13"/>
+      <c r="DA2" s="13"/>
+      <c r="DB2" s="13"/>
+      <c r="DC2" s="13"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="13"/>
+      <c r="DF2" s="13"/>
+      <c r="DG2" s="13"/>
+      <c r="DH2" s="13"/>
+      <c r="DI2" s="13"/>
+      <c r="DJ2" s="13"/>
+      <c r="DK2" s="13"/>
+      <c r="DL2" s="13"/>
+      <c r="DM2" s="13"/>
+      <c r="DN2" s="13"/>
+      <c r="DO2" s="13"/>
+      <c r="DP2" s="13"/>
+      <c r="DQ2" s="13"/>
+      <c r="DR2" s="13"/>
+      <c r="DS2" s="13"/>
+      <c r="DT2" s="13"/>
+      <c r="DU2" s="13"/>
+      <c r="DV2" s="13"/>
+      <c r="DW2" s="13"/>
+      <c r="DX2" s="13"/>
+      <c r="DY2" s="13"/>
+      <c r="DZ2" s="13"/>
+      <c r="EA2" s="13"/>
+      <c r="EB2" s="13"/>
+      <c r="EC2" s="13"/>
+      <c r="ED2" s="13"/>
+      <c r="EE2" s="13"/>
+      <c r="EF2" s="13"/>
+      <c r="EG2" s="13"/>
+      <c r="EH2" s="13"/>
+      <c r="EI2" s="13"/>
+      <c r="EJ2" s="13"/>
+      <c r="EK2" s="13"/>
+      <c r="EL2" s="13"/>
+      <c r="EM2" s="13"/>
+      <c r="EN2" s="13"/>
+      <c r="EO2" s="13"/>
+      <c r="EP2" s="13"/>
+      <c r="EQ2" s="13"/>
+      <c r="ER2" s="13"/>
+      <c r="ES2" s="13"/>
+      <c r="ET2" s="13"/>
+      <c r="EU2" s="13"/>
+      <c r="EV2" s="13"/>
+      <c r="EW2" s="13"/>
+      <c r="EX2" s="13"/>
+      <c r="EY2" s="13"/>
+      <c r="EZ2" s="13"/>
+      <c r="FA2" s="13"/>
+      <c r="FB2" s="13"/>
+      <c r="FC2" s="13"/>
+      <c r="FD2" s="13"/>
+      <c r="FE2" s="13"/>
+      <c r="FF2" s="13"/>
+      <c r="FG2" s="13"/>
+      <c r="FH2" s="13"/>
+      <c r="FI2" s="13"/>
+      <c r="FJ2" s="13"/>
+      <c r="FK2" s="13"/>
+      <c r="FL2" s="13"/>
+      <c r="FM2" s="13"/>
+      <c r="FN2" s="13"/>
+      <c r="FO2" s="13"/>
+      <c r="FP2" s="13"/>
+      <c r="FQ2" s="13"/>
+      <c r="FR2" s="13"/>
+      <c r="FS2" s="13"/>
+      <c r="FT2" s="13"/>
+      <c r="FU2" s="13"/>
+      <c r="FV2" s="13"/>
+      <c r="FW2" s="13"/>
+      <c r="FX2" s="13"/>
+      <c r="FY2" s="13"/>
+      <c r="FZ2" s="13"/>
+      <c r="GA2" s="13"/>
+      <c r="GB2" s="13"/>
+      <c r="GC2" s="13"/>
+      <c r="GD2" s="13"/>
+      <c r="GE2" s="13"/>
+      <c r="GF2" s="13"/>
+      <c r="GG2" s="13"/>
+      <c r="GH2" s="13"/>
+      <c r="GI2" s="13"/>
+      <c r="GJ2" s="13"/>
+      <c r="GK2" s="13"/>
+      <c r="GL2" s="13"/>
+      <c r="GM2" s="13"/>
+      <c r="GN2" s="13"/>
+      <c r="GO2" s="13"/>
+      <c r="GP2" s="13"/>
+      <c r="GQ2" s="13"/>
+      <c r="GR2" s="13"/>
+      <c r="GS2" s="13"/>
+      <c r="GT2" s="13"/>
+      <c r="GU2" s="13"/>
+      <c r="GV2" s="13"/>
+      <c r="GW2" s="13"/>
+      <c r="GX2" s="13"/>
+      <c r="GY2" s="13"/>
+      <c r="GZ2" s="13"/>
+      <c r="HA2" s="13"/>
+      <c r="HB2" s="13"/>
+      <c r="HC2" s="13"/>
+      <c r="HD2" s="13"/>
+      <c r="HE2" s="13"/>
+      <c r="HF2" s="13"/>
+      <c r="HG2" s="13"/>
+      <c r="HH2" s="13"/>
+      <c r="HI2" s="13"/>
+      <c r="HJ2" s="13"/>
+      <c r="HK2" s="13"/>
+      <c r="HL2" s="13"/>
+      <c r="HM2" s="13"/>
+      <c r="HN2" s="13"/>
+      <c r="HO2" s="13"/>
+      <c r="HP2" s="13"/>
+      <c r="HQ2" s="13"/>
+      <c r="HR2" s="13"/>
+      <c r="HS2" s="13"/>
+      <c r="HT2" s="13"/>
+      <c r="HU2" s="13"/>
+      <c r="HV2" s="13"/>
+      <c r="HW2" s="13"/>
+      <c r="HX2" s="13"/>
+      <c r="HY2" s="13"/>
+      <c r="HZ2" s="13"/>
+      <c r="IA2" s="13"/>
+      <c r="IB2" s="13"/>
+      <c r="IC2" s="13"/>
+      <c r="ID2" s="13"/>
+      <c r="IE2" s="13"/>
+      <c r="IF2" s="13"/>
+      <c r="IG2" s="13"/>
+      <c r="IH2" s="13"/>
+      <c r="II2" s="13"/>
+      <c r="IJ2" s="13"/>
+      <c r="IK2" s="13"/>
+      <c r="IL2" s="13"/>
+      <c r="IM2" s="13"/>
+      <c r="IN2" s="13"/>
+      <c r="IO2" s="13"/>
+      <c r="IP2" s="13"/>
+      <c r="IQ2" s="13"/>
+      <c r="IR2" s="13"/>
+      <c r="IS2" s="13"/>
+      <c r="IT2" s="13"/>
+      <c r="IU2" s="13"/>
+      <c r="IV2" s="13"/>
+      <c r="IW2" s="13"/>
+      <c r="IX2" s="13"/>
+      <c r="IY2" s="13"/>
+      <c r="IZ2" s="13"/>
+      <c r="JA2" s="13"/>
+      <c r="JB2" s="13"/>
+      <c r="JC2" s="13"/>
+      <c r="JD2" s="13"/>
+      <c r="JE2" s="13"/>
+      <c r="JF2" s="13"/>
+      <c r="JG2" s="13"/>
+      <c r="JH2" s="13"/>
+      <c r="JI2" s="13"/>
+      <c r="JJ2" s="13"/>
+      <c r="JK2" s="13"/>
+      <c r="JL2" s="13"/>
+      <c r="JM2" s="13"/>
+      <c r="JN2" s="13"/>
+      <c r="JO2" s="13"/>
+      <c r="JP2" s="13"/>
+      <c r="JQ2" s="13"/>
+      <c r="JR2" s="13"/>
+      <c r="JS2" s="13"/>
+      <c r="JT2" s="13"/>
+      <c r="JU2" s="13"/>
+      <c r="JV2" s="13"/>
+      <c r="JW2" s="13"/>
+      <c r="JX2" s="13"/>
+      <c r="JY2" s="13"/>
+      <c r="JZ2" s="13"/>
+      <c r="KA2" s="13"/>
+      <c r="KB2" s="13"/>
+      <c r="KC2" s="13"/>
+      <c r="KD2" s="13"/>
+      <c r="KE2" s="13"/>
+      <c r="KF2" s="13"/>
+      <c r="KG2" s="13"/>
+      <c r="KH2" s="13"/>
+      <c r="KI2" s="13"/>
+      <c r="KJ2" s="13"/>
+      <c r="KK2" s="13"/>
+      <c r="KL2" s="13"/>
+      <c r="KM2" s="13"/>
+      <c r="KN2" s="13"/>
+      <c r="KO2" s="13"/>
+      <c r="KP2" s="13"/>
+      <c r="KQ2" s="13"/>
+      <c r="KR2" s="13"/>
+      <c r="KS2" s="13"/>
+      <c r="KT2" s="13"/>
+      <c r="KU2" s="13"/>
+      <c r="KV2" s="13"/>
+      <c r="KW2" s="13"/>
+      <c r="KX2" s="13"/>
+      <c r="KY2" s="13"/>
+      <c r="KZ2" s="13"/>
+      <c r="LA2" s="13"/>
+      <c r="LB2" s="13"/>
+      <c r="LC2" s="13"/>
+      <c r="LD2" s="13"/>
+      <c r="LE2" s="13"/>
+      <c r="LF2" s="13"/>
+      <c r="LG2" s="13"/>
+      <c r="LH2" s="13"/>
+      <c r="LI2" s="13"/>
+      <c r="LJ2" s="13"/>
+      <c r="LK2" s="13"/>
+      <c r="LL2" s="13"/>
+      <c r="LM2" s="13"/>
+      <c r="LN2" s="13"/>
+      <c r="LO2" s="13"/>
+      <c r="LP2" s="13"/>
+      <c r="LQ2" s="13"/>
+      <c r="LR2" s="13"/>
+      <c r="LS2" s="13"/>
+      <c r="LT2" s="13"/>
+      <c r="LU2" s="13"/>
+      <c r="LV2" s="13"/>
+      <c r="LW2" s="13"/>
+      <c r="LX2" s="13"/>
+      <c r="LY2" s="13"/>
+      <c r="LZ2" s="13"/>
+      <c r="MA2" s="13"/>
+      <c r="MB2" s="13"/>
+      <c r="MC2" s="13"/>
+      <c r="MD2" s="13"/>
+      <c r="ME2" s="13"/>
+      <c r="MF2" s="13"/>
+      <c r="MG2" s="13"/>
+      <c r="MH2" s="13"/>
+      <c r="MI2" s="13"/>
+      <c r="MJ2" s="13"/>
+      <c r="MK2" s="13"/>
+      <c r="ML2" s="13"/>
+      <c r="MM2" s="13"/>
+      <c r="MN2" s="13"/>
+      <c r="MO2" s="13"/>
+      <c r="MP2" s="13"/>
+      <c r="MQ2" s="13"/>
+      <c r="MR2" s="13"/>
+      <c r="MS2" s="13"/>
+      <c r="MT2" s="13"/>
+      <c r="MU2" s="13"/>
+      <c r="MV2" s="13"/>
+      <c r="MW2" s="13"/>
+      <c r="MX2" s="13"/>
+      <c r="MY2" s="13"/>
+      <c r="MZ2" s="13"/>
+      <c r="NA2" s="13"/>
+      <c r="NB2" s="13"/>
+      <c r="NC2" s="13"/>
+      <c r="ND2" s="13"/>
+      <c r="NE2" s="13"/>
+      <c r="NF2" s="13"/>
+      <c r="NG2" s="13"/>
+      <c r="NH2" s="13"/>
+      <c r="NI2" s="13"/>
+      <c r="NJ2" s="13"/>
+      <c r="NK2" s="13"/>
+      <c r="NL2" s="13"/>
+      <c r="NM2" s="13"/>
+      <c r="NN2" s="13"/>
+      <c r="NO2" s="13"/>
+      <c r="NP2" s="13"/>
+      <c r="NQ2" s="13"/>
+      <c r="NR2" s="13"/>
+      <c r="NS2" s="13"/>
+      <c r="NT2" s="13"/>
+      <c r="NU2" s="13"/>
+      <c r="NV2" s="13"/>
+      <c r="NW2" s="13"/>
+      <c r="NX2" s="13"/>
+      <c r="NY2" s="13"/>
+      <c r="NZ2" s="13"/>
+      <c r="OA2" s="13"/>
+      <c r="OB2" s="13"/>
+      <c r="OC2" s="13"/>
+      <c r="OD2" s="13"/>
+      <c r="OE2" s="13"/>
+      <c r="OF2" s="13"/>
+      <c r="OG2" s="13"/>
+      <c r="OH2" s="13"/>
+      <c r="OI2" s="13"/>
+      <c r="OJ2" s="13"/>
+      <c r="OK2" s="13"/>
+      <c r="OL2" s="13"/>
+      <c r="OM2" s="13"/>
+      <c r="ON2" s="13"/>
+      <c r="OO2" s="13"/>
+      <c r="OP2" s="13"/>
+      <c r="OQ2" s="13"/>
+      <c r="OR2" s="13"/>
+      <c r="OS2" s="13"/>
+      <c r="OT2" s="13"/>
+      <c r="OU2" s="13"/>
+      <c r="OV2" s="13"/>
+      <c r="OW2" s="13"/>
+      <c r="OX2" s="13"/>
+      <c r="OY2" s="13"/>
+      <c r="OZ2" s="13"/>
+      <c r="PA2" s="13"/>
+      <c r="PB2" s="13"/>
+      <c r="PC2" s="13"/>
+      <c r="PD2" s="13"/>
+      <c r="PE2" s="13"/>
+      <c r="PF2" s="13"/>
+      <c r="PG2" s="13"/>
+      <c r="PH2" s="13"/>
+      <c r="PI2" s="13"/>
+      <c r="PJ2" s="13"/>
+      <c r="PK2" s="13"/>
+      <c r="PL2" s="13"/>
+      <c r="PM2" s="13"/>
+      <c r="PN2" s="13"/>
+      <c r="PO2" s="13"/>
+      <c r="PP2" s="13"/>
+      <c r="PQ2" s="13"/>
+      <c r="PR2" s="13"/>
+      <c r="PS2" s="13"/>
+      <c r="PT2" s="13"/>
+      <c r="PU2" s="13"/>
+      <c r="PV2" s="13"/>
+      <c r="PW2" s="13"/>
+      <c r="PX2" s="13"/>
+      <c r="PY2" s="13"/>
+      <c r="PZ2" s="13"/>
+      <c r="QA2" s="13"/>
+      <c r="QB2" s="13"/>
+      <c r="QC2" s="13"/>
+      <c r="QD2" s="13"/>
+      <c r="QE2" s="13"/>
+      <c r="QF2" s="13"/>
+      <c r="QG2" s="13"/>
+      <c r="QH2" s="13"/>
+      <c r="QI2" s="13"/>
+      <c r="QJ2" s="13"/>
+      <c r="QK2" s="13"/>
+      <c r="QL2" s="13"/>
+      <c r="QM2" s="13"/>
+      <c r="QN2" s="13"/>
+      <c r="QO2" s="13"/>
+      <c r="QP2" s="13"/>
+      <c r="QQ2" s="13"/>
+      <c r="QR2" s="13"/>
+      <c r="QS2" s="13"/>
+      <c r="QT2" s="13"/>
+      <c r="QU2" s="13"/>
+      <c r="QV2" s="13"/>
+      <c r="QW2" s="13"/>
+      <c r="QX2" s="13"/>
+      <c r="QY2" s="13"/>
+      <c r="QZ2" s="13"/>
+      <c r="RA2" s="13"/>
+      <c r="RB2" s="13"/>
+      <c r="RC2" s="13"/>
+      <c r="RD2" s="13"/>
+      <c r="RE2" s="13"/>
+      <c r="RF2" s="13"/>
+      <c r="RG2" s="13"/>
+      <c r="RH2" s="13"/>
+      <c r="RI2" s="13"/>
+      <c r="RJ2" s="13"/>
+      <c r="RK2" s="13"/>
+      <c r="RL2" s="13"/>
+      <c r="RM2" s="13"/>
+      <c r="RN2" s="13"/>
+      <c r="RO2" s="13"/>
+      <c r="RP2" s="13"/>
+      <c r="RQ2" s="13"/>
+      <c r="RR2" s="13"/>
+      <c r="RS2" s="13"/>
+      <c r="RT2" s="13"/>
+      <c r="RU2" s="13"/>
+      <c r="RV2" s="13"/>
+      <c r="RW2" s="13"/>
+      <c r="RX2" s="13"/>
+      <c r="RY2" s="13"/>
+      <c r="RZ2" s="13"/>
+      <c r="SA2" s="13"/>
+      <c r="SB2" s="13"/>
+      <c r="SC2" s="13"/>
+      <c r="SD2" s="13"/>
+      <c r="SE2" s="13"/>
+      <c r="SF2" s="13"/>
+      <c r="SG2" s="13"/>
+      <c r="SH2" s="13"/>
+      <c r="SI2" s="13"/>
+      <c r="SJ2" s="13"/>
+      <c r="SK2" s="13"/>
+      <c r="SL2" s="13"/>
+      <c r="SM2" s="13"/>
+      <c r="SN2" s="13"/>
+      <c r="SO2" s="13"/>
+      <c r="SP2" s="13"/>
+      <c r="SQ2" s="13"/>
+      <c r="SR2" s="13"/>
+      <c r="SS2" s="13"/>
+      <c r="ST2" s="13"/>
+      <c r="SU2" s="13"/>
+      <c r="SV2" s="13"/>
+      <c r="SW2" s="13"/>
+      <c r="SX2" s="13"/>
+      <c r="SY2" s="13"/>
+      <c r="SZ2" s="13"/>
+      <c r="TA2" s="13"/>
+      <c r="TB2" s="13"/>
+      <c r="TC2" s="13"/>
+      <c r="TD2" s="13"/>
+      <c r="TE2" s="13"/>
+      <c r="TF2" s="13"/>
+      <c r="TG2" s="13"/>
+      <c r="TH2" s="13"/>
+      <c r="TI2" s="13"/>
+      <c r="TJ2" s="13"/>
+      <c r="TK2" s="13"/>
+      <c r="TL2" s="13"/>
+      <c r="TM2" s="13"/>
+      <c r="TN2" s="13"/>
+      <c r="TO2" s="13"/>
+      <c r="TP2" s="13"/>
+      <c r="TQ2" s="13"/>
+      <c r="TR2" s="13"/>
+      <c r="TS2" s="13"/>
+      <c r="TT2" s="13"/>
+      <c r="TU2" s="13"/>
+      <c r="TV2" s="13"/>
+      <c r="TW2" s="13"/>
+      <c r="TX2" s="13"/>
+      <c r="TY2" s="13"/>
+      <c r="TZ2" s="13"/>
+      <c r="UA2" s="13"/>
+      <c r="UB2" s="13"/>
+      <c r="UC2" s="13"/>
+      <c r="UD2" s="13"/>
+      <c r="UE2" s="13"/>
+      <c r="UF2" s="13"/>
+      <c r="UG2" s="13"/>
+      <c r="UH2" s="13"/>
+      <c r="UI2" s="13"/>
+      <c r="UJ2" s="13"/>
+      <c r="UK2" s="13"/>
+      <c r="UL2" s="13"/>
+      <c r="UM2" s="13"/>
+      <c r="UN2" s="13"/>
+      <c r="UO2" s="13"/>
+      <c r="UP2" s="13"/>
+      <c r="UQ2" s="13"/>
+      <c r="UR2" s="13"/>
+      <c r="US2" s="13"/>
+      <c r="UT2" s="13"/>
+      <c r="UU2" s="13"/>
+      <c r="UV2" s="13"/>
+      <c r="UW2" s="13"/>
+      <c r="UX2" s="13"/>
+      <c r="UY2" s="13"/>
+      <c r="UZ2" s="13"/>
+      <c r="VA2" s="13"/>
+      <c r="VB2" s="13"/>
+      <c r="VC2" s="13"/>
+      <c r="VD2" s="13"/>
+      <c r="VE2" s="13"/>
+      <c r="VF2" s="13"/>
+      <c r="VG2" s="13"/>
+      <c r="VH2" s="13"/>
+      <c r="VI2" s="13"/>
+      <c r="VJ2" s="13"/>
+      <c r="VK2" s="13"/>
+      <c r="VL2" s="13"/>
+      <c r="VM2" s="13"/>
+      <c r="VN2" s="13"/>
+      <c r="VO2" s="13"/>
+      <c r="VP2" s="13"/>
+      <c r="VQ2" s="13"/>
+      <c r="VR2" s="13"/>
+      <c r="VS2" s="13"/>
+      <c r="VT2" s="13"/>
+      <c r="VU2" s="13"/>
+      <c r="VV2" s="13"/>
+      <c r="VW2" s="13"/>
+      <c r="VX2" s="13"/>
+      <c r="VY2" s="13"/>
+      <c r="VZ2" s="13"/>
+      <c r="WA2" s="13"/>
+      <c r="WB2" s="13"/>
+      <c r="WC2" s="13"/>
+      <c r="WD2" s="13"/>
+      <c r="WE2" s="13"/>
+      <c r="WF2" s="13"/>
+      <c r="WG2" s="13"/>
+      <c r="WH2" s="13"/>
+      <c r="WI2" s="13"/>
+      <c r="WJ2" s="13"/>
+      <c r="WK2" s="13"/>
+      <c r="WL2" s="13"/>
+      <c r="WM2" s="13"/>
+      <c r="WN2" s="13"/>
+      <c r="WO2" s="13"/>
+      <c r="WP2" s="13"/>
+      <c r="WQ2" s="13"/>
+      <c r="WR2" s="13"/>
+      <c r="WS2" s="13"/>
+      <c r="WT2" s="13"/>
+      <c r="WU2" s="13"/>
+      <c r="WV2" s="13"/>
+      <c r="WW2" s="13"/>
+      <c r="WX2" s="13"/>
+      <c r="WY2" s="13"/>
+      <c r="WZ2" s="13"/>
+      <c r="XA2" s="13"/>
+      <c r="XB2" s="13"/>
+      <c r="XC2" s="13"/>
+      <c r="XD2" s="13"/>
+      <c r="XE2" s="13"/>
+      <c r="XF2" s="13"/>
+      <c r="XG2" s="13"/>
+      <c r="XH2" s="13"/>
+      <c r="XI2" s="13"/>
+      <c r="XJ2" s="13"/>
+      <c r="XK2" s="13"/>
+      <c r="XL2" s="13"/>
+      <c r="XM2" s="13"/>
+      <c r="XN2" s="13"/>
+      <c r="XO2" s="13"/>
+      <c r="XP2" s="13"/>
+      <c r="XQ2" s="13"/>
+      <c r="XR2" s="13"/>
+      <c r="XS2" s="13"/>
+      <c r="XT2" s="13"/>
+      <c r="XU2" s="13"/>
+      <c r="XV2" s="13"/>
+      <c r="XW2" s="13"/>
+      <c r="XX2" s="13"/>
+      <c r="XY2" s="13"/>
+      <c r="XZ2" s="13"/>
+      <c r="YA2" s="13"/>
+      <c r="YB2" s="13"/>
+      <c r="YC2" s="13"/>
+      <c r="YD2" s="13"/>
+      <c r="YE2" s="13"/>
+      <c r="YF2" s="13"/>
+      <c r="YG2" s="13"/>
+      <c r="YH2" s="13"/>
+      <c r="YI2" s="13"/>
+      <c r="YJ2" s="13"/>
+      <c r="YK2" s="13"/>
+      <c r="YL2" s="13"/>
+      <c r="YM2" s="13"/>
+      <c r="YN2" s="13"/>
+      <c r="YO2" s="13"/>
+      <c r="YP2" s="13"/>
+      <c r="YQ2" s="13"/>
+      <c r="YR2" s="13"/>
+      <c r="YS2" s="13"/>
+      <c r="YT2" s="13"/>
+      <c r="YU2" s="13"/>
+      <c r="YV2" s="13"/>
+      <c r="YW2" s="13"/>
+      <c r="YX2" s="13"/>
+      <c r="YY2" s="13"/>
+      <c r="YZ2" s="13"/>
+      <c r="ZA2" s="13"/>
+      <c r="ZB2" s="13"/>
+      <c r="ZC2" s="13"/>
+      <c r="ZD2" s="13"/>
+      <c r="ZE2" s="13"/>
+      <c r="ZF2" s="13"/>
+      <c r="ZG2" s="13"/>
+      <c r="ZH2" s="13"/>
+      <c r="ZI2" s="13"/>
+      <c r="ZJ2" s="13"/>
+      <c r="ZK2" s="13"/>
+      <c r="ZL2" s="13"/>
+      <c r="ZM2" s="13"/>
+      <c r="ZN2" s="13"/>
+      <c r="ZO2" s="13"/>
+      <c r="ZP2" s="13"/>
+      <c r="ZQ2" s="13"/>
+      <c r="ZR2" s="13"/>
+      <c r="ZS2" s="13"/>
+      <c r="ZT2" s="13"/>
+      <c r="ZU2" s="13"/>
+      <c r="ZV2" s="13"/>
+      <c r="ZW2" s="13"/>
+      <c r="ZX2" s="13"/>
+      <c r="ZY2" s="13"/>
+      <c r="ZZ2" s="13"/>
+      <c r="AAA2" s="13"/>
+      <c r="AAB2" s="13"/>
+      <c r="AAC2" s="13"/>
+      <c r="AAD2" s="13"/>
+      <c r="AAE2" s="13"/>
+      <c r="AAF2" s="13"/>
+      <c r="AAG2" s="13"/>
+      <c r="AAH2" s="13"/>
+      <c r="AAI2" s="13"/>
+      <c r="AAJ2" s="13"/>
+      <c r="AAK2" s="13"/>
+      <c r="AAL2" s="13"/>
+      <c r="AAM2" s="13"/>
+      <c r="AAN2" s="13"/>
+      <c r="AAO2" s="13"/>
+      <c r="AAP2" s="13"/>
+      <c r="AAQ2" s="13"/>
+      <c r="AAR2" s="13"/>
+      <c r="AAS2" s="13"/>
+      <c r="AAT2" s="13"/>
+      <c r="AAU2" s="13"/>
+      <c r="AAV2" s="13"/>
+      <c r="AAW2" s="13"/>
+      <c r="AAX2" s="13"/>
+      <c r="AAY2" s="13"/>
+      <c r="AAZ2" s="13"/>
+      <c r="ABA2" s="13"/>
+      <c r="ABB2" s="13"/>
+      <c r="ABC2" s="13"/>
+      <c r="ABD2" s="13"/>
+      <c r="ABE2" s="13"/>
+      <c r="ABF2" s="13"/>
+      <c r="ABG2" s="13"/>
+      <c r="ABH2" s="13"/>
+      <c r="ABI2" s="13"/>
+      <c r="ABJ2" s="13"/>
+      <c r="ABK2" s="13"/>
+      <c r="ABL2" s="13"/>
+      <c r="ABM2" s="13"/>
+      <c r="ABN2" s="13"/>
+      <c r="ABO2" s="13"/>
+      <c r="ABP2" s="13"/>
+      <c r="ABQ2" s="13"/>
+      <c r="ABR2" s="13"/>
+      <c r="ABS2" s="13"/>
+      <c r="ABT2" s="13"/>
+      <c r="ABU2" s="13"/>
+      <c r="ABV2" s="13"/>
+      <c r="ABW2" s="13"/>
+      <c r="ABX2" s="13"/>
+      <c r="ABY2" s="13"/>
+      <c r="ABZ2" s="13"/>
+      <c r="ACA2" s="13"/>
+      <c r="ACB2" s="13"/>
+      <c r="ACC2" s="13"/>
+      <c r="ACD2" s="13"/>
+      <c r="ACE2" s="13"/>
+      <c r="ACF2" s="13"/>
+      <c r="ACG2" s="13"/>
+      <c r="ACH2" s="13"/>
+      <c r="ACI2" s="13"/>
+      <c r="ACJ2" s="13"/>
+      <c r="ACK2" s="13"/>
+      <c r="ACL2" s="13"/>
+      <c r="ACM2" s="13"/>
+      <c r="ACN2" s="13"/>
+      <c r="ACO2" s="13"/>
+      <c r="ACP2" s="13"/>
+      <c r="ACQ2" s="13"/>
+      <c r="ACR2" s="13"/>
+      <c r="ACS2" s="13"/>
+      <c r="ACT2" s="13"/>
+      <c r="ACU2" s="13"/>
+      <c r="ACV2" s="13"/>
+      <c r="ACW2" s="13"/>
+      <c r="ACX2" s="13"/>
+      <c r="ACY2" s="13"/>
+      <c r="ACZ2" s="13"/>
+      <c r="ADA2" s="13"/>
+      <c r="ADB2" s="13"/>
+      <c r="ADC2" s="13"/>
+      <c r="ADD2" s="13"/>
+      <c r="ADE2" s="13"/>
+      <c r="ADF2" s="13"/>
+      <c r="ADG2" s="13"/>
+      <c r="ADH2" s="13"/>
+      <c r="ADI2" s="13"/>
+      <c r="ADJ2" s="13"/>
+      <c r="ADK2" s="13"/>
+      <c r="ADL2" s="13"/>
+      <c r="ADM2" s="13"/>
+      <c r="ADN2" s="13"/>
+      <c r="ADO2" s="13"/>
+      <c r="ADP2" s="13"/>
+      <c r="ADQ2" s="13"/>
+      <c r="ADR2" s="13"/>
+      <c r="ADS2" s="13"/>
+      <c r="ADT2" s="13"/>
+      <c r="ADU2" s="13"/>
+      <c r="ADV2" s="13"/>
+      <c r="ADW2" s="13"/>
+      <c r="ADX2" s="13"/>
+      <c r="ADY2" s="13"/>
+      <c r="ADZ2" s="13"/>
+      <c r="AEA2" s="13"/>
+      <c r="AEB2" s="13"/>
+      <c r="AEC2" s="13"/>
+      <c r="AED2" s="13"/>
+      <c r="AEE2" s="13"/>
+      <c r="AEF2" s="13"/>
+      <c r="AEG2" s="13"/>
+      <c r="AEH2" s="13"/>
+      <c r="AEI2" s="13"/>
+      <c r="AEJ2" s="13"/>
+      <c r="AEK2" s="13"/>
+      <c r="AEL2" s="13"/>
+      <c r="AEM2" s="13"/>
+      <c r="AEN2" s="13"/>
+      <c r="AEO2" s="13"/>
+      <c r="AEP2" s="13"/>
+      <c r="AEQ2" s="13"/>
+      <c r="AER2" s="13"/>
+      <c r="AES2" s="13"/>
+      <c r="AET2" s="13"/>
+      <c r="AEU2" s="13"/>
+      <c r="AEV2" s="13"/>
+      <c r="AEW2" s="13"/>
+      <c r="AEX2" s="13"/>
+      <c r="AEY2" s="13"/>
+      <c r="AEZ2" s="13"/>
+      <c r="AFA2" s="13"/>
+      <c r="AFB2" s="13"/>
+      <c r="AFC2" s="13"/>
+      <c r="AFD2" s="13"/>
+      <c r="AFE2" s="13"/>
+      <c r="AFF2" s="13"/>
+      <c r="AFG2" s="13"/>
+      <c r="AFH2" s="13"/>
+      <c r="AFI2" s="13"/>
+      <c r="AFJ2" s="13"/>
+      <c r="AFK2" s="13"/>
+      <c r="AFL2" s="13"/>
+      <c r="AFM2" s="13"/>
+      <c r="AFN2" s="13"/>
+      <c r="AFO2" s="13"/>
+      <c r="AFP2" s="13"/>
+      <c r="AFQ2" s="13"/>
+      <c r="AFR2" s="13"/>
+      <c r="AFS2" s="13"/>
+      <c r="AFT2" s="13"/>
+      <c r="AFU2" s="13"/>
+      <c r="AFV2" s="13"/>
+      <c r="AFW2" s="13"/>
+      <c r="AFX2" s="13"/>
+      <c r="AFY2" s="13"/>
+      <c r="AFZ2" s="13"/>
+      <c r="AGA2" s="13"/>
+      <c r="AGB2" s="13"/>
+      <c r="AGC2" s="13"/>
+      <c r="AGD2" s="13"/>
+      <c r="AGE2" s="13"/>
+      <c r="AGF2" s="13"/>
+      <c r="AGG2" s="13"/>
+      <c r="AGH2" s="13"/>
+      <c r="AGI2" s="13"/>
+      <c r="AGJ2" s="13"/>
+      <c r="AGK2" s="13"/>
+      <c r="AGL2" s="13"/>
+      <c r="AGM2" s="13"/>
+      <c r="AGN2" s="13"/>
+      <c r="AGO2" s="13"/>
+      <c r="AGP2" s="13"/>
+      <c r="AGQ2" s="13"/>
+      <c r="AGR2" s="13"/>
+      <c r="AGS2" s="13"/>
+      <c r="AGT2" s="13"/>
+      <c r="AGU2" s="13"/>
+      <c r="AGV2" s="13"/>
+      <c r="AGW2" s="13"/>
+      <c r="AGX2" s="13"/>
+      <c r="AGY2" s="13"/>
+      <c r="AGZ2" s="13"/>
+      <c r="AHA2" s="13"/>
+      <c r="AHB2" s="13"/>
+      <c r="AHC2" s="13"/>
+      <c r="AHD2" s="13"/>
+      <c r="AHE2" s="13"/>
+      <c r="AHF2" s="13"/>
+      <c r="AHG2" s="13"/>
+      <c r="AHH2" s="13"/>
+      <c r="AHI2" s="13"/>
+      <c r="AHJ2" s="13"/>
+      <c r="AHK2" s="13"/>
+      <c r="AHL2" s="13"/>
+      <c r="AHM2" s="13"/>
+      <c r="AHN2" s="13"/>
+      <c r="AHO2" s="13"/>
+      <c r="AHP2" s="13"/>
+      <c r="AHQ2" s="13"/>
+      <c r="AHR2" s="13"/>
+      <c r="AHS2" s="13"/>
+      <c r="AHT2" s="13"/>
+      <c r="AHU2" s="13"/>
+      <c r="AHV2" s="13"/>
+      <c r="AHW2" s="13"/>
+      <c r="AHX2" s="13"/>
+      <c r="AHY2" s="13"/>
+      <c r="AHZ2" s="13"/>
+      <c r="AIA2" s="13"/>
+      <c r="AIB2" s="13"/>
+      <c r="AIC2" s="13"/>
+      <c r="AID2" s="13"/>
+      <c r="AIE2" s="13"/>
+      <c r="AIF2" s="13"/>
+      <c r="AIG2" s="13"/>
+      <c r="AIH2" s="13"/>
+      <c r="AII2" s="13"/>
+      <c r="AIJ2" s="13"/>
+      <c r="AIK2" s="13"/>
+      <c r="AIL2" s="13"/>
+      <c r="AIM2" s="13"/>
+      <c r="AIN2" s="13"/>
+      <c r="AIO2" s="13"/>
+      <c r="AIP2" s="13"/>
+      <c r="AIQ2" s="13"/>
+      <c r="AIR2" s="13"/>
+      <c r="AIS2" s="13"/>
+      <c r="AIT2" s="13"/>
+      <c r="AIU2" s="13"/>
+      <c r="AIV2" s="13"/>
+      <c r="AIW2" s="13"/>
+      <c r="AIX2" s="13"/>
+      <c r="AIY2" s="13"/>
+      <c r="AIZ2" s="13"/>
+      <c r="AJA2" s="13"/>
+      <c r="AJB2" s="13"/>
+      <c r="AJC2" s="13"/>
+      <c r="AJD2" s="13"/>
+      <c r="AJE2" s="13"/>
+      <c r="AJF2" s="13"/>
+      <c r="AJG2" s="13"/>
+      <c r="AJH2" s="13"/>
+      <c r="AJI2" s="13"/>
+      <c r="AJJ2" s="13"/>
+      <c r="AJK2" s="13"/>
+      <c r="AJL2" s="13"/>
+      <c r="AJM2" s="13"/>
+      <c r="AJN2" s="13"/>
+      <c r="AJO2" s="13"/>
+      <c r="AJP2" s="13"/>
+      <c r="AJQ2" s="13"/>
+      <c r="AJR2" s="13"/>
+      <c r="AJS2" s="13"/>
+      <c r="AJT2" s="13"/>
+      <c r="AJU2" s="13"/>
+      <c r="AJV2" s="13"/>
+      <c r="AJW2" s="13"/>
+      <c r="AJX2" s="13"/>
+      <c r="AJY2" s="13"/>
+      <c r="AJZ2" s="13"/>
+      <c r="AKA2" s="13"/>
+      <c r="AKB2" s="13"/>
+      <c r="AKC2" s="13"/>
+      <c r="AKD2" s="13"/>
+      <c r="AKE2" s="13"/>
+      <c r="AKF2" s="13"/>
+      <c r="AKG2" s="13"/>
+      <c r="AKH2" s="13"/>
+      <c r="AKI2" s="13"/>
+      <c r="AKJ2" s="13"/>
+      <c r="AKK2" s="13"/>
+      <c r="AKL2" s="13"/>
+      <c r="AKM2" s="13"/>
+      <c r="AKN2" s="13"/>
+      <c r="AKO2" s="13"/>
+      <c r="AKP2" s="13"/>
+      <c r="AKQ2" s="13"/>
+      <c r="AKR2" s="13"/>
+      <c r="AKS2" s="13"/>
+      <c r="AKT2" s="13"/>
+      <c r="AKU2" s="13"/>
+      <c r="AKV2" s="13"/>
+      <c r="AKW2" s="13"/>
+      <c r="AKX2" s="13"/>
+      <c r="AKY2" s="13"/>
+      <c r="AKZ2" s="13"/>
+      <c r="ALA2" s="13"/>
+      <c r="ALB2" s="13"/>
+      <c r="ALC2" s="13"/>
+      <c r="ALD2" s="13"/>
+      <c r="ALE2" s="13"/>
+      <c r="ALF2" s="13"/>
+      <c r="ALG2" s="13"/>
+      <c r="ALH2" s="13"/>
+      <c r="ALI2" s="13"/>
+      <c r="ALJ2" s="13"/>
+      <c r="ALK2" s="13"/>
+      <c r="ALL2" s="13"/>
+      <c r="ALM2" s="13"/>
+      <c r="ALN2" s="13"/>
+      <c r="ALO2" s="13"/>
+      <c r="ALP2" s="13"/>
+      <c r="ALQ2" s="13"/>
+      <c r="ALR2" s="13"/>
+      <c r="ALS2" s="13"/>
+      <c r="ALT2" s="13"/>
+      <c r="ALU2" s="13"/>
+      <c r="ALV2" s="13"/>
+      <c r="ALW2" s="13"/>
+      <c r="ALX2" s="13"/>
+      <c r="ALY2" s="13"/>
+      <c r="ALZ2" s="13"/>
+      <c r="AMA2" s="13"/>
+      <c r="AMB2" s="13"/>
+      <c r="AMC2" s="13"/>
+      <c r="AMD2" s="13"/>
+      <c r="AME2" s="13"/>
+      <c r="AMF2" s="13"/>
+      <c r="AMG2" s="13"/>
+      <c r="AMH2" s="13"/>
+      <c r="AMI2" s="13"/>
+      <c r="AMJ2" s="13"/>
+      <c r="AMK2" s="13"/>
+      <c r="AML2" s="13"/>
+      <c r="AMM2" s="13"/>
+      <c r="AMN2" s="13"/>
+      <c r="AMO2" s="13"/>
+      <c r="AMP2" s="13"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -36246,11 +36265,11 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -36269,7 +36288,7 @@
       <c r="H3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>4.58e-17</v>
       </c>
       <c r="J3" s="1">
@@ -36360,34 +36379,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>29</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>29</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -36438,7 +36457,7 @@
         <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -36458,7 +36477,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -36467,12 +36486,12 @@
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>81</v>
@@ -36481,7 +36500,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -36529,16 +36548,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -36558,10 +36577,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
@@ -36570,15 +36589,15 @@
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>
@@ -36587,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="160">
   <si>
     <t>Table</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Initial density</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -381,7 +378,7 @@
     <t>c / density_c</t>
   </si>
   <si>
-    <t>Flux</t>
+    <t>Flux bounds</t>
   </si>
   <si>
     <t>Submodel</t>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>Standard error</t>
@@ -587,10 +587,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -644,9 +644,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,6 +656,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -664,8 +664,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,113 +787,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,37 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,73 +874,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,19 +904,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,19 +934,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,35 +1008,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,17 +1058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1105,141 +1072,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,9 +1278,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1289,6 +1286,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1972,7 +1972,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>60</v>
@@ -2030,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2082,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:N2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -2096,22 +2096,22 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -2121,22 +2121,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
@@ -2159,20 +2159,20 @@
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2221,16 +2221,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>60</v>
@@ -2253,19 +2253,19 @@
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2281,69 +2281,60 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:L2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="4:5">
-      <c r="D1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2376,13 +2367,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -2437,13 +2428,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>60</v>
@@ -2506,10 +2497,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>112</v>
@@ -2552,7 +2543,7 @@
         <v>0.3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" customHeight="1" spans="1:6">
@@ -2582,7 +2573,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
@@ -2639,7 +2630,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
@@ -2718,7 +2709,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>112</v>
@@ -2727,7 +2718,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -2909,7 +2900,7 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2939,7 +2930,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>112</v>
@@ -2948,7 +2939,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -3056,7 +3047,7 @@
         <v>135</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>136</v>
@@ -3190,7 +3181,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>152</v>
@@ -3442,1052 +3433,1052 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="M4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1033" width="8.575" style="1"/>
-    <col min="1034" max="16384" width="9" style="1"/>
+    <col min="1" max="1035" width="8.575" style="1"/>
+    <col min="1036" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="12" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13"/>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
-      <c r="GM1" s="13"/>
-      <c r="GN1" s="13"/>
-      <c r="GO1" s="13"/>
-      <c r="GP1" s="13"/>
-      <c r="GQ1" s="13"/>
-      <c r="GR1" s="13"/>
-      <c r="GS1" s="13"/>
-      <c r="GT1" s="13"/>
-      <c r="GU1" s="13"/>
-      <c r="GV1" s="13"/>
-      <c r="GW1" s="13"/>
-      <c r="GX1" s="13"/>
-      <c r="GY1" s="13"/>
-      <c r="GZ1" s="13"/>
-      <c r="HA1" s="13"/>
-      <c r="HB1" s="13"/>
-      <c r="HC1" s="13"/>
-      <c r="HD1" s="13"/>
-      <c r="HE1" s="13"/>
-      <c r="HF1" s="13"/>
-      <c r="HG1" s="13"/>
-      <c r="HH1" s="13"/>
-      <c r="HI1" s="13"/>
-      <c r="HJ1" s="13"/>
-      <c r="HK1" s="13"/>
-      <c r="HL1" s="13"/>
-      <c r="HM1" s="13"/>
-      <c r="HN1" s="13"/>
-      <c r="HO1" s="13"/>
-      <c r="HP1" s="13"/>
-      <c r="HQ1" s="13"/>
-      <c r="HR1" s="13"/>
-      <c r="HS1" s="13"/>
-      <c r="HT1" s="13"/>
-      <c r="HU1" s="13"/>
-      <c r="HV1" s="13"/>
-      <c r="HW1" s="13"/>
-      <c r="HX1" s="13"/>
-      <c r="HY1" s="13"/>
-      <c r="HZ1" s="13"/>
-      <c r="IA1" s="13"/>
-      <c r="IB1" s="13"/>
-      <c r="IC1" s="13"/>
-      <c r="ID1" s="13"/>
-      <c r="IE1" s="13"/>
-      <c r="IF1" s="13"/>
-      <c r="IG1" s="13"/>
-      <c r="IH1" s="13"/>
-      <c r="II1" s="13"/>
-      <c r="IJ1" s="13"/>
-      <c r="IK1" s="13"/>
-      <c r="IL1" s="13"/>
-      <c r="IM1" s="13"/>
-      <c r="IN1" s="13"/>
-      <c r="IO1" s="13"/>
-      <c r="IP1" s="13"/>
-      <c r="IQ1" s="13"/>
-      <c r="IR1" s="13"/>
-      <c r="IS1" s="13"/>
-      <c r="IT1" s="13"/>
-      <c r="IU1" s="13"/>
-      <c r="IV1" s="13"/>
-      <c r="IW1" s="13"/>
-      <c r="IX1" s="13"/>
-      <c r="IY1" s="13"/>
-      <c r="IZ1" s="13"/>
-      <c r="JA1" s="13"/>
-      <c r="JB1" s="13"/>
-      <c r="JC1" s="13"/>
-      <c r="JD1" s="13"/>
-      <c r="JE1" s="13"/>
-      <c r="JF1" s="13"/>
-      <c r="JG1" s="13"/>
-      <c r="JH1" s="13"/>
-      <c r="JI1" s="13"/>
-      <c r="JJ1" s="13"/>
-      <c r="JK1" s="13"/>
-      <c r="JL1" s="13"/>
-      <c r="JM1" s="13"/>
-      <c r="JN1" s="13"/>
-      <c r="JO1" s="13"/>
-      <c r="JP1" s="13"/>
-      <c r="JQ1" s="13"/>
-      <c r="JR1" s="13"/>
-      <c r="JS1" s="13"/>
-      <c r="JT1" s="13"/>
-      <c r="JU1" s="13"/>
-      <c r="JV1" s="13"/>
-      <c r="JW1" s="13"/>
-      <c r="JX1" s="13"/>
-      <c r="JY1" s="13"/>
-      <c r="JZ1" s="13"/>
-      <c r="KA1" s="13"/>
-      <c r="KB1" s="13"/>
-      <c r="KC1" s="13"/>
-      <c r="KD1" s="13"/>
-      <c r="KE1" s="13"/>
-      <c r="KF1" s="13"/>
-      <c r="KG1" s="13"/>
-      <c r="KH1" s="13"/>
-      <c r="KI1" s="13"/>
-      <c r="KJ1" s="13"/>
-      <c r="KK1" s="13"/>
-      <c r="KL1" s="13"/>
-      <c r="KM1" s="13"/>
-      <c r="KN1" s="13"/>
-      <c r="KO1" s="13"/>
-      <c r="KP1" s="13"/>
-      <c r="KQ1" s="13"/>
-      <c r="KR1" s="13"/>
-      <c r="KS1" s="13"/>
-      <c r="KT1" s="13"/>
-      <c r="KU1" s="13"/>
-      <c r="KV1" s="13"/>
-      <c r="KW1" s="13"/>
-      <c r="KX1" s="13"/>
-      <c r="KY1" s="13"/>
-      <c r="KZ1" s="13"/>
-      <c r="LA1" s="13"/>
-      <c r="LB1" s="13"/>
-      <c r="LC1" s="13"/>
-      <c r="LD1" s="13"/>
-      <c r="LE1" s="13"/>
-      <c r="LF1" s="13"/>
-      <c r="LG1" s="13"/>
-      <c r="LH1" s="13"/>
-      <c r="LI1" s="13"/>
-      <c r="LJ1" s="13"/>
-      <c r="LK1" s="13"/>
-      <c r="LL1" s="13"/>
-      <c r="LM1" s="13"/>
-      <c r="LN1" s="13"/>
-      <c r="LO1" s="13"/>
-      <c r="LP1" s="13"/>
-      <c r="LQ1" s="13"/>
-      <c r="LR1" s="13"/>
-      <c r="LS1" s="13"/>
-      <c r="LT1" s="13"/>
-      <c r="LU1" s="13"/>
-      <c r="LV1" s="13"/>
-      <c r="LW1" s="13"/>
-      <c r="LX1" s="13"/>
-      <c r="LY1" s="13"/>
-      <c r="LZ1" s="13"/>
-      <c r="MA1" s="13"/>
-      <c r="MB1" s="13"/>
-      <c r="MC1" s="13"/>
-      <c r="MD1" s="13"/>
-      <c r="ME1" s="13"/>
-      <c r="MF1" s="13"/>
-      <c r="MG1" s="13"/>
-      <c r="MH1" s="13"/>
-      <c r="MI1" s="13"/>
-      <c r="MJ1" s="13"/>
-      <c r="MK1" s="13"/>
-      <c r="ML1" s="13"/>
-      <c r="MM1" s="13"/>
-      <c r="MN1" s="13"/>
-      <c r="MO1" s="13"/>
-      <c r="MP1" s="13"/>
-      <c r="MQ1" s="13"/>
-      <c r="MR1" s="13"/>
-      <c r="MS1" s="13"/>
-      <c r="MT1" s="13"/>
-      <c r="MU1" s="13"/>
-      <c r="MV1" s="13"/>
-      <c r="MW1" s="13"/>
-      <c r="MX1" s="13"/>
-      <c r="MY1" s="13"/>
-      <c r="MZ1" s="13"/>
-      <c r="NA1" s="13"/>
-      <c r="NB1" s="13"/>
-      <c r="NC1" s="13"/>
-      <c r="ND1" s="13"/>
-      <c r="NE1" s="13"/>
-      <c r="NF1" s="13"/>
-      <c r="NG1" s="13"/>
-      <c r="NH1" s="13"/>
-      <c r="NI1" s="13"/>
-      <c r="NJ1" s="13"/>
-      <c r="NK1" s="13"/>
-      <c r="NL1" s="13"/>
-      <c r="NM1" s="13"/>
-      <c r="NN1" s="13"/>
-      <c r="NO1" s="13"/>
-      <c r="NP1" s="13"/>
-      <c r="NQ1" s="13"/>
-      <c r="NR1" s="13"/>
-      <c r="NS1" s="13"/>
-      <c r="NT1" s="13"/>
-      <c r="NU1" s="13"/>
-      <c r="NV1" s="13"/>
-      <c r="NW1" s="13"/>
-      <c r="NX1" s="13"/>
-      <c r="NY1" s="13"/>
-      <c r="NZ1" s="13"/>
-      <c r="OA1" s="13"/>
-      <c r="OB1" s="13"/>
-      <c r="OC1" s="13"/>
-      <c r="OD1" s="13"/>
-      <c r="OE1" s="13"/>
-      <c r="OF1" s="13"/>
-      <c r="OG1" s="13"/>
-      <c r="OH1" s="13"/>
-      <c r="OI1" s="13"/>
-      <c r="OJ1" s="13"/>
-      <c r="OK1" s="13"/>
-      <c r="OL1" s="13"/>
-      <c r="OM1" s="13"/>
-      <c r="ON1" s="13"/>
-      <c r="OO1" s="13"/>
-      <c r="OP1" s="13"/>
-      <c r="OQ1" s="13"/>
-      <c r="OR1" s="13"/>
-      <c r="OS1" s="13"/>
-      <c r="OT1" s="13"/>
-      <c r="OU1" s="13"/>
-      <c r="OV1" s="13"/>
-      <c r="OW1" s="13"/>
-      <c r="OX1" s="13"/>
-      <c r="OY1" s="13"/>
-      <c r="OZ1" s="13"/>
-      <c r="PA1" s="13"/>
-      <c r="PB1" s="13"/>
-      <c r="PC1" s="13"/>
-      <c r="PD1" s="13"/>
-      <c r="PE1" s="13"/>
-      <c r="PF1" s="13"/>
-      <c r="PG1" s="13"/>
-      <c r="PH1" s="13"/>
-      <c r="PI1" s="13"/>
-      <c r="PJ1" s="13"/>
-      <c r="PK1" s="13"/>
-      <c r="PL1" s="13"/>
-      <c r="PM1" s="13"/>
-      <c r="PN1" s="13"/>
-      <c r="PO1" s="13"/>
-      <c r="PP1" s="13"/>
-      <c r="PQ1" s="13"/>
-      <c r="PR1" s="13"/>
-      <c r="PS1" s="13"/>
-      <c r="PT1" s="13"/>
-      <c r="PU1" s="13"/>
-      <c r="PV1" s="13"/>
-      <c r="PW1" s="13"/>
-      <c r="PX1" s="13"/>
-      <c r="PY1" s="13"/>
-      <c r="PZ1" s="13"/>
-      <c r="QA1" s="13"/>
-      <c r="QB1" s="13"/>
-      <c r="QC1" s="13"/>
-      <c r="QD1" s="13"/>
-      <c r="QE1" s="13"/>
-      <c r="QF1" s="13"/>
-      <c r="QG1" s="13"/>
-      <c r="QH1" s="13"/>
-      <c r="QI1" s="13"/>
-      <c r="QJ1" s="13"/>
-      <c r="QK1" s="13"/>
-      <c r="QL1" s="13"/>
-      <c r="QM1" s="13"/>
-      <c r="QN1" s="13"/>
-      <c r="QO1" s="13"/>
-      <c r="QP1" s="13"/>
-      <c r="QQ1" s="13"/>
-      <c r="QR1" s="13"/>
-      <c r="QS1" s="13"/>
-      <c r="QT1" s="13"/>
-      <c r="QU1" s="13"/>
-      <c r="QV1" s="13"/>
-      <c r="QW1" s="13"/>
-      <c r="QX1" s="13"/>
-      <c r="QY1" s="13"/>
-      <c r="QZ1" s="13"/>
-      <c r="RA1" s="13"/>
-      <c r="RB1" s="13"/>
-      <c r="RC1" s="13"/>
-      <c r="RD1" s="13"/>
-      <c r="RE1" s="13"/>
-      <c r="RF1" s="13"/>
-      <c r="RG1" s="13"/>
-      <c r="RH1" s="13"/>
-      <c r="RI1" s="13"/>
-      <c r="RJ1" s="13"/>
-      <c r="RK1" s="13"/>
-      <c r="RL1" s="13"/>
-      <c r="RM1" s="13"/>
-      <c r="RN1" s="13"/>
-      <c r="RO1" s="13"/>
-      <c r="RP1" s="13"/>
-      <c r="RQ1" s="13"/>
-      <c r="RR1" s="13"/>
-      <c r="RS1" s="13"/>
-      <c r="RT1" s="13"/>
-      <c r="RU1" s="13"/>
-      <c r="RV1" s="13"/>
-      <c r="RW1" s="13"/>
-      <c r="RX1" s="13"/>
-      <c r="RY1" s="13"/>
-      <c r="RZ1" s="13"/>
-      <c r="SA1" s="13"/>
-      <c r="SB1" s="13"/>
-      <c r="SC1" s="13"/>
-      <c r="SD1" s="13"/>
-      <c r="SE1" s="13"/>
-      <c r="SF1" s="13"/>
-      <c r="SG1" s="13"/>
-      <c r="SH1" s="13"/>
-      <c r="SI1" s="13"/>
-      <c r="SJ1" s="13"/>
-      <c r="SK1" s="13"/>
-      <c r="SL1" s="13"/>
-      <c r="SM1" s="13"/>
-      <c r="SN1" s="13"/>
-      <c r="SO1" s="13"/>
-      <c r="SP1" s="13"/>
-      <c r="SQ1" s="13"/>
-      <c r="SR1" s="13"/>
-      <c r="SS1" s="13"/>
-      <c r="ST1" s="13"/>
-      <c r="SU1" s="13"/>
-      <c r="SV1" s="13"/>
-      <c r="SW1" s="13"/>
-      <c r="SX1" s="13"/>
-      <c r="SY1" s="13"/>
-      <c r="SZ1" s="13"/>
-      <c r="TA1" s="13"/>
-      <c r="TB1" s="13"/>
-      <c r="TC1" s="13"/>
-      <c r="TD1" s="13"/>
-      <c r="TE1" s="13"/>
-      <c r="TF1" s="13"/>
-      <c r="TG1" s="13"/>
-      <c r="TH1" s="13"/>
-      <c r="TI1" s="13"/>
-      <c r="TJ1" s="13"/>
-      <c r="TK1" s="13"/>
-      <c r="TL1" s="13"/>
-      <c r="TM1" s="13"/>
-      <c r="TN1" s="13"/>
-      <c r="TO1" s="13"/>
-      <c r="TP1" s="13"/>
-      <c r="TQ1" s="13"/>
-      <c r="TR1" s="13"/>
-      <c r="TS1" s="13"/>
-      <c r="TT1" s="13"/>
-      <c r="TU1" s="13"/>
-      <c r="TV1" s="13"/>
-      <c r="TW1" s="13"/>
-      <c r="TX1" s="13"/>
-      <c r="TY1" s="13"/>
-      <c r="TZ1" s="13"/>
-      <c r="UA1" s="13"/>
-      <c r="UB1" s="13"/>
-      <c r="UC1" s="13"/>
-      <c r="UD1" s="13"/>
-      <c r="UE1" s="13"/>
-      <c r="UF1" s="13"/>
-      <c r="UG1" s="13"/>
-      <c r="UH1" s="13"/>
-      <c r="UI1" s="13"/>
-      <c r="UJ1" s="13"/>
-      <c r="UK1" s="13"/>
-      <c r="UL1" s="13"/>
-      <c r="UM1" s="13"/>
-      <c r="UN1" s="13"/>
-      <c r="UO1" s="13"/>
-      <c r="UP1" s="13"/>
-      <c r="UQ1" s="13"/>
-      <c r="UR1" s="13"/>
-      <c r="US1" s="13"/>
-      <c r="UT1" s="13"/>
-      <c r="UU1" s="13"/>
-      <c r="UV1" s="13"/>
-      <c r="UW1" s="13"/>
-      <c r="UX1" s="13"/>
-      <c r="UY1" s="13"/>
-      <c r="UZ1" s="13"/>
-      <c r="VA1" s="13"/>
-      <c r="VB1" s="13"/>
-      <c r="VC1" s="13"/>
-      <c r="VD1" s="13"/>
-      <c r="VE1" s="13"/>
-      <c r="VF1" s="13"/>
-      <c r="VG1" s="13"/>
-      <c r="VH1" s="13"/>
-      <c r="VI1" s="13"/>
-      <c r="VJ1" s="13"/>
-      <c r="VK1" s="13"/>
-      <c r="VL1" s="13"/>
-      <c r="VM1" s="13"/>
-      <c r="VN1" s="13"/>
-      <c r="VO1" s="13"/>
-      <c r="VP1" s="13"/>
-      <c r="VQ1" s="13"/>
-      <c r="VR1" s="13"/>
-      <c r="VS1" s="13"/>
-      <c r="VT1" s="13"/>
-      <c r="VU1" s="13"/>
-      <c r="VV1" s="13"/>
-      <c r="VW1" s="13"/>
-      <c r="VX1" s="13"/>
-      <c r="VY1" s="13"/>
-      <c r="VZ1" s="13"/>
-      <c r="WA1" s="13"/>
-      <c r="WB1" s="13"/>
-      <c r="WC1" s="13"/>
-      <c r="WD1" s="13"/>
-      <c r="WE1" s="13"/>
-      <c r="WF1" s="13"/>
-      <c r="WG1" s="13"/>
-      <c r="WH1" s="13"/>
-      <c r="WI1" s="13"/>
-      <c r="WJ1" s="13"/>
-      <c r="WK1" s="13"/>
-      <c r="WL1" s="13"/>
-      <c r="WM1" s="13"/>
-      <c r="WN1" s="13"/>
-      <c r="WO1" s="13"/>
-      <c r="WP1" s="13"/>
-      <c r="WQ1" s="13"/>
-      <c r="WR1" s="13"/>
-      <c r="WS1" s="13"/>
-      <c r="WT1" s="13"/>
-      <c r="WU1" s="13"/>
-      <c r="WV1" s="13"/>
-      <c r="WW1" s="13"/>
-      <c r="WX1" s="13"/>
-      <c r="WY1" s="13"/>
-      <c r="WZ1" s="13"/>
-      <c r="XA1" s="13"/>
-      <c r="XB1" s="13"/>
-      <c r="XC1" s="13"/>
-      <c r="XD1" s="13"/>
-      <c r="XE1" s="13"/>
-      <c r="XF1" s="13"/>
-      <c r="XG1" s="13"/>
-      <c r="XH1" s="13"/>
-      <c r="XI1" s="13"/>
-      <c r="XJ1" s="13"/>
-      <c r="XK1" s="13"/>
-      <c r="XL1" s="13"/>
-      <c r="XM1" s="13"/>
-      <c r="XN1" s="13"/>
-      <c r="XO1" s="13"/>
-      <c r="XP1" s="13"/>
-      <c r="XQ1" s="13"/>
-      <c r="XR1" s="13"/>
-      <c r="XS1" s="13"/>
-      <c r="XT1" s="13"/>
-      <c r="XU1" s="13"/>
-      <c r="XV1" s="13"/>
-      <c r="XW1" s="13"/>
-      <c r="XX1" s="13"/>
-      <c r="XY1" s="13"/>
-      <c r="XZ1" s="13"/>
-      <c r="YA1" s="13"/>
-      <c r="YB1" s="13"/>
-      <c r="YC1" s="13"/>
-      <c r="YD1" s="13"/>
-      <c r="YE1" s="13"/>
-      <c r="YF1" s="13"/>
-      <c r="YG1" s="13"/>
-      <c r="YH1" s="13"/>
-      <c r="YI1" s="13"/>
-      <c r="YJ1" s="13"/>
-      <c r="YK1" s="13"/>
-      <c r="YL1" s="13"/>
-      <c r="YM1" s="13"/>
-      <c r="YN1" s="13"/>
-      <c r="YO1" s="13"/>
-      <c r="YP1" s="13"/>
-      <c r="YQ1" s="13"/>
-      <c r="YR1" s="13"/>
-      <c r="YS1" s="13"/>
-      <c r="YT1" s="13"/>
-      <c r="YU1" s="13"/>
-      <c r="YV1" s="13"/>
-      <c r="YW1" s="13"/>
-      <c r="YX1" s="13"/>
-      <c r="YY1" s="13"/>
-      <c r="YZ1" s="13"/>
-      <c r="ZA1" s="13"/>
-      <c r="ZB1" s="13"/>
-      <c r="ZC1" s="13"/>
-      <c r="ZD1" s="13"/>
-      <c r="ZE1" s="13"/>
-      <c r="ZF1" s="13"/>
-      <c r="ZG1" s="13"/>
-      <c r="ZH1" s="13"/>
-      <c r="ZI1" s="13"/>
-      <c r="ZJ1" s="13"/>
-      <c r="ZK1" s="13"/>
-      <c r="ZL1" s="13"/>
-      <c r="ZM1" s="13"/>
-      <c r="ZN1" s="13"/>
-      <c r="ZO1" s="13"/>
-      <c r="ZP1" s="13"/>
-      <c r="ZQ1" s="13"/>
-      <c r="ZR1" s="13"/>
-      <c r="ZS1" s="13"/>
-      <c r="ZT1" s="13"/>
-      <c r="ZU1" s="13"/>
-      <c r="ZV1" s="13"/>
-      <c r="ZW1" s="13"/>
-      <c r="ZX1" s="13"/>
-      <c r="ZY1" s="13"/>
-      <c r="ZZ1" s="13"/>
-      <c r="AAA1" s="13"/>
-      <c r="AAB1" s="13"/>
-      <c r="AAC1" s="13"/>
-      <c r="AAD1" s="13"/>
-      <c r="AAE1" s="13"/>
-      <c r="AAF1" s="13"/>
-      <c r="AAG1" s="13"/>
-      <c r="AAH1" s="13"/>
-      <c r="AAI1" s="13"/>
-      <c r="AAJ1" s="13"/>
-      <c r="AAK1" s="13"/>
-      <c r="AAL1" s="13"/>
-      <c r="AAM1" s="13"/>
-      <c r="AAN1" s="13"/>
-      <c r="AAO1" s="13"/>
-      <c r="AAP1" s="13"/>
-      <c r="AAQ1" s="13"/>
-      <c r="AAR1" s="13"/>
-      <c r="AAS1" s="13"/>
-      <c r="AAT1" s="13"/>
-      <c r="AAU1" s="13"/>
-      <c r="AAV1" s="13"/>
-      <c r="AAW1" s="13"/>
-      <c r="AAX1" s="13"/>
-      <c r="AAY1" s="13"/>
-      <c r="AAZ1" s="13"/>
-      <c r="ABA1" s="13"/>
-      <c r="ABB1" s="13"/>
-      <c r="ABC1" s="13"/>
-      <c r="ABD1" s="13"/>
-      <c r="ABE1" s="13"/>
-      <c r="ABF1" s="13"/>
-      <c r="ABG1" s="13"/>
-      <c r="ABH1" s="13"/>
-      <c r="ABI1" s="13"/>
-      <c r="ABJ1" s="13"/>
-      <c r="ABK1" s="13"/>
-      <c r="ABL1" s="13"/>
-      <c r="ABM1" s="13"/>
-      <c r="ABN1" s="13"/>
-      <c r="ABO1" s="13"/>
-      <c r="ABP1" s="13"/>
-      <c r="ABQ1" s="13"/>
-      <c r="ABR1" s="13"/>
-      <c r="ABS1" s="13"/>
-      <c r="ABT1" s="13"/>
-      <c r="ABU1" s="13"/>
-      <c r="ABV1" s="13"/>
-      <c r="ABW1" s="13"/>
-      <c r="ABX1" s="13"/>
-      <c r="ABY1" s="13"/>
-      <c r="ABZ1" s="13"/>
-      <c r="ACA1" s="13"/>
-      <c r="ACB1" s="13"/>
-      <c r="ACC1" s="13"/>
-      <c r="ACD1" s="13"/>
-      <c r="ACE1" s="13"/>
-      <c r="ACF1" s="13"/>
-      <c r="ACG1" s="13"/>
-      <c r="ACH1" s="13"/>
-      <c r="ACI1" s="13"/>
-      <c r="ACJ1" s="13"/>
-      <c r="ACK1" s="13"/>
-      <c r="ACL1" s="13"/>
-      <c r="ACM1" s="13"/>
-      <c r="ACN1" s="13"/>
-      <c r="ACO1" s="13"/>
-      <c r="ACP1" s="13"/>
-      <c r="ACQ1" s="13"/>
-      <c r="ACR1" s="13"/>
-      <c r="ACS1" s="13"/>
-      <c r="ACT1" s="13"/>
-      <c r="ACU1" s="13"/>
-      <c r="ACV1" s="13"/>
-      <c r="ACW1" s="13"/>
-      <c r="ACX1" s="13"/>
-      <c r="ACY1" s="13"/>
-      <c r="ACZ1" s="13"/>
-      <c r="ADA1" s="13"/>
-      <c r="ADB1" s="13"/>
-      <c r="ADC1" s="13"/>
-      <c r="ADD1" s="13"/>
-      <c r="ADE1" s="13"/>
-      <c r="ADF1" s="13"/>
-      <c r="ADG1" s="13"/>
-      <c r="ADH1" s="13"/>
-      <c r="ADI1" s="13"/>
-      <c r="ADJ1" s="13"/>
-      <c r="ADK1" s="13"/>
-      <c r="ADL1" s="13"/>
-      <c r="ADM1" s="13"/>
-      <c r="ADN1" s="13"/>
-      <c r="ADO1" s="13"/>
-      <c r="ADP1" s="13"/>
-      <c r="ADQ1" s="13"/>
-      <c r="ADR1" s="13"/>
-      <c r="ADS1" s="13"/>
-      <c r="ADT1" s="13"/>
-      <c r="ADU1" s="13"/>
-      <c r="ADV1" s="13"/>
-      <c r="ADW1" s="13"/>
-      <c r="ADX1" s="13"/>
-      <c r="ADY1" s="13"/>
-      <c r="ADZ1" s="13"/>
-      <c r="AEA1" s="13"/>
-      <c r="AEB1" s="13"/>
-      <c r="AEC1" s="13"/>
-      <c r="AED1" s="13"/>
-      <c r="AEE1" s="13"/>
-      <c r="AEF1" s="13"/>
-      <c r="AEG1" s="13"/>
-      <c r="AEH1" s="13"/>
-      <c r="AEI1" s="13"/>
-      <c r="AEJ1" s="13"/>
-      <c r="AEK1" s="13"/>
-      <c r="AEL1" s="13"/>
-      <c r="AEM1" s="13"/>
-      <c r="AEN1" s="13"/>
-      <c r="AEO1" s="13"/>
-      <c r="AEP1" s="13"/>
-      <c r="AEQ1" s="13"/>
-      <c r="AER1" s="13"/>
-      <c r="AES1" s="13"/>
-      <c r="AET1" s="13"/>
-      <c r="AEU1" s="13"/>
-      <c r="AEV1" s="13"/>
-      <c r="AEW1" s="13"/>
-      <c r="AEX1" s="13"/>
-      <c r="AEY1" s="13"/>
-      <c r="AEZ1" s="13"/>
-      <c r="AFA1" s="13"/>
-      <c r="AFB1" s="13"/>
-      <c r="AFC1" s="13"/>
-      <c r="AFD1" s="13"/>
-      <c r="AFE1" s="13"/>
-      <c r="AFF1" s="13"/>
-      <c r="AFG1" s="13"/>
-      <c r="AFH1" s="13"/>
-      <c r="AFI1" s="13"/>
-      <c r="AFJ1" s="13"/>
-      <c r="AFK1" s="13"/>
-      <c r="AFL1" s="13"/>
-      <c r="AFM1" s="13"/>
-      <c r="AFN1" s="13"/>
-      <c r="AFO1" s="13"/>
-      <c r="AFP1" s="13"/>
-      <c r="AFQ1" s="13"/>
-      <c r="AFR1" s="13"/>
-      <c r="AFS1" s="13"/>
-      <c r="AFT1" s="13"/>
-      <c r="AFU1" s="13"/>
-      <c r="AFV1" s="13"/>
-      <c r="AFW1" s="13"/>
-      <c r="AFX1" s="13"/>
-      <c r="AFY1" s="13"/>
-      <c r="AFZ1" s="13"/>
-      <c r="AGA1" s="13"/>
-      <c r="AGB1" s="13"/>
-      <c r="AGC1" s="13"/>
-      <c r="AGD1" s="13"/>
-      <c r="AGE1" s="13"/>
-      <c r="AGF1" s="13"/>
-      <c r="AGG1" s="13"/>
-      <c r="AGH1" s="13"/>
-      <c r="AGI1" s="13"/>
-      <c r="AGJ1" s="13"/>
-      <c r="AGK1" s="13"/>
-      <c r="AGL1" s="13"/>
-      <c r="AGM1" s="13"/>
-      <c r="AGN1" s="13"/>
-      <c r="AGO1" s="13"/>
-      <c r="AGP1" s="13"/>
-      <c r="AGQ1" s="13"/>
-      <c r="AGR1" s="13"/>
-      <c r="AGS1" s="13"/>
-      <c r="AGT1" s="13"/>
-      <c r="AGU1" s="13"/>
-      <c r="AGV1" s="13"/>
-      <c r="AGW1" s="13"/>
-      <c r="AGX1" s="13"/>
-      <c r="AGY1" s="13"/>
-      <c r="AGZ1" s="13"/>
-      <c r="AHA1" s="13"/>
-      <c r="AHB1" s="13"/>
-      <c r="AHC1" s="13"/>
-      <c r="AHD1" s="13"/>
-      <c r="AHE1" s="13"/>
-      <c r="AHF1" s="13"/>
-      <c r="AHG1" s="13"/>
-      <c r="AHH1" s="13"/>
-      <c r="AHI1" s="13"/>
-      <c r="AHJ1" s="13"/>
-      <c r="AHK1" s="13"/>
-      <c r="AHL1" s="13"/>
-      <c r="AHM1" s="13"/>
-      <c r="AHN1" s="13"/>
-      <c r="AHO1" s="13"/>
-      <c r="AHP1" s="13"/>
-      <c r="AHQ1" s="13"/>
-      <c r="AHR1" s="13"/>
-      <c r="AHS1" s="13"/>
-      <c r="AHT1" s="13"/>
-      <c r="AHU1" s="13"/>
-      <c r="AHV1" s="13"/>
-      <c r="AHW1" s="13"/>
-      <c r="AHX1" s="13"/>
-      <c r="AHY1" s="13"/>
-      <c r="AHZ1" s="13"/>
-      <c r="AIA1" s="13"/>
-      <c r="AIB1" s="13"/>
-      <c r="AIC1" s="13"/>
-      <c r="AID1" s="13"/>
-      <c r="AIE1" s="13"/>
-      <c r="AIF1" s="13"/>
-      <c r="AIG1" s="13"/>
-      <c r="AIH1" s="13"/>
-      <c r="AII1" s="13"/>
-      <c r="AIJ1" s="13"/>
-      <c r="AIK1" s="13"/>
-      <c r="AIL1" s="13"/>
-      <c r="AIM1" s="13"/>
-      <c r="AIN1" s="13"/>
-      <c r="AIO1" s="13"/>
-      <c r="AIP1" s="13"/>
-      <c r="AIQ1" s="13"/>
-      <c r="AIR1" s="13"/>
-      <c r="AIS1" s="13"/>
-      <c r="AIT1" s="13"/>
-      <c r="AIU1" s="13"/>
-      <c r="AIV1" s="13"/>
-      <c r="AIW1" s="13"/>
-      <c r="AIX1" s="13"/>
-      <c r="AIY1" s="13"/>
-      <c r="AIZ1" s="13"/>
-      <c r="AJA1" s="13"/>
-      <c r="AJB1" s="13"/>
-      <c r="AJC1" s="13"/>
-      <c r="AJD1" s="13"/>
-      <c r="AJE1" s="13"/>
-      <c r="AJF1" s="13"/>
-      <c r="AJG1" s="13"/>
-      <c r="AJH1" s="13"/>
-      <c r="AJI1" s="13"/>
-      <c r="AJJ1" s="13"/>
-      <c r="AJK1" s="13"/>
-      <c r="AJL1" s="13"/>
-      <c r="AJM1" s="13"/>
-      <c r="AJN1" s="13"/>
-      <c r="AJO1" s="13"/>
-      <c r="AJP1" s="13"/>
-      <c r="AJQ1" s="13"/>
-      <c r="AJR1" s="13"/>
-      <c r="AJS1" s="13"/>
-      <c r="AJT1" s="13"/>
-      <c r="AJU1" s="13"/>
-      <c r="AJV1" s="13"/>
-      <c r="AJW1" s="13"/>
-      <c r="AJX1" s="13"/>
-      <c r="AJY1" s="13"/>
-      <c r="AJZ1" s="13"/>
-      <c r="AKA1" s="13"/>
-      <c r="AKB1" s="13"/>
-      <c r="AKC1" s="13"/>
-      <c r="AKD1" s="13"/>
-      <c r="AKE1" s="13"/>
-      <c r="AKF1" s="13"/>
-      <c r="AKG1" s="13"/>
-      <c r="AKH1" s="13"/>
-      <c r="AKI1" s="13"/>
-      <c r="AKJ1" s="13"/>
-      <c r="AKK1" s="13"/>
-      <c r="AKL1" s="13"/>
-      <c r="AKM1" s="13"/>
-      <c r="AKN1" s="13"/>
-      <c r="AKO1" s="13"/>
-      <c r="AKP1" s="13"/>
-      <c r="AKQ1" s="13"/>
-      <c r="AKR1" s="13"/>
-      <c r="AKS1" s="13"/>
-      <c r="AKT1" s="13"/>
-      <c r="AKU1" s="13"/>
-      <c r="AKV1" s="13"/>
-      <c r="AKW1" s="13"/>
-      <c r="AKX1" s="13"/>
-      <c r="AKY1" s="13"/>
-      <c r="AKZ1" s="13"/>
-      <c r="ALA1" s="13"/>
-      <c r="ALB1" s="13"/>
-      <c r="ALC1" s="13"/>
-      <c r="ALD1" s="13"/>
-      <c r="ALE1" s="13"/>
-      <c r="ALF1" s="13"/>
-      <c r="ALG1" s="13"/>
-      <c r="ALH1" s="13"/>
-      <c r="ALI1" s="13"/>
-      <c r="ALJ1" s="13"/>
-      <c r="ALK1" s="13"/>
-      <c r="ALL1" s="13"/>
-      <c r="ALM1" s="13"/>
-      <c r="ALN1" s="13"/>
-      <c r="ALO1" s="13"/>
-      <c r="ALP1" s="13"/>
-      <c r="ALQ1" s="13"/>
-      <c r="ALR1" s="13"/>
-      <c r="ALS1" s="13"/>
-      <c r="ALT1" s="13"/>
-      <c r="ALU1" s="13"/>
-      <c r="ALV1" s="13"/>
-      <c r="ALW1" s="13"/>
-      <c r="ALX1" s="13"/>
-      <c r="ALY1" s="13"/>
-      <c r="ALZ1" s="13"/>
-      <c r="AMA1" s="13"/>
-      <c r="AMB1" s="13"/>
-      <c r="AMC1" s="13"/>
-      <c r="AMD1" s="13"/>
-      <c r="AME1" s="13"/>
-      <c r="AMF1" s="13"/>
-      <c r="AMG1" s="13"/>
-      <c r="AMH1" s="13"/>
-      <c r="AMI1" s="13"/>
-      <c r="AMJ1" s="13"/>
-      <c r="AMK1" s="13"/>
-      <c r="AML1" s="13"/>
-      <c r="AMM1" s="13"/>
-      <c r="AMN1" s="13"/>
-      <c r="AMO1" s="13"/>
-      <c r="AMP1" s="13"/>
-      <c r="AMQ1"/>
-      <c r="AMR1"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="12"/>
+      <c r="CW1" s="12"/>
+      <c r="CX1" s="12"/>
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
+      <c r="DA1" s="12"/>
+      <c r="DB1" s="12"/>
+      <c r="DC1" s="12"/>
+      <c r="DD1" s="12"/>
+      <c r="DE1" s="12"/>
+      <c r="DF1" s="12"/>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="12"/>
+      <c r="DI1" s="12"/>
+      <c r="DJ1" s="12"/>
+      <c r="DK1" s="12"/>
+      <c r="DL1" s="12"/>
+      <c r="DM1" s="12"/>
+      <c r="DN1" s="12"/>
+      <c r="DO1" s="12"/>
+      <c r="DP1" s="12"/>
+      <c r="DQ1" s="12"/>
+      <c r="DR1" s="12"/>
+      <c r="DS1" s="12"/>
+      <c r="DT1" s="12"/>
+      <c r="DU1" s="12"/>
+      <c r="DV1" s="12"/>
+      <c r="DW1" s="12"/>
+      <c r="DX1" s="12"/>
+      <c r="DY1" s="12"/>
+      <c r="DZ1" s="12"/>
+      <c r="EA1" s="12"/>
+      <c r="EB1" s="12"/>
+      <c r="EC1" s="12"/>
+      <c r="ED1" s="12"/>
+      <c r="EE1" s="12"/>
+      <c r="EF1" s="12"/>
+      <c r="EG1" s="12"/>
+      <c r="EH1" s="12"/>
+      <c r="EI1" s="12"/>
+      <c r="EJ1" s="12"/>
+      <c r="EK1" s="12"/>
+      <c r="EL1" s="12"/>
+      <c r="EM1" s="12"/>
+      <c r="EN1" s="12"/>
+      <c r="EO1" s="12"/>
+      <c r="EP1" s="12"/>
+      <c r="EQ1" s="12"/>
+      <c r="ER1" s="12"/>
+      <c r="ES1" s="12"/>
+      <c r="ET1" s="12"/>
+      <c r="EU1" s="12"/>
+      <c r="EV1" s="12"/>
+      <c r="EW1" s="12"/>
+      <c r="EX1" s="12"/>
+      <c r="EY1" s="12"/>
+      <c r="EZ1" s="12"/>
+      <c r="FA1" s="12"/>
+      <c r="FB1" s="12"/>
+      <c r="FC1" s="12"/>
+      <c r="FD1" s="12"/>
+      <c r="FE1" s="12"/>
+      <c r="FF1" s="12"/>
+      <c r="FG1" s="12"/>
+      <c r="FH1" s="12"/>
+      <c r="FI1" s="12"/>
+      <c r="FJ1" s="12"/>
+      <c r="FK1" s="12"/>
+      <c r="FL1" s="12"/>
+      <c r="FM1" s="12"/>
+      <c r="FN1" s="12"/>
+      <c r="FO1" s="12"/>
+      <c r="FP1" s="12"/>
+      <c r="FQ1" s="12"/>
+      <c r="FR1" s="12"/>
+      <c r="FS1" s="12"/>
+      <c r="FT1" s="12"/>
+      <c r="FU1" s="12"/>
+      <c r="FV1" s="12"/>
+      <c r="FW1" s="12"/>
+      <c r="FX1" s="12"/>
+      <c r="FY1" s="12"/>
+      <c r="FZ1" s="12"/>
+      <c r="GA1" s="12"/>
+      <c r="GB1" s="12"/>
+      <c r="GC1" s="12"/>
+      <c r="GD1" s="12"/>
+      <c r="GE1" s="12"/>
+      <c r="GF1" s="12"/>
+      <c r="GG1" s="12"/>
+      <c r="GH1" s="12"/>
+      <c r="GI1" s="12"/>
+      <c r="GJ1" s="12"/>
+      <c r="GK1" s="12"/>
+      <c r="GL1" s="12"/>
+      <c r="GM1" s="12"/>
+      <c r="GN1" s="12"/>
+      <c r="GO1" s="12"/>
+      <c r="GP1" s="12"/>
+      <c r="GQ1" s="12"/>
+      <c r="GR1" s="12"/>
+      <c r="GS1" s="12"/>
+      <c r="GT1" s="12"/>
+      <c r="GU1" s="12"/>
+      <c r="GV1" s="12"/>
+      <c r="GW1" s="12"/>
+      <c r="GX1" s="12"/>
+      <c r="GY1" s="12"/>
+      <c r="GZ1" s="12"/>
+      <c r="HA1" s="12"/>
+      <c r="HB1" s="12"/>
+      <c r="HC1" s="12"/>
+      <c r="HD1" s="12"/>
+      <c r="HE1" s="12"/>
+      <c r="HF1" s="12"/>
+      <c r="HG1" s="12"/>
+      <c r="HH1" s="12"/>
+      <c r="HI1" s="12"/>
+      <c r="HJ1" s="12"/>
+      <c r="HK1" s="12"/>
+      <c r="HL1" s="12"/>
+      <c r="HM1" s="12"/>
+      <c r="HN1" s="12"/>
+      <c r="HO1" s="12"/>
+      <c r="HP1" s="12"/>
+      <c r="HQ1" s="12"/>
+      <c r="HR1" s="12"/>
+      <c r="HS1" s="12"/>
+      <c r="HT1" s="12"/>
+      <c r="HU1" s="12"/>
+      <c r="HV1" s="12"/>
+      <c r="HW1" s="12"/>
+      <c r="HX1" s="12"/>
+      <c r="HY1" s="12"/>
+      <c r="HZ1" s="12"/>
+      <c r="IA1" s="12"/>
+      <c r="IB1" s="12"/>
+      <c r="IC1" s="12"/>
+      <c r="ID1" s="12"/>
+      <c r="IE1" s="12"/>
+      <c r="IF1" s="12"/>
+      <c r="IG1" s="12"/>
+      <c r="IH1" s="12"/>
+      <c r="II1" s="12"/>
+      <c r="IJ1" s="12"/>
+      <c r="IK1" s="12"/>
+      <c r="IL1" s="12"/>
+      <c r="IM1" s="12"/>
+      <c r="IN1" s="12"/>
+      <c r="IO1" s="12"/>
+      <c r="IP1" s="12"/>
+      <c r="IQ1" s="12"/>
+      <c r="IR1" s="12"/>
+      <c r="IS1" s="12"/>
+      <c r="IT1" s="12"/>
+      <c r="IU1" s="12"/>
+      <c r="IV1" s="12"/>
+      <c r="IW1" s="12"/>
+      <c r="IX1" s="12"/>
+      <c r="IY1" s="12"/>
+      <c r="IZ1" s="12"/>
+      <c r="JA1" s="12"/>
+      <c r="JB1" s="12"/>
+      <c r="JC1" s="12"/>
+      <c r="JD1" s="12"/>
+      <c r="JE1" s="12"/>
+      <c r="JF1" s="12"/>
+      <c r="JG1" s="12"/>
+      <c r="JH1" s="12"/>
+      <c r="JI1" s="12"/>
+      <c r="JJ1" s="12"/>
+      <c r="JK1" s="12"/>
+      <c r="JL1" s="12"/>
+      <c r="JM1" s="12"/>
+      <c r="JN1" s="12"/>
+      <c r="JO1" s="12"/>
+      <c r="JP1" s="12"/>
+      <c r="JQ1" s="12"/>
+      <c r="JR1" s="12"/>
+      <c r="JS1" s="12"/>
+      <c r="JT1" s="12"/>
+      <c r="JU1" s="12"/>
+      <c r="JV1" s="12"/>
+      <c r="JW1" s="12"/>
+      <c r="JX1" s="12"/>
+      <c r="JY1" s="12"/>
+      <c r="JZ1" s="12"/>
+      <c r="KA1" s="12"/>
+      <c r="KB1" s="12"/>
+      <c r="KC1" s="12"/>
+      <c r="KD1" s="12"/>
+      <c r="KE1" s="12"/>
+      <c r="KF1" s="12"/>
+      <c r="KG1" s="12"/>
+      <c r="KH1" s="12"/>
+      <c r="KI1" s="12"/>
+      <c r="KJ1" s="12"/>
+      <c r="KK1" s="12"/>
+      <c r="KL1" s="12"/>
+      <c r="KM1" s="12"/>
+      <c r="KN1" s="12"/>
+      <c r="KO1" s="12"/>
+      <c r="KP1" s="12"/>
+      <c r="KQ1" s="12"/>
+      <c r="KR1" s="12"/>
+      <c r="KS1" s="12"/>
+      <c r="KT1" s="12"/>
+      <c r="KU1" s="12"/>
+      <c r="KV1" s="12"/>
+      <c r="KW1" s="12"/>
+      <c r="KX1" s="12"/>
+      <c r="KY1" s="12"/>
+      <c r="KZ1" s="12"/>
+      <c r="LA1" s="12"/>
+      <c r="LB1" s="12"/>
+      <c r="LC1" s="12"/>
+      <c r="LD1" s="12"/>
+      <c r="LE1" s="12"/>
+      <c r="LF1" s="12"/>
+      <c r="LG1" s="12"/>
+      <c r="LH1" s="12"/>
+      <c r="LI1" s="12"/>
+      <c r="LJ1" s="12"/>
+      <c r="LK1" s="12"/>
+      <c r="LL1" s="12"/>
+      <c r="LM1" s="12"/>
+      <c r="LN1" s="12"/>
+      <c r="LO1" s="12"/>
+      <c r="LP1" s="12"/>
+      <c r="LQ1" s="12"/>
+      <c r="LR1" s="12"/>
+      <c r="LS1" s="12"/>
+      <c r="LT1" s="12"/>
+      <c r="LU1" s="12"/>
+      <c r="LV1" s="12"/>
+      <c r="LW1" s="12"/>
+      <c r="LX1" s="12"/>
+      <c r="LY1" s="12"/>
+      <c r="LZ1" s="12"/>
+      <c r="MA1" s="12"/>
+      <c r="MB1" s="12"/>
+      <c r="MC1" s="12"/>
+      <c r="MD1" s="12"/>
+      <c r="ME1" s="12"/>
+      <c r="MF1" s="12"/>
+      <c r="MG1" s="12"/>
+      <c r="MH1" s="12"/>
+      <c r="MI1" s="12"/>
+      <c r="MJ1" s="12"/>
+      <c r="MK1" s="12"/>
+      <c r="ML1" s="12"/>
+      <c r="MM1" s="12"/>
+      <c r="MN1" s="12"/>
+      <c r="MO1" s="12"/>
+      <c r="MP1" s="12"/>
+      <c r="MQ1" s="12"/>
+      <c r="MR1" s="12"/>
+      <c r="MS1" s="12"/>
+      <c r="MT1" s="12"/>
+      <c r="MU1" s="12"/>
+      <c r="MV1" s="12"/>
+      <c r="MW1" s="12"/>
+      <c r="MX1" s="12"/>
+      <c r="MY1" s="12"/>
+      <c r="MZ1" s="12"/>
+      <c r="NA1" s="12"/>
+      <c r="NB1" s="12"/>
+      <c r="NC1" s="12"/>
+      <c r="ND1" s="12"/>
+      <c r="NE1" s="12"/>
+      <c r="NF1" s="12"/>
+      <c r="NG1" s="12"/>
+      <c r="NH1" s="12"/>
+      <c r="NI1" s="12"/>
+      <c r="NJ1" s="12"/>
+      <c r="NK1" s="12"/>
+      <c r="NL1" s="12"/>
+      <c r="NM1" s="12"/>
+      <c r="NN1" s="12"/>
+      <c r="NO1" s="12"/>
+      <c r="NP1" s="12"/>
+      <c r="NQ1" s="12"/>
+      <c r="NR1" s="12"/>
+      <c r="NS1" s="12"/>
+      <c r="NT1" s="12"/>
+      <c r="NU1" s="12"/>
+      <c r="NV1" s="12"/>
+      <c r="NW1" s="12"/>
+      <c r="NX1" s="12"/>
+      <c r="NY1" s="12"/>
+      <c r="NZ1" s="12"/>
+      <c r="OA1" s="12"/>
+      <c r="OB1" s="12"/>
+      <c r="OC1" s="12"/>
+      <c r="OD1" s="12"/>
+      <c r="OE1" s="12"/>
+      <c r="OF1" s="12"/>
+      <c r="OG1" s="12"/>
+      <c r="OH1" s="12"/>
+      <c r="OI1" s="12"/>
+      <c r="OJ1" s="12"/>
+      <c r="OK1" s="12"/>
+      <c r="OL1" s="12"/>
+      <c r="OM1" s="12"/>
+      <c r="ON1" s="12"/>
+      <c r="OO1" s="12"/>
+      <c r="OP1" s="12"/>
+      <c r="OQ1" s="12"/>
+      <c r="OR1" s="12"/>
+      <c r="OS1" s="12"/>
+      <c r="OT1" s="12"/>
+      <c r="OU1" s="12"/>
+      <c r="OV1" s="12"/>
+      <c r="OW1" s="12"/>
+      <c r="OX1" s="12"/>
+      <c r="OY1" s="12"/>
+      <c r="OZ1" s="12"/>
+      <c r="PA1" s="12"/>
+      <c r="PB1" s="12"/>
+      <c r="PC1" s="12"/>
+      <c r="PD1" s="12"/>
+      <c r="PE1" s="12"/>
+      <c r="PF1" s="12"/>
+      <c r="PG1" s="12"/>
+      <c r="PH1" s="12"/>
+      <c r="PI1" s="12"/>
+      <c r="PJ1" s="12"/>
+      <c r="PK1" s="12"/>
+      <c r="PL1" s="12"/>
+      <c r="PM1" s="12"/>
+      <c r="PN1" s="12"/>
+      <c r="PO1" s="12"/>
+      <c r="PP1" s="12"/>
+      <c r="PQ1" s="12"/>
+      <c r="PR1" s="12"/>
+      <c r="PS1" s="12"/>
+      <c r="PT1" s="12"/>
+      <c r="PU1" s="12"/>
+      <c r="PV1" s="12"/>
+      <c r="PW1" s="12"/>
+      <c r="PX1" s="12"/>
+      <c r="PY1" s="12"/>
+      <c r="PZ1" s="12"/>
+      <c r="QA1" s="12"/>
+      <c r="QB1" s="12"/>
+      <c r="QC1" s="12"/>
+      <c r="QD1" s="12"/>
+      <c r="QE1" s="12"/>
+      <c r="QF1" s="12"/>
+      <c r="QG1" s="12"/>
+      <c r="QH1" s="12"/>
+      <c r="QI1" s="12"/>
+      <c r="QJ1" s="12"/>
+      <c r="QK1" s="12"/>
+      <c r="QL1" s="12"/>
+      <c r="QM1" s="12"/>
+      <c r="QN1" s="12"/>
+      <c r="QO1" s="12"/>
+      <c r="QP1" s="12"/>
+      <c r="QQ1" s="12"/>
+      <c r="QR1" s="12"/>
+      <c r="QS1" s="12"/>
+      <c r="QT1" s="12"/>
+      <c r="QU1" s="12"/>
+      <c r="QV1" s="12"/>
+      <c r="QW1" s="12"/>
+      <c r="QX1" s="12"/>
+      <c r="QY1" s="12"/>
+      <c r="QZ1" s="12"/>
+      <c r="RA1" s="12"/>
+      <c r="RB1" s="12"/>
+      <c r="RC1" s="12"/>
+      <c r="RD1" s="12"/>
+      <c r="RE1" s="12"/>
+      <c r="RF1" s="12"/>
+      <c r="RG1" s="12"/>
+      <c r="RH1" s="12"/>
+      <c r="RI1" s="12"/>
+      <c r="RJ1" s="12"/>
+      <c r="RK1" s="12"/>
+      <c r="RL1" s="12"/>
+      <c r="RM1" s="12"/>
+      <c r="RN1" s="12"/>
+      <c r="RO1" s="12"/>
+      <c r="RP1" s="12"/>
+      <c r="RQ1" s="12"/>
+      <c r="RR1" s="12"/>
+      <c r="RS1" s="12"/>
+      <c r="RT1" s="12"/>
+      <c r="RU1" s="12"/>
+      <c r="RV1" s="12"/>
+      <c r="RW1" s="12"/>
+      <c r="RX1" s="12"/>
+      <c r="RY1" s="12"/>
+      <c r="RZ1" s="12"/>
+      <c r="SA1" s="12"/>
+      <c r="SB1" s="12"/>
+      <c r="SC1" s="12"/>
+      <c r="SD1" s="12"/>
+      <c r="SE1" s="12"/>
+      <c r="SF1" s="12"/>
+      <c r="SG1" s="12"/>
+      <c r="SH1" s="12"/>
+      <c r="SI1" s="12"/>
+      <c r="SJ1" s="12"/>
+      <c r="SK1" s="12"/>
+      <c r="SL1" s="12"/>
+      <c r="SM1" s="12"/>
+      <c r="SN1" s="12"/>
+      <c r="SO1" s="12"/>
+      <c r="SP1" s="12"/>
+      <c r="SQ1" s="12"/>
+      <c r="SR1" s="12"/>
+      <c r="SS1" s="12"/>
+      <c r="ST1" s="12"/>
+      <c r="SU1" s="12"/>
+      <c r="SV1" s="12"/>
+      <c r="SW1" s="12"/>
+      <c r="SX1" s="12"/>
+      <c r="SY1" s="12"/>
+      <c r="SZ1" s="12"/>
+      <c r="TA1" s="12"/>
+      <c r="TB1" s="12"/>
+      <c r="TC1" s="12"/>
+      <c r="TD1" s="12"/>
+      <c r="TE1" s="12"/>
+      <c r="TF1" s="12"/>
+      <c r="TG1" s="12"/>
+      <c r="TH1" s="12"/>
+      <c r="TI1" s="12"/>
+      <c r="TJ1" s="12"/>
+      <c r="TK1" s="12"/>
+      <c r="TL1" s="12"/>
+      <c r="TM1" s="12"/>
+      <c r="TN1" s="12"/>
+      <c r="TO1" s="12"/>
+      <c r="TP1" s="12"/>
+      <c r="TQ1" s="12"/>
+      <c r="TR1" s="12"/>
+      <c r="TS1" s="12"/>
+      <c r="TT1" s="12"/>
+      <c r="TU1" s="12"/>
+      <c r="TV1" s="12"/>
+      <c r="TW1" s="12"/>
+      <c r="TX1" s="12"/>
+      <c r="TY1" s="12"/>
+      <c r="TZ1" s="12"/>
+      <c r="UA1" s="12"/>
+      <c r="UB1" s="12"/>
+      <c r="UC1" s="12"/>
+      <c r="UD1" s="12"/>
+      <c r="UE1" s="12"/>
+      <c r="UF1" s="12"/>
+      <c r="UG1" s="12"/>
+      <c r="UH1" s="12"/>
+      <c r="UI1" s="12"/>
+      <c r="UJ1" s="12"/>
+      <c r="UK1" s="12"/>
+      <c r="UL1" s="12"/>
+      <c r="UM1" s="12"/>
+      <c r="UN1" s="12"/>
+      <c r="UO1" s="12"/>
+      <c r="UP1" s="12"/>
+      <c r="UQ1" s="12"/>
+      <c r="UR1" s="12"/>
+      <c r="US1" s="12"/>
+      <c r="UT1" s="12"/>
+      <c r="UU1" s="12"/>
+      <c r="UV1" s="12"/>
+      <c r="UW1" s="12"/>
+      <c r="UX1" s="12"/>
+      <c r="UY1" s="12"/>
+      <c r="UZ1" s="12"/>
+      <c r="VA1" s="12"/>
+      <c r="VB1" s="12"/>
+      <c r="VC1" s="12"/>
+      <c r="VD1" s="12"/>
+      <c r="VE1" s="12"/>
+      <c r="VF1" s="12"/>
+      <c r="VG1" s="12"/>
+      <c r="VH1" s="12"/>
+      <c r="VI1" s="12"/>
+      <c r="VJ1" s="12"/>
+      <c r="VK1" s="12"/>
+      <c r="VL1" s="12"/>
+      <c r="VM1" s="12"/>
+      <c r="VN1" s="12"/>
+      <c r="VO1" s="12"/>
+      <c r="VP1" s="12"/>
+      <c r="VQ1" s="12"/>
+      <c r="VR1" s="12"/>
+      <c r="VS1" s="12"/>
+      <c r="VT1" s="12"/>
+      <c r="VU1" s="12"/>
+      <c r="VV1" s="12"/>
+      <c r="VW1" s="12"/>
+      <c r="VX1" s="12"/>
+      <c r="VY1" s="12"/>
+      <c r="VZ1" s="12"/>
+      <c r="WA1" s="12"/>
+      <c r="WB1" s="12"/>
+      <c r="WC1" s="12"/>
+      <c r="WD1" s="12"/>
+      <c r="WE1" s="12"/>
+      <c r="WF1" s="12"/>
+      <c r="WG1" s="12"/>
+      <c r="WH1" s="12"/>
+      <c r="WI1" s="12"/>
+      <c r="WJ1" s="12"/>
+      <c r="WK1" s="12"/>
+      <c r="WL1" s="12"/>
+      <c r="WM1" s="12"/>
+      <c r="WN1" s="12"/>
+      <c r="WO1" s="12"/>
+      <c r="WP1" s="12"/>
+      <c r="WQ1" s="12"/>
+      <c r="WR1" s="12"/>
+      <c r="WS1" s="12"/>
+      <c r="WT1" s="12"/>
+      <c r="WU1" s="12"/>
+      <c r="WV1" s="12"/>
+      <c r="WW1" s="12"/>
+      <c r="WX1" s="12"/>
+      <c r="WY1" s="12"/>
+      <c r="WZ1" s="12"/>
+      <c r="XA1" s="12"/>
+      <c r="XB1" s="12"/>
+      <c r="XC1" s="12"/>
+      <c r="XD1" s="12"/>
+      <c r="XE1" s="12"/>
+      <c r="XF1" s="12"/>
+      <c r="XG1" s="12"/>
+      <c r="XH1" s="12"/>
+      <c r="XI1" s="12"/>
+      <c r="XJ1" s="12"/>
+      <c r="XK1" s="12"/>
+      <c r="XL1" s="12"/>
+      <c r="XM1" s="12"/>
+      <c r="XN1" s="12"/>
+      <c r="XO1" s="12"/>
+      <c r="XP1" s="12"/>
+      <c r="XQ1" s="12"/>
+      <c r="XR1" s="12"/>
+      <c r="XS1" s="12"/>
+      <c r="XT1" s="12"/>
+      <c r="XU1" s="12"/>
+      <c r="XV1" s="12"/>
+      <c r="XW1" s="12"/>
+      <c r="XX1" s="12"/>
+      <c r="XY1" s="12"/>
+      <c r="XZ1" s="12"/>
+      <c r="YA1" s="12"/>
+      <c r="YB1" s="12"/>
+      <c r="YC1" s="12"/>
+      <c r="YD1" s="12"/>
+      <c r="YE1" s="12"/>
+      <c r="YF1" s="12"/>
+      <c r="YG1" s="12"/>
+      <c r="YH1" s="12"/>
+      <c r="YI1" s="12"/>
+      <c r="YJ1" s="12"/>
+      <c r="YK1" s="12"/>
+      <c r="YL1" s="12"/>
+      <c r="YM1" s="12"/>
+      <c r="YN1" s="12"/>
+      <c r="YO1" s="12"/>
+      <c r="YP1" s="12"/>
+      <c r="YQ1" s="12"/>
+      <c r="YR1" s="12"/>
+      <c r="YS1" s="12"/>
+      <c r="YT1" s="12"/>
+      <c r="YU1" s="12"/>
+      <c r="YV1" s="12"/>
+      <c r="YW1" s="12"/>
+      <c r="YX1" s="12"/>
+      <c r="YY1" s="12"/>
+      <c r="YZ1" s="12"/>
+      <c r="ZA1" s="12"/>
+      <c r="ZB1" s="12"/>
+      <c r="ZC1" s="12"/>
+      <c r="ZD1" s="12"/>
+      <c r="ZE1" s="12"/>
+      <c r="ZF1" s="12"/>
+      <c r="ZG1" s="12"/>
+      <c r="ZH1" s="12"/>
+      <c r="ZI1" s="12"/>
+      <c r="ZJ1" s="12"/>
+      <c r="ZK1" s="12"/>
+      <c r="ZL1" s="12"/>
+      <c r="ZM1" s="12"/>
+      <c r="ZN1" s="12"/>
+      <c r="ZO1" s="12"/>
+      <c r="ZP1" s="12"/>
+      <c r="ZQ1" s="12"/>
+      <c r="ZR1" s="12"/>
+      <c r="ZS1" s="12"/>
+      <c r="ZT1" s="12"/>
+      <c r="ZU1" s="12"/>
+      <c r="ZV1" s="12"/>
+      <c r="ZW1" s="12"/>
+      <c r="ZX1" s="12"/>
+      <c r="ZY1" s="12"/>
+      <c r="ZZ1" s="12"/>
+      <c r="AAA1" s="12"/>
+      <c r="AAB1" s="12"/>
+      <c r="AAC1" s="12"/>
+      <c r="AAD1" s="12"/>
+      <c r="AAE1" s="12"/>
+      <c r="AAF1" s="12"/>
+      <c r="AAG1" s="12"/>
+      <c r="AAH1" s="12"/>
+      <c r="AAI1" s="12"/>
+      <c r="AAJ1" s="12"/>
+      <c r="AAK1" s="12"/>
+      <c r="AAL1" s="12"/>
+      <c r="AAM1" s="12"/>
+      <c r="AAN1" s="12"/>
+      <c r="AAO1" s="12"/>
+      <c r="AAP1" s="12"/>
+      <c r="AAQ1" s="12"/>
+      <c r="AAR1" s="12"/>
+      <c r="AAS1" s="12"/>
+      <c r="AAT1" s="12"/>
+      <c r="AAU1" s="12"/>
+      <c r="AAV1" s="12"/>
+      <c r="AAW1" s="12"/>
+      <c r="AAX1" s="12"/>
+      <c r="AAY1" s="12"/>
+      <c r="AAZ1" s="12"/>
+      <c r="ABA1" s="12"/>
+      <c r="ABB1" s="12"/>
+      <c r="ABC1" s="12"/>
+      <c r="ABD1" s="12"/>
+      <c r="ABE1" s="12"/>
+      <c r="ABF1" s="12"/>
+      <c r="ABG1" s="12"/>
+      <c r="ABH1" s="12"/>
+      <c r="ABI1" s="12"/>
+      <c r="ABJ1" s="12"/>
+      <c r="ABK1" s="12"/>
+      <c r="ABL1" s="12"/>
+      <c r="ABM1" s="12"/>
+      <c r="ABN1" s="12"/>
+      <c r="ABO1" s="12"/>
+      <c r="ABP1" s="12"/>
+      <c r="ABQ1" s="12"/>
+      <c r="ABR1" s="12"/>
+      <c r="ABS1" s="12"/>
+      <c r="ABT1" s="12"/>
+      <c r="ABU1" s="12"/>
+      <c r="ABV1" s="12"/>
+      <c r="ABW1" s="12"/>
+      <c r="ABX1" s="12"/>
+      <c r="ABY1" s="12"/>
+      <c r="ABZ1" s="12"/>
+      <c r="ACA1" s="12"/>
+      <c r="ACB1" s="12"/>
+      <c r="ACC1" s="12"/>
+      <c r="ACD1" s="12"/>
+      <c r="ACE1" s="12"/>
+      <c r="ACF1" s="12"/>
+      <c r="ACG1" s="12"/>
+      <c r="ACH1" s="12"/>
+      <c r="ACI1" s="12"/>
+      <c r="ACJ1" s="12"/>
+      <c r="ACK1" s="12"/>
+      <c r="ACL1" s="12"/>
+      <c r="ACM1" s="12"/>
+      <c r="ACN1" s="12"/>
+      <c r="ACO1" s="12"/>
+      <c r="ACP1" s="12"/>
+      <c r="ACQ1" s="12"/>
+      <c r="ACR1" s="12"/>
+      <c r="ACS1" s="12"/>
+      <c r="ACT1" s="12"/>
+      <c r="ACU1" s="12"/>
+      <c r="ACV1" s="12"/>
+      <c r="ACW1" s="12"/>
+      <c r="ACX1" s="12"/>
+      <c r="ACY1" s="12"/>
+      <c r="ACZ1" s="12"/>
+      <c r="ADA1" s="12"/>
+      <c r="ADB1" s="12"/>
+      <c r="ADC1" s="12"/>
+      <c r="ADD1" s="12"/>
+      <c r="ADE1" s="12"/>
+      <c r="ADF1" s="12"/>
+      <c r="ADG1" s="12"/>
+      <c r="ADH1" s="12"/>
+      <c r="ADI1" s="12"/>
+      <c r="ADJ1" s="12"/>
+      <c r="ADK1" s="12"/>
+      <c r="ADL1" s="12"/>
+      <c r="ADM1" s="12"/>
+      <c r="ADN1" s="12"/>
+      <c r="ADO1" s="12"/>
+      <c r="ADP1" s="12"/>
+      <c r="ADQ1" s="12"/>
+      <c r="ADR1" s="12"/>
+      <c r="ADS1" s="12"/>
+      <c r="ADT1" s="12"/>
+      <c r="ADU1" s="12"/>
+      <c r="ADV1" s="12"/>
+      <c r="ADW1" s="12"/>
+      <c r="ADX1" s="12"/>
+      <c r="ADY1" s="12"/>
+      <c r="ADZ1" s="12"/>
+      <c r="AEA1" s="12"/>
+      <c r="AEB1" s="12"/>
+      <c r="AEC1" s="12"/>
+      <c r="AED1" s="12"/>
+      <c r="AEE1" s="12"/>
+      <c r="AEF1" s="12"/>
+      <c r="AEG1" s="12"/>
+      <c r="AEH1" s="12"/>
+      <c r="AEI1" s="12"/>
+      <c r="AEJ1" s="12"/>
+      <c r="AEK1" s="12"/>
+      <c r="AEL1" s="12"/>
+      <c r="AEM1" s="12"/>
+      <c r="AEN1" s="12"/>
+      <c r="AEO1" s="12"/>
+      <c r="AEP1" s="12"/>
+      <c r="AEQ1" s="12"/>
+      <c r="AER1" s="12"/>
+      <c r="AES1" s="12"/>
+      <c r="AET1" s="12"/>
+      <c r="AEU1" s="12"/>
+      <c r="AEV1" s="12"/>
+      <c r="AEW1" s="12"/>
+      <c r="AEX1" s="12"/>
+      <c r="AEY1" s="12"/>
+      <c r="AEZ1" s="12"/>
+      <c r="AFA1" s="12"/>
+      <c r="AFB1" s="12"/>
+      <c r="AFC1" s="12"/>
+      <c r="AFD1" s="12"/>
+      <c r="AFE1" s="12"/>
+      <c r="AFF1" s="12"/>
+      <c r="AFG1" s="12"/>
+      <c r="AFH1" s="12"/>
+      <c r="AFI1" s="12"/>
+      <c r="AFJ1" s="12"/>
+      <c r="AFK1" s="12"/>
+      <c r="AFL1" s="12"/>
+      <c r="AFM1" s="12"/>
+      <c r="AFN1" s="12"/>
+      <c r="AFO1" s="12"/>
+      <c r="AFP1" s="12"/>
+      <c r="AFQ1" s="12"/>
+      <c r="AFR1" s="12"/>
+      <c r="AFS1" s="12"/>
+      <c r="AFT1" s="12"/>
+      <c r="AFU1" s="12"/>
+      <c r="AFV1" s="12"/>
+      <c r="AFW1" s="12"/>
+      <c r="AFX1" s="12"/>
+      <c r="AFY1" s="12"/>
+      <c r="AFZ1" s="12"/>
+      <c r="AGA1" s="12"/>
+      <c r="AGB1" s="12"/>
+      <c r="AGC1" s="12"/>
+      <c r="AGD1" s="12"/>
+      <c r="AGE1" s="12"/>
+      <c r="AGF1" s="12"/>
+      <c r="AGG1" s="12"/>
+      <c r="AGH1" s="12"/>
+      <c r="AGI1" s="12"/>
+      <c r="AGJ1" s="12"/>
+      <c r="AGK1" s="12"/>
+      <c r="AGL1" s="12"/>
+      <c r="AGM1" s="12"/>
+      <c r="AGN1" s="12"/>
+      <c r="AGO1" s="12"/>
+      <c r="AGP1" s="12"/>
+      <c r="AGQ1" s="12"/>
+      <c r="AGR1" s="12"/>
+      <c r="AGS1" s="12"/>
+      <c r="AGT1" s="12"/>
+      <c r="AGU1" s="12"/>
+      <c r="AGV1" s="12"/>
+      <c r="AGW1" s="12"/>
+      <c r="AGX1" s="12"/>
+      <c r="AGY1" s="12"/>
+      <c r="AGZ1" s="12"/>
+      <c r="AHA1" s="12"/>
+      <c r="AHB1" s="12"/>
+      <c r="AHC1" s="12"/>
+      <c r="AHD1" s="12"/>
+      <c r="AHE1" s="12"/>
+      <c r="AHF1" s="12"/>
+      <c r="AHG1" s="12"/>
+      <c r="AHH1" s="12"/>
+      <c r="AHI1" s="12"/>
+      <c r="AHJ1" s="12"/>
+      <c r="AHK1" s="12"/>
+      <c r="AHL1" s="12"/>
+      <c r="AHM1" s="12"/>
+      <c r="AHN1" s="12"/>
+      <c r="AHO1" s="12"/>
+      <c r="AHP1" s="12"/>
+      <c r="AHQ1" s="12"/>
+      <c r="AHR1" s="12"/>
+      <c r="AHS1" s="12"/>
+      <c r="AHT1" s="12"/>
+      <c r="AHU1" s="12"/>
+      <c r="AHV1" s="12"/>
+      <c r="AHW1" s="12"/>
+      <c r="AHX1" s="12"/>
+      <c r="AHY1" s="12"/>
+      <c r="AHZ1" s="12"/>
+      <c r="AIA1" s="12"/>
+      <c r="AIB1" s="12"/>
+      <c r="AIC1" s="12"/>
+      <c r="AID1" s="12"/>
+      <c r="AIE1" s="12"/>
+      <c r="AIF1" s="12"/>
+      <c r="AIG1" s="12"/>
+      <c r="AIH1" s="12"/>
+      <c r="AII1" s="12"/>
+      <c r="AIJ1" s="12"/>
+      <c r="AIK1" s="12"/>
+      <c r="AIL1" s="12"/>
+      <c r="AIM1" s="12"/>
+      <c r="AIN1" s="12"/>
+      <c r="AIO1" s="12"/>
+      <c r="AIP1" s="12"/>
+      <c r="AIQ1" s="12"/>
+      <c r="AIR1" s="12"/>
+      <c r="AIS1" s="12"/>
+      <c r="AIT1" s="12"/>
+      <c r="AIU1" s="12"/>
+      <c r="AIV1" s="12"/>
+      <c r="AIW1" s="12"/>
+      <c r="AIX1" s="12"/>
+      <c r="AIY1" s="12"/>
+      <c r="AIZ1" s="12"/>
+      <c r="AJA1" s="12"/>
+      <c r="AJB1" s="12"/>
+      <c r="AJC1" s="12"/>
+      <c r="AJD1" s="12"/>
+      <c r="AJE1" s="12"/>
+      <c r="AJF1" s="12"/>
+      <c r="AJG1" s="12"/>
+      <c r="AJH1" s="12"/>
+      <c r="AJI1" s="12"/>
+      <c r="AJJ1" s="12"/>
+      <c r="AJK1" s="12"/>
+      <c r="AJL1" s="12"/>
+      <c r="AJM1" s="12"/>
+      <c r="AJN1" s="12"/>
+      <c r="AJO1" s="12"/>
+      <c r="AJP1" s="12"/>
+      <c r="AJQ1" s="12"/>
+      <c r="AJR1" s="12"/>
+      <c r="AJS1" s="12"/>
+      <c r="AJT1" s="12"/>
+      <c r="AJU1" s="12"/>
+      <c r="AJV1" s="12"/>
+      <c r="AJW1" s="12"/>
+      <c r="AJX1" s="12"/>
+      <c r="AJY1" s="12"/>
+      <c r="AJZ1" s="12"/>
+      <c r="AKA1" s="12"/>
+      <c r="AKB1" s="12"/>
+      <c r="AKC1" s="12"/>
+      <c r="AKD1" s="12"/>
+      <c r="AKE1" s="12"/>
+      <c r="AKF1" s="12"/>
+      <c r="AKG1" s="12"/>
+      <c r="AKH1" s="12"/>
+      <c r="AKI1" s="12"/>
+      <c r="AKJ1" s="12"/>
+      <c r="AKK1" s="12"/>
+      <c r="AKL1" s="12"/>
+      <c r="AKM1" s="12"/>
+      <c r="AKN1" s="12"/>
+      <c r="AKO1" s="12"/>
+      <c r="AKP1" s="12"/>
+      <c r="AKQ1" s="12"/>
+      <c r="AKR1" s="12"/>
+      <c r="AKS1" s="12"/>
+      <c r="AKT1" s="12"/>
+      <c r="AKU1" s="12"/>
+      <c r="AKV1" s="12"/>
+      <c r="AKW1" s="12"/>
+      <c r="AKX1" s="12"/>
+      <c r="AKY1" s="12"/>
+      <c r="AKZ1" s="12"/>
+      <c r="ALA1" s="12"/>
+      <c r="ALB1" s="12"/>
+      <c r="ALC1" s="12"/>
+      <c r="ALD1" s="12"/>
+      <c r="ALE1" s="12"/>
+      <c r="ALF1" s="12"/>
+      <c r="ALG1" s="12"/>
+      <c r="ALH1" s="12"/>
+      <c r="ALI1" s="12"/>
+      <c r="ALJ1" s="12"/>
+      <c r="ALK1" s="12"/>
+      <c r="ALL1" s="12"/>
+      <c r="ALM1" s="12"/>
+      <c r="ALN1" s="12"/>
+      <c r="ALO1" s="12"/>
+      <c r="ALP1" s="12"/>
+      <c r="ALQ1" s="12"/>
+      <c r="ALR1" s="12"/>
+      <c r="ALS1" s="12"/>
+      <c r="ALT1" s="12"/>
+      <c r="ALU1" s="12"/>
+      <c r="ALV1" s="12"/>
+      <c r="ALW1" s="12"/>
+      <c r="ALX1" s="12"/>
+      <c r="ALY1" s="12"/>
+      <c r="ALZ1" s="12"/>
+      <c r="AMA1" s="12"/>
+      <c r="AMB1" s="12"/>
+      <c r="AMC1" s="12"/>
+      <c r="AMD1" s="12"/>
+      <c r="AME1" s="12"/>
+      <c r="AMF1" s="12"/>
+      <c r="AMG1" s="12"/>
+      <c r="AMH1" s="12"/>
+      <c r="AMI1" s="12"/>
+      <c r="AMJ1" s="12"/>
+      <c r="AMK1" s="12"/>
+      <c r="AML1" s="12"/>
+      <c r="AMM1" s="12"/>
+      <c r="AMN1" s="12"/>
+      <c r="AMO1" s="12"/>
+      <c r="AMP1" s="12"/>
+      <c r="AMQ1" s="12"/>
+      <c r="AMR1" s="12"/>
       <c r="AMS1"/>
       <c r="AMT1"/>
       <c r="AMU1"/>
@@ -19842,7 +19833,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -19879,1039 +19870,1043 @@
         <v>61</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="13"/>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="13"/>
-      <c r="CI2" s="13"/>
-      <c r="CJ2" s="13"/>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="13"/>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="13"/>
-      <c r="CS2" s="13"/>
-      <c r="CT2" s="13"/>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="13"/>
-      <c r="CW2" s="13"/>
-      <c r="CX2" s="13"/>
-      <c r="CY2" s="13"/>
-      <c r="CZ2" s="13"/>
-      <c r="DA2" s="13"/>
-      <c r="DB2" s="13"/>
-      <c r="DC2" s="13"/>
-      <c r="DD2" s="13"/>
-      <c r="DE2" s="13"/>
-      <c r="DF2" s="13"/>
-      <c r="DG2" s="13"/>
-      <c r="DH2" s="13"/>
-      <c r="DI2" s="13"/>
-      <c r="DJ2" s="13"/>
-      <c r="DK2" s="13"/>
-      <c r="DL2" s="13"/>
-      <c r="DM2" s="13"/>
-      <c r="DN2" s="13"/>
-      <c r="DO2" s="13"/>
-      <c r="DP2" s="13"/>
-      <c r="DQ2" s="13"/>
-      <c r="DR2" s="13"/>
-      <c r="DS2" s="13"/>
-      <c r="DT2" s="13"/>
-      <c r="DU2" s="13"/>
-      <c r="DV2" s="13"/>
-      <c r="DW2" s="13"/>
-      <c r="DX2" s="13"/>
-      <c r="DY2" s="13"/>
-      <c r="DZ2" s="13"/>
-      <c r="EA2" s="13"/>
-      <c r="EB2" s="13"/>
-      <c r="EC2" s="13"/>
-      <c r="ED2" s="13"/>
-      <c r="EE2" s="13"/>
-      <c r="EF2" s="13"/>
-      <c r="EG2" s="13"/>
-      <c r="EH2" s="13"/>
-      <c r="EI2" s="13"/>
-      <c r="EJ2" s="13"/>
-      <c r="EK2" s="13"/>
-      <c r="EL2" s="13"/>
-      <c r="EM2" s="13"/>
-      <c r="EN2" s="13"/>
-      <c r="EO2" s="13"/>
-      <c r="EP2" s="13"/>
-      <c r="EQ2" s="13"/>
-      <c r="ER2" s="13"/>
-      <c r="ES2" s="13"/>
-      <c r="ET2" s="13"/>
-      <c r="EU2" s="13"/>
-      <c r="EV2" s="13"/>
-      <c r="EW2" s="13"/>
-      <c r="EX2" s="13"/>
-      <c r="EY2" s="13"/>
-      <c r="EZ2" s="13"/>
-      <c r="FA2" s="13"/>
-      <c r="FB2" s="13"/>
-      <c r="FC2" s="13"/>
-      <c r="FD2" s="13"/>
-      <c r="FE2" s="13"/>
-      <c r="FF2" s="13"/>
-      <c r="FG2" s="13"/>
-      <c r="FH2" s="13"/>
-      <c r="FI2" s="13"/>
-      <c r="FJ2" s="13"/>
-      <c r="FK2" s="13"/>
-      <c r="FL2" s="13"/>
-      <c r="FM2" s="13"/>
-      <c r="FN2" s="13"/>
-      <c r="FO2" s="13"/>
-      <c r="FP2" s="13"/>
-      <c r="FQ2" s="13"/>
-      <c r="FR2" s="13"/>
-      <c r="FS2" s="13"/>
-      <c r="FT2" s="13"/>
-      <c r="FU2" s="13"/>
-      <c r="FV2" s="13"/>
-      <c r="FW2" s="13"/>
-      <c r="FX2" s="13"/>
-      <c r="FY2" s="13"/>
-      <c r="FZ2" s="13"/>
-      <c r="GA2" s="13"/>
-      <c r="GB2" s="13"/>
-      <c r="GC2" s="13"/>
-      <c r="GD2" s="13"/>
-      <c r="GE2" s="13"/>
-      <c r="GF2" s="13"/>
-      <c r="GG2" s="13"/>
-      <c r="GH2" s="13"/>
-      <c r="GI2" s="13"/>
-      <c r="GJ2" s="13"/>
-      <c r="GK2" s="13"/>
-      <c r="GL2" s="13"/>
-      <c r="GM2" s="13"/>
-      <c r="GN2" s="13"/>
-      <c r="GO2" s="13"/>
-      <c r="GP2" s="13"/>
-      <c r="GQ2" s="13"/>
-      <c r="GR2" s="13"/>
-      <c r="GS2" s="13"/>
-      <c r="GT2" s="13"/>
-      <c r="GU2" s="13"/>
-      <c r="GV2" s="13"/>
-      <c r="GW2" s="13"/>
-      <c r="GX2" s="13"/>
-      <c r="GY2" s="13"/>
-      <c r="GZ2" s="13"/>
-      <c r="HA2" s="13"/>
-      <c r="HB2" s="13"/>
-      <c r="HC2" s="13"/>
-      <c r="HD2" s="13"/>
-      <c r="HE2" s="13"/>
-      <c r="HF2" s="13"/>
-      <c r="HG2" s="13"/>
-      <c r="HH2" s="13"/>
-      <c r="HI2" s="13"/>
-      <c r="HJ2" s="13"/>
-      <c r="HK2" s="13"/>
-      <c r="HL2" s="13"/>
-      <c r="HM2" s="13"/>
-      <c r="HN2" s="13"/>
-      <c r="HO2" s="13"/>
-      <c r="HP2" s="13"/>
-      <c r="HQ2" s="13"/>
-      <c r="HR2" s="13"/>
-      <c r="HS2" s="13"/>
-      <c r="HT2" s="13"/>
-      <c r="HU2" s="13"/>
-      <c r="HV2" s="13"/>
-      <c r="HW2" s="13"/>
-      <c r="HX2" s="13"/>
-      <c r="HY2" s="13"/>
-      <c r="HZ2" s="13"/>
-      <c r="IA2" s="13"/>
-      <c r="IB2" s="13"/>
-      <c r="IC2" s="13"/>
-      <c r="ID2" s="13"/>
-      <c r="IE2" s="13"/>
-      <c r="IF2" s="13"/>
-      <c r="IG2" s="13"/>
-      <c r="IH2" s="13"/>
-      <c r="II2" s="13"/>
-      <c r="IJ2" s="13"/>
-      <c r="IK2" s="13"/>
-      <c r="IL2" s="13"/>
-      <c r="IM2" s="13"/>
-      <c r="IN2" s="13"/>
-      <c r="IO2" s="13"/>
-      <c r="IP2" s="13"/>
-      <c r="IQ2" s="13"/>
-      <c r="IR2" s="13"/>
-      <c r="IS2" s="13"/>
-      <c r="IT2" s="13"/>
-      <c r="IU2" s="13"/>
-      <c r="IV2" s="13"/>
-      <c r="IW2" s="13"/>
-      <c r="IX2" s="13"/>
-      <c r="IY2" s="13"/>
-      <c r="IZ2" s="13"/>
-      <c r="JA2" s="13"/>
-      <c r="JB2" s="13"/>
-      <c r="JC2" s="13"/>
-      <c r="JD2" s="13"/>
-      <c r="JE2" s="13"/>
-      <c r="JF2" s="13"/>
-      <c r="JG2" s="13"/>
-      <c r="JH2" s="13"/>
-      <c r="JI2" s="13"/>
-      <c r="JJ2" s="13"/>
-      <c r="JK2" s="13"/>
-      <c r="JL2" s="13"/>
-      <c r="JM2" s="13"/>
-      <c r="JN2" s="13"/>
-      <c r="JO2" s="13"/>
-      <c r="JP2" s="13"/>
-      <c r="JQ2" s="13"/>
-      <c r="JR2" s="13"/>
-      <c r="JS2" s="13"/>
-      <c r="JT2" s="13"/>
-      <c r="JU2" s="13"/>
-      <c r="JV2" s="13"/>
-      <c r="JW2" s="13"/>
-      <c r="JX2" s="13"/>
-      <c r="JY2" s="13"/>
-      <c r="JZ2" s="13"/>
-      <c r="KA2" s="13"/>
-      <c r="KB2" s="13"/>
-      <c r="KC2" s="13"/>
-      <c r="KD2" s="13"/>
-      <c r="KE2" s="13"/>
-      <c r="KF2" s="13"/>
-      <c r="KG2" s="13"/>
-      <c r="KH2" s="13"/>
-      <c r="KI2" s="13"/>
-      <c r="KJ2" s="13"/>
-      <c r="KK2" s="13"/>
-      <c r="KL2" s="13"/>
-      <c r="KM2" s="13"/>
-      <c r="KN2" s="13"/>
-      <c r="KO2" s="13"/>
-      <c r="KP2" s="13"/>
-      <c r="KQ2" s="13"/>
-      <c r="KR2" s="13"/>
-      <c r="KS2" s="13"/>
-      <c r="KT2" s="13"/>
-      <c r="KU2" s="13"/>
-      <c r="KV2" s="13"/>
-      <c r="KW2" s="13"/>
-      <c r="KX2" s="13"/>
-      <c r="KY2" s="13"/>
-      <c r="KZ2" s="13"/>
-      <c r="LA2" s="13"/>
-      <c r="LB2" s="13"/>
-      <c r="LC2" s="13"/>
-      <c r="LD2" s="13"/>
-      <c r="LE2" s="13"/>
-      <c r="LF2" s="13"/>
-      <c r="LG2" s="13"/>
-      <c r="LH2" s="13"/>
-      <c r="LI2" s="13"/>
-      <c r="LJ2" s="13"/>
-      <c r="LK2" s="13"/>
-      <c r="LL2" s="13"/>
-      <c r="LM2" s="13"/>
-      <c r="LN2" s="13"/>
-      <c r="LO2" s="13"/>
-      <c r="LP2" s="13"/>
-      <c r="LQ2" s="13"/>
-      <c r="LR2" s="13"/>
-      <c r="LS2" s="13"/>
-      <c r="LT2" s="13"/>
-      <c r="LU2" s="13"/>
-      <c r="LV2" s="13"/>
-      <c r="LW2" s="13"/>
-      <c r="LX2" s="13"/>
-      <c r="LY2" s="13"/>
-      <c r="LZ2" s="13"/>
-      <c r="MA2" s="13"/>
-      <c r="MB2" s="13"/>
-      <c r="MC2" s="13"/>
-      <c r="MD2" s="13"/>
-      <c r="ME2" s="13"/>
-      <c r="MF2" s="13"/>
-      <c r="MG2" s="13"/>
-      <c r="MH2" s="13"/>
-      <c r="MI2" s="13"/>
-      <c r="MJ2" s="13"/>
-      <c r="MK2" s="13"/>
-      <c r="ML2" s="13"/>
-      <c r="MM2" s="13"/>
-      <c r="MN2" s="13"/>
-      <c r="MO2" s="13"/>
-      <c r="MP2" s="13"/>
-      <c r="MQ2" s="13"/>
-      <c r="MR2" s="13"/>
-      <c r="MS2" s="13"/>
-      <c r="MT2" s="13"/>
-      <c r="MU2" s="13"/>
-      <c r="MV2" s="13"/>
-      <c r="MW2" s="13"/>
-      <c r="MX2" s="13"/>
-      <c r="MY2" s="13"/>
-      <c r="MZ2" s="13"/>
-      <c r="NA2" s="13"/>
-      <c r="NB2" s="13"/>
-      <c r="NC2" s="13"/>
-      <c r="ND2" s="13"/>
-      <c r="NE2" s="13"/>
-      <c r="NF2" s="13"/>
-      <c r="NG2" s="13"/>
-      <c r="NH2" s="13"/>
-      <c r="NI2" s="13"/>
-      <c r="NJ2" s="13"/>
-      <c r="NK2" s="13"/>
-      <c r="NL2" s="13"/>
-      <c r="NM2" s="13"/>
-      <c r="NN2" s="13"/>
-      <c r="NO2" s="13"/>
-      <c r="NP2" s="13"/>
-      <c r="NQ2" s="13"/>
-      <c r="NR2" s="13"/>
-      <c r="NS2" s="13"/>
-      <c r="NT2" s="13"/>
-      <c r="NU2" s="13"/>
-      <c r="NV2" s="13"/>
-      <c r="NW2" s="13"/>
-      <c r="NX2" s="13"/>
-      <c r="NY2" s="13"/>
-      <c r="NZ2" s="13"/>
-      <c r="OA2" s="13"/>
-      <c r="OB2" s="13"/>
-      <c r="OC2" s="13"/>
-      <c r="OD2" s="13"/>
-      <c r="OE2" s="13"/>
-      <c r="OF2" s="13"/>
-      <c r="OG2" s="13"/>
-      <c r="OH2" s="13"/>
-      <c r="OI2" s="13"/>
-      <c r="OJ2" s="13"/>
-      <c r="OK2" s="13"/>
-      <c r="OL2" s="13"/>
-      <c r="OM2" s="13"/>
-      <c r="ON2" s="13"/>
-      <c r="OO2" s="13"/>
-      <c r="OP2" s="13"/>
-      <c r="OQ2" s="13"/>
-      <c r="OR2" s="13"/>
-      <c r="OS2" s="13"/>
-      <c r="OT2" s="13"/>
-      <c r="OU2" s="13"/>
-      <c r="OV2" s="13"/>
-      <c r="OW2" s="13"/>
-      <c r="OX2" s="13"/>
-      <c r="OY2" s="13"/>
-      <c r="OZ2" s="13"/>
-      <c r="PA2" s="13"/>
-      <c r="PB2" s="13"/>
-      <c r="PC2" s="13"/>
-      <c r="PD2" s="13"/>
-      <c r="PE2" s="13"/>
-      <c r="PF2" s="13"/>
-      <c r="PG2" s="13"/>
-      <c r="PH2" s="13"/>
-      <c r="PI2" s="13"/>
-      <c r="PJ2" s="13"/>
-      <c r="PK2" s="13"/>
-      <c r="PL2" s="13"/>
-      <c r="PM2" s="13"/>
-      <c r="PN2" s="13"/>
-      <c r="PO2" s="13"/>
-      <c r="PP2" s="13"/>
-      <c r="PQ2" s="13"/>
-      <c r="PR2" s="13"/>
-      <c r="PS2" s="13"/>
-      <c r="PT2" s="13"/>
-      <c r="PU2" s="13"/>
-      <c r="PV2" s="13"/>
-      <c r="PW2" s="13"/>
-      <c r="PX2" s="13"/>
-      <c r="PY2" s="13"/>
-      <c r="PZ2" s="13"/>
-      <c r="QA2" s="13"/>
-      <c r="QB2" s="13"/>
-      <c r="QC2" s="13"/>
-      <c r="QD2" s="13"/>
-      <c r="QE2" s="13"/>
-      <c r="QF2" s="13"/>
-      <c r="QG2" s="13"/>
-      <c r="QH2" s="13"/>
-      <c r="QI2" s="13"/>
-      <c r="QJ2" s="13"/>
-      <c r="QK2" s="13"/>
-      <c r="QL2" s="13"/>
-      <c r="QM2" s="13"/>
-      <c r="QN2" s="13"/>
-      <c r="QO2" s="13"/>
-      <c r="QP2" s="13"/>
-      <c r="QQ2" s="13"/>
-      <c r="QR2" s="13"/>
-      <c r="QS2" s="13"/>
-      <c r="QT2" s="13"/>
-      <c r="QU2" s="13"/>
-      <c r="QV2" s="13"/>
-      <c r="QW2" s="13"/>
-      <c r="QX2" s="13"/>
-      <c r="QY2" s="13"/>
-      <c r="QZ2" s="13"/>
-      <c r="RA2" s="13"/>
-      <c r="RB2" s="13"/>
-      <c r="RC2" s="13"/>
-      <c r="RD2" s="13"/>
-      <c r="RE2" s="13"/>
-      <c r="RF2" s="13"/>
-      <c r="RG2" s="13"/>
-      <c r="RH2" s="13"/>
-      <c r="RI2" s="13"/>
-      <c r="RJ2" s="13"/>
-      <c r="RK2" s="13"/>
-      <c r="RL2" s="13"/>
-      <c r="RM2" s="13"/>
-      <c r="RN2" s="13"/>
-      <c r="RO2" s="13"/>
-      <c r="RP2" s="13"/>
-      <c r="RQ2" s="13"/>
-      <c r="RR2" s="13"/>
-      <c r="RS2" s="13"/>
-      <c r="RT2" s="13"/>
-      <c r="RU2" s="13"/>
-      <c r="RV2" s="13"/>
-      <c r="RW2" s="13"/>
-      <c r="RX2" s="13"/>
-      <c r="RY2" s="13"/>
-      <c r="RZ2" s="13"/>
-      <c r="SA2" s="13"/>
-      <c r="SB2" s="13"/>
-      <c r="SC2" s="13"/>
-      <c r="SD2" s="13"/>
-      <c r="SE2" s="13"/>
-      <c r="SF2" s="13"/>
-      <c r="SG2" s="13"/>
-      <c r="SH2" s="13"/>
-      <c r="SI2" s="13"/>
-      <c r="SJ2" s="13"/>
-      <c r="SK2" s="13"/>
-      <c r="SL2" s="13"/>
-      <c r="SM2" s="13"/>
-      <c r="SN2" s="13"/>
-      <c r="SO2" s="13"/>
-      <c r="SP2" s="13"/>
-      <c r="SQ2" s="13"/>
-      <c r="SR2" s="13"/>
-      <c r="SS2" s="13"/>
-      <c r="ST2" s="13"/>
-      <c r="SU2" s="13"/>
-      <c r="SV2" s="13"/>
-      <c r="SW2" s="13"/>
-      <c r="SX2" s="13"/>
-      <c r="SY2" s="13"/>
-      <c r="SZ2" s="13"/>
-      <c r="TA2" s="13"/>
-      <c r="TB2" s="13"/>
-      <c r="TC2" s="13"/>
-      <c r="TD2" s="13"/>
-      <c r="TE2" s="13"/>
-      <c r="TF2" s="13"/>
-      <c r="TG2" s="13"/>
-      <c r="TH2" s="13"/>
-      <c r="TI2" s="13"/>
-      <c r="TJ2" s="13"/>
-      <c r="TK2" s="13"/>
-      <c r="TL2" s="13"/>
-      <c r="TM2" s="13"/>
-      <c r="TN2" s="13"/>
-      <c r="TO2" s="13"/>
-      <c r="TP2" s="13"/>
-      <c r="TQ2" s="13"/>
-      <c r="TR2" s="13"/>
-      <c r="TS2" s="13"/>
-      <c r="TT2" s="13"/>
-      <c r="TU2" s="13"/>
-      <c r="TV2" s="13"/>
-      <c r="TW2" s="13"/>
-      <c r="TX2" s="13"/>
-      <c r="TY2" s="13"/>
-      <c r="TZ2" s="13"/>
-      <c r="UA2" s="13"/>
-      <c r="UB2" s="13"/>
-      <c r="UC2" s="13"/>
-      <c r="UD2" s="13"/>
-      <c r="UE2" s="13"/>
-      <c r="UF2" s="13"/>
-      <c r="UG2" s="13"/>
-      <c r="UH2" s="13"/>
-      <c r="UI2" s="13"/>
-      <c r="UJ2" s="13"/>
-      <c r="UK2" s="13"/>
-      <c r="UL2" s="13"/>
-      <c r="UM2" s="13"/>
-      <c r="UN2" s="13"/>
-      <c r="UO2" s="13"/>
-      <c r="UP2" s="13"/>
-      <c r="UQ2" s="13"/>
-      <c r="UR2" s="13"/>
-      <c r="US2" s="13"/>
-      <c r="UT2" s="13"/>
-      <c r="UU2" s="13"/>
-      <c r="UV2" s="13"/>
-      <c r="UW2" s="13"/>
-      <c r="UX2" s="13"/>
-      <c r="UY2" s="13"/>
-      <c r="UZ2" s="13"/>
-      <c r="VA2" s="13"/>
-      <c r="VB2" s="13"/>
-      <c r="VC2" s="13"/>
-      <c r="VD2" s="13"/>
-      <c r="VE2" s="13"/>
-      <c r="VF2" s="13"/>
-      <c r="VG2" s="13"/>
-      <c r="VH2" s="13"/>
-      <c r="VI2" s="13"/>
-      <c r="VJ2" s="13"/>
-      <c r="VK2" s="13"/>
-      <c r="VL2" s="13"/>
-      <c r="VM2" s="13"/>
-      <c r="VN2" s="13"/>
-      <c r="VO2" s="13"/>
-      <c r="VP2" s="13"/>
-      <c r="VQ2" s="13"/>
-      <c r="VR2" s="13"/>
-      <c r="VS2" s="13"/>
-      <c r="VT2" s="13"/>
-      <c r="VU2" s="13"/>
-      <c r="VV2" s="13"/>
-      <c r="VW2" s="13"/>
-      <c r="VX2" s="13"/>
-      <c r="VY2" s="13"/>
-      <c r="VZ2" s="13"/>
-      <c r="WA2" s="13"/>
-      <c r="WB2" s="13"/>
-      <c r="WC2" s="13"/>
-      <c r="WD2" s="13"/>
-      <c r="WE2" s="13"/>
-      <c r="WF2" s="13"/>
-      <c r="WG2" s="13"/>
-      <c r="WH2" s="13"/>
-      <c r="WI2" s="13"/>
-      <c r="WJ2" s="13"/>
-      <c r="WK2" s="13"/>
-      <c r="WL2" s="13"/>
-      <c r="WM2" s="13"/>
-      <c r="WN2" s="13"/>
-      <c r="WO2" s="13"/>
-      <c r="WP2" s="13"/>
-      <c r="WQ2" s="13"/>
-      <c r="WR2" s="13"/>
-      <c r="WS2" s="13"/>
-      <c r="WT2" s="13"/>
-      <c r="WU2" s="13"/>
-      <c r="WV2" s="13"/>
-      <c r="WW2" s="13"/>
-      <c r="WX2" s="13"/>
-      <c r="WY2" s="13"/>
-      <c r="WZ2" s="13"/>
-      <c r="XA2" s="13"/>
-      <c r="XB2" s="13"/>
-      <c r="XC2" s="13"/>
-      <c r="XD2" s="13"/>
-      <c r="XE2" s="13"/>
-      <c r="XF2" s="13"/>
-      <c r="XG2" s="13"/>
-      <c r="XH2" s="13"/>
-      <c r="XI2" s="13"/>
-      <c r="XJ2" s="13"/>
-      <c r="XK2" s="13"/>
-      <c r="XL2" s="13"/>
-      <c r="XM2" s="13"/>
-      <c r="XN2" s="13"/>
-      <c r="XO2" s="13"/>
-      <c r="XP2" s="13"/>
-      <c r="XQ2" s="13"/>
-      <c r="XR2" s="13"/>
-      <c r="XS2" s="13"/>
-      <c r="XT2" s="13"/>
-      <c r="XU2" s="13"/>
-      <c r="XV2" s="13"/>
-      <c r="XW2" s="13"/>
-      <c r="XX2" s="13"/>
-      <c r="XY2" s="13"/>
-      <c r="XZ2" s="13"/>
-      <c r="YA2" s="13"/>
-      <c r="YB2" s="13"/>
-      <c r="YC2" s="13"/>
-      <c r="YD2" s="13"/>
-      <c r="YE2" s="13"/>
-      <c r="YF2" s="13"/>
-      <c r="YG2" s="13"/>
-      <c r="YH2" s="13"/>
-      <c r="YI2" s="13"/>
-      <c r="YJ2" s="13"/>
-      <c r="YK2" s="13"/>
-      <c r="YL2" s="13"/>
-      <c r="YM2" s="13"/>
-      <c r="YN2" s="13"/>
-      <c r="YO2" s="13"/>
-      <c r="YP2" s="13"/>
-      <c r="YQ2" s="13"/>
-      <c r="YR2" s="13"/>
-      <c r="YS2" s="13"/>
-      <c r="YT2" s="13"/>
-      <c r="YU2" s="13"/>
-      <c r="YV2" s="13"/>
-      <c r="YW2" s="13"/>
-      <c r="YX2" s="13"/>
-      <c r="YY2" s="13"/>
-      <c r="YZ2" s="13"/>
-      <c r="ZA2" s="13"/>
-      <c r="ZB2" s="13"/>
-      <c r="ZC2" s="13"/>
-      <c r="ZD2" s="13"/>
-      <c r="ZE2" s="13"/>
-      <c r="ZF2" s="13"/>
-      <c r="ZG2" s="13"/>
-      <c r="ZH2" s="13"/>
-      <c r="ZI2" s="13"/>
-      <c r="ZJ2" s="13"/>
-      <c r="ZK2" s="13"/>
-      <c r="ZL2" s="13"/>
-      <c r="ZM2" s="13"/>
-      <c r="ZN2" s="13"/>
-      <c r="ZO2" s="13"/>
-      <c r="ZP2" s="13"/>
-      <c r="ZQ2" s="13"/>
-      <c r="ZR2" s="13"/>
-      <c r="ZS2" s="13"/>
-      <c r="ZT2" s="13"/>
-      <c r="ZU2" s="13"/>
-      <c r="ZV2" s="13"/>
-      <c r="ZW2" s="13"/>
-      <c r="ZX2" s="13"/>
-      <c r="ZY2" s="13"/>
-      <c r="ZZ2" s="13"/>
-      <c r="AAA2" s="13"/>
-      <c r="AAB2" s="13"/>
-      <c r="AAC2" s="13"/>
-      <c r="AAD2" s="13"/>
-      <c r="AAE2" s="13"/>
-      <c r="AAF2" s="13"/>
-      <c r="AAG2" s="13"/>
-      <c r="AAH2" s="13"/>
-      <c r="AAI2" s="13"/>
-      <c r="AAJ2" s="13"/>
-      <c r="AAK2" s="13"/>
-      <c r="AAL2" s="13"/>
-      <c r="AAM2" s="13"/>
-      <c r="AAN2" s="13"/>
-      <c r="AAO2" s="13"/>
-      <c r="AAP2" s="13"/>
-      <c r="AAQ2" s="13"/>
-      <c r="AAR2" s="13"/>
-      <c r="AAS2" s="13"/>
-      <c r="AAT2" s="13"/>
-      <c r="AAU2" s="13"/>
-      <c r="AAV2" s="13"/>
-      <c r="AAW2" s="13"/>
-      <c r="AAX2" s="13"/>
-      <c r="AAY2" s="13"/>
-      <c r="AAZ2" s="13"/>
-      <c r="ABA2" s="13"/>
-      <c r="ABB2" s="13"/>
-      <c r="ABC2" s="13"/>
-      <c r="ABD2" s="13"/>
-      <c r="ABE2" s="13"/>
-      <c r="ABF2" s="13"/>
-      <c r="ABG2" s="13"/>
-      <c r="ABH2" s="13"/>
-      <c r="ABI2" s="13"/>
-      <c r="ABJ2" s="13"/>
-      <c r="ABK2" s="13"/>
-      <c r="ABL2" s="13"/>
-      <c r="ABM2" s="13"/>
-      <c r="ABN2" s="13"/>
-      <c r="ABO2" s="13"/>
-      <c r="ABP2" s="13"/>
-      <c r="ABQ2" s="13"/>
-      <c r="ABR2" s="13"/>
-      <c r="ABS2" s="13"/>
-      <c r="ABT2" s="13"/>
-      <c r="ABU2" s="13"/>
-      <c r="ABV2" s="13"/>
-      <c r="ABW2" s="13"/>
-      <c r="ABX2" s="13"/>
-      <c r="ABY2" s="13"/>
-      <c r="ABZ2" s="13"/>
-      <c r="ACA2" s="13"/>
-      <c r="ACB2" s="13"/>
-      <c r="ACC2" s="13"/>
-      <c r="ACD2" s="13"/>
-      <c r="ACE2" s="13"/>
-      <c r="ACF2" s="13"/>
-      <c r="ACG2" s="13"/>
-      <c r="ACH2" s="13"/>
-      <c r="ACI2" s="13"/>
-      <c r="ACJ2" s="13"/>
-      <c r="ACK2" s="13"/>
-      <c r="ACL2" s="13"/>
-      <c r="ACM2" s="13"/>
-      <c r="ACN2" s="13"/>
-      <c r="ACO2" s="13"/>
-      <c r="ACP2" s="13"/>
-      <c r="ACQ2" s="13"/>
-      <c r="ACR2" s="13"/>
-      <c r="ACS2" s="13"/>
-      <c r="ACT2" s="13"/>
-      <c r="ACU2" s="13"/>
-      <c r="ACV2" s="13"/>
-      <c r="ACW2" s="13"/>
-      <c r="ACX2" s="13"/>
-      <c r="ACY2" s="13"/>
-      <c r="ACZ2" s="13"/>
-      <c r="ADA2" s="13"/>
-      <c r="ADB2" s="13"/>
-      <c r="ADC2" s="13"/>
-      <c r="ADD2" s="13"/>
-      <c r="ADE2" s="13"/>
-      <c r="ADF2" s="13"/>
-      <c r="ADG2" s="13"/>
-      <c r="ADH2" s="13"/>
-      <c r="ADI2" s="13"/>
-      <c r="ADJ2" s="13"/>
-      <c r="ADK2" s="13"/>
-      <c r="ADL2" s="13"/>
-      <c r="ADM2" s="13"/>
-      <c r="ADN2" s="13"/>
-      <c r="ADO2" s="13"/>
-      <c r="ADP2" s="13"/>
-      <c r="ADQ2" s="13"/>
-      <c r="ADR2" s="13"/>
-      <c r="ADS2" s="13"/>
-      <c r="ADT2" s="13"/>
-      <c r="ADU2" s="13"/>
-      <c r="ADV2" s="13"/>
-      <c r="ADW2" s="13"/>
-      <c r="ADX2" s="13"/>
-      <c r="ADY2" s="13"/>
-      <c r="ADZ2" s="13"/>
-      <c r="AEA2" s="13"/>
-      <c r="AEB2" s="13"/>
-      <c r="AEC2" s="13"/>
-      <c r="AED2" s="13"/>
-      <c r="AEE2" s="13"/>
-      <c r="AEF2" s="13"/>
-      <c r="AEG2" s="13"/>
-      <c r="AEH2" s="13"/>
-      <c r="AEI2" s="13"/>
-      <c r="AEJ2" s="13"/>
-      <c r="AEK2" s="13"/>
-      <c r="AEL2" s="13"/>
-      <c r="AEM2" s="13"/>
-      <c r="AEN2" s="13"/>
-      <c r="AEO2" s="13"/>
-      <c r="AEP2" s="13"/>
-      <c r="AEQ2" s="13"/>
-      <c r="AER2" s="13"/>
-      <c r="AES2" s="13"/>
-      <c r="AET2" s="13"/>
-      <c r="AEU2" s="13"/>
-      <c r="AEV2" s="13"/>
-      <c r="AEW2" s="13"/>
-      <c r="AEX2" s="13"/>
-      <c r="AEY2" s="13"/>
-      <c r="AEZ2" s="13"/>
-      <c r="AFA2" s="13"/>
-      <c r="AFB2" s="13"/>
-      <c r="AFC2" s="13"/>
-      <c r="AFD2" s="13"/>
-      <c r="AFE2" s="13"/>
-      <c r="AFF2" s="13"/>
-      <c r="AFG2" s="13"/>
-      <c r="AFH2" s="13"/>
-      <c r="AFI2" s="13"/>
-      <c r="AFJ2" s="13"/>
-      <c r="AFK2" s="13"/>
-      <c r="AFL2" s="13"/>
-      <c r="AFM2" s="13"/>
-      <c r="AFN2" s="13"/>
-      <c r="AFO2" s="13"/>
-      <c r="AFP2" s="13"/>
-      <c r="AFQ2" s="13"/>
-      <c r="AFR2" s="13"/>
-      <c r="AFS2" s="13"/>
-      <c r="AFT2" s="13"/>
-      <c r="AFU2" s="13"/>
-      <c r="AFV2" s="13"/>
-      <c r="AFW2" s="13"/>
-      <c r="AFX2" s="13"/>
-      <c r="AFY2" s="13"/>
-      <c r="AFZ2" s="13"/>
-      <c r="AGA2" s="13"/>
-      <c r="AGB2" s="13"/>
-      <c r="AGC2" s="13"/>
-      <c r="AGD2" s="13"/>
-      <c r="AGE2" s="13"/>
-      <c r="AGF2" s="13"/>
-      <c r="AGG2" s="13"/>
-      <c r="AGH2" s="13"/>
-      <c r="AGI2" s="13"/>
-      <c r="AGJ2" s="13"/>
-      <c r="AGK2" s="13"/>
-      <c r="AGL2" s="13"/>
-      <c r="AGM2" s="13"/>
-      <c r="AGN2" s="13"/>
-      <c r="AGO2" s="13"/>
-      <c r="AGP2" s="13"/>
-      <c r="AGQ2" s="13"/>
-      <c r="AGR2" s="13"/>
-      <c r="AGS2" s="13"/>
-      <c r="AGT2" s="13"/>
-      <c r="AGU2" s="13"/>
-      <c r="AGV2" s="13"/>
-      <c r="AGW2" s="13"/>
-      <c r="AGX2" s="13"/>
-      <c r="AGY2" s="13"/>
-      <c r="AGZ2" s="13"/>
-      <c r="AHA2" s="13"/>
-      <c r="AHB2" s="13"/>
-      <c r="AHC2" s="13"/>
-      <c r="AHD2" s="13"/>
-      <c r="AHE2" s="13"/>
-      <c r="AHF2" s="13"/>
-      <c r="AHG2" s="13"/>
-      <c r="AHH2" s="13"/>
-      <c r="AHI2" s="13"/>
-      <c r="AHJ2" s="13"/>
-      <c r="AHK2" s="13"/>
-      <c r="AHL2" s="13"/>
-      <c r="AHM2" s="13"/>
-      <c r="AHN2" s="13"/>
-      <c r="AHO2" s="13"/>
-      <c r="AHP2" s="13"/>
-      <c r="AHQ2" s="13"/>
-      <c r="AHR2" s="13"/>
-      <c r="AHS2" s="13"/>
-      <c r="AHT2" s="13"/>
-      <c r="AHU2" s="13"/>
-      <c r="AHV2" s="13"/>
-      <c r="AHW2" s="13"/>
-      <c r="AHX2" s="13"/>
-      <c r="AHY2" s="13"/>
-      <c r="AHZ2" s="13"/>
-      <c r="AIA2" s="13"/>
-      <c r="AIB2" s="13"/>
-      <c r="AIC2" s="13"/>
-      <c r="AID2" s="13"/>
-      <c r="AIE2" s="13"/>
-      <c r="AIF2" s="13"/>
-      <c r="AIG2" s="13"/>
-      <c r="AIH2" s="13"/>
-      <c r="AII2" s="13"/>
-      <c r="AIJ2" s="13"/>
-      <c r="AIK2" s="13"/>
-      <c r="AIL2" s="13"/>
-      <c r="AIM2" s="13"/>
-      <c r="AIN2" s="13"/>
-      <c r="AIO2" s="13"/>
-      <c r="AIP2" s="13"/>
-      <c r="AIQ2" s="13"/>
-      <c r="AIR2" s="13"/>
-      <c r="AIS2" s="13"/>
-      <c r="AIT2" s="13"/>
-      <c r="AIU2" s="13"/>
-      <c r="AIV2" s="13"/>
-      <c r="AIW2" s="13"/>
-      <c r="AIX2" s="13"/>
-      <c r="AIY2" s="13"/>
-      <c r="AIZ2" s="13"/>
-      <c r="AJA2" s="13"/>
-      <c r="AJB2" s="13"/>
-      <c r="AJC2" s="13"/>
-      <c r="AJD2" s="13"/>
-      <c r="AJE2" s="13"/>
-      <c r="AJF2" s="13"/>
-      <c r="AJG2" s="13"/>
-      <c r="AJH2" s="13"/>
-      <c r="AJI2" s="13"/>
-      <c r="AJJ2" s="13"/>
-      <c r="AJK2" s="13"/>
-      <c r="AJL2" s="13"/>
-      <c r="AJM2" s="13"/>
-      <c r="AJN2" s="13"/>
-      <c r="AJO2" s="13"/>
-      <c r="AJP2" s="13"/>
-      <c r="AJQ2" s="13"/>
-      <c r="AJR2" s="13"/>
-      <c r="AJS2" s="13"/>
-      <c r="AJT2" s="13"/>
-      <c r="AJU2" s="13"/>
-      <c r="AJV2" s="13"/>
-      <c r="AJW2" s="13"/>
-      <c r="AJX2" s="13"/>
-      <c r="AJY2" s="13"/>
-      <c r="AJZ2" s="13"/>
-      <c r="AKA2" s="13"/>
-      <c r="AKB2" s="13"/>
-      <c r="AKC2" s="13"/>
-      <c r="AKD2" s="13"/>
-      <c r="AKE2" s="13"/>
-      <c r="AKF2" s="13"/>
-      <c r="AKG2" s="13"/>
-      <c r="AKH2" s="13"/>
-      <c r="AKI2" s="13"/>
-      <c r="AKJ2" s="13"/>
-      <c r="AKK2" s="13"/>
-      <c r="AKL2" s="13"/>
-      <c r="AKM2" s="13"/>
-      <c r="AKN2" s="13"/>
-      <c r="AKO2" s="13"/>
-      <c r="AKP2" s="13"/>
-      <c r="AKQ2" s="13"/>
-      <c r="AKR2" s="13"/>
-      <c r="AKS2" s="13"/>
-      <c r="AKT2" s="13"/>
-      <c r="AKU2" s="13"/>
-      <c r="AKV2" s="13"/>
-      <c r="AKW2" s="13"/>
-      <c r="AKX2" s="13"/>
-      <c r="AKY2" s="13"/>
-      <c r="AKZ2" s="13"/>
-      <c r="ALA2" s="13"/>
-      <c r="ALB2" s="13"/>
-      <c r="ALC2" s="13"/>
-      <c r="ALD2" s="13"/>
-      <c r="ALE2" s="13"/>
-      <c r="ALF2" s="13"/>
-      <c r="ALG2" s="13"/>
-      <c r="ALH2" s="13"/>
-      <c r="ALI2" s="13"/>
-      <c r="ALJ2" s="13"/>
-      <c r="ALK2" s="13"/>
-      <c r="ALL2" s="13"/>
-      <c r="ALM2" s="13"/>
-      <c r="ALN2" s="13"/>
-      <c r="ALO2" s="13"/>
-      <c r="ALP2" s="13"/>
-      <c r="ALQ2" s="13"/>
-      <c r="ALR2" s="13"/>
-      <c r="ALS2" s="13"/>
-      <c r="ALT2" s="13"/>
-      <c r="ALU2" s="13"/>
-      <c r="ALV2" s="13"/>
-      <c r="ALW2" s="13"/>
-      <c r="ALX2" s="13"/>
-      <c r="ALY2" s="13"/>
-      <c r="ALZ2" s="13"/>
-      <c r="AMA2" s="13"/>
-      <c r="AMB2" s="13"/>
-      <c r="AMC2" s="13"/>
-      <c r="AMD2" s="13"/>
-      <c r="AME2" s="13"/>
-      <c r="AMF2" s="13"/>
-      <c r="AMG2" s="13"/>
-      <c r="AMH2" s="13"/>
-      <c r="AMI2" s="13"/>
-      <c r="AMJ2" s="13"/>
-      <c r="AMK2" s="13"/>
-      <c r="AML2" s="13"/>
-      <c r="AMM2" s="13"/>
-      <c r="AMN2" s="13"/>
-      <c r="AMO2" s="13"/>
-      <c r="AMP2" s="13"/>
-      <c r="AMQ2"/>
-      <c r="AMR2"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12"/>
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12"/>
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12"/>
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12"/>
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12"/>
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12"/>
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+      <c r="FC2" s="12"/>
+      <c r="FD2" s="12"/>
+      <c r="FE2" s="12"/>
+      <c r="FF2" s="12"/>
+      <c r="FG2" s="12"/>
+      <c r="FH2" s="12"/>
+      <c r="FI2" s="12"/>
+      <c r="FJ2" s="12"/>
+      <c r="FK2" s="12"/>
+      <c r="FL2" s="12"/>
+      <c r="FM2" s="12"/>
+      <c r="FN2" s="12"/>
+      <c r="FO2" s="12"/>
+      <c r="FP2" s="12"/>
+      <c r="FQ2" s="12"/>
+      <c r="FR2" s="12"/>
+      <c r="FS2" s="12"/>
+      <c r="FT2" s="12"/>
+      <c r="FU2" s="12"/>
+      <c r="FV2" s="12"/>
+      <c r="FW2" s="12"/>
+      <c r="FX2" s="12"/>
+      <c r="FY2" s="12"/>
+      <c r="FZ2" s="12"/>
+      <c r="GA2" s="12"/>
+      <c r="GB2" s="12"/>
+      <c r="GC2" s="12"/>
+      <c r="GD2" s="12"/>
+      <c r="GE2" s="12"/>
+      <c r="GF2" s="12"/>
+      <c r="GG2" s="12"/>
+      <c r="GH2" s="12"/>
+      <c r="GI2" s="12"/>
+      <c r="GJ2" s="12"/>
+      <c r="GK2" s="12"/>
+      <c r="GL2" s="12"/>
+      <c r="GM2" s="12"/>
+      <c r="GN2" s="12"/>
+      <c r="GO2" s="12"/>
+      <c r="GP2" s="12"/>
+      <c r="GQ2" s="12"/>
+      <c r="GR2" s="12"/>
+      <c r="GS2" s="12"/>
+      <c r="GT2" s="12"/>
+      <c r="GU2" s="12"/>
+      <c r="GV2" s="12"/>
+      <c r="GW2" s="12"/>
+      <c r="GX2" s="12"/>
+      <c r="GY2" s="12"/>
+      <c r="GZ2" s="12"/>
+      <c r="HA2" s="12"/>
+      <c r="HB2" s="12"/>
+      <c r="HC2" s="12"/>
+      <c r="HD2" s="12"/>
+      <c r="HE2" s="12"/>
+      <c r="HF2" s="12"/>
+      <c r="HG2" s="12"/>
+      <c r="HH2" s="12"/>
+      <c r="HI2" s="12"/>
+      <c r="HJ2" s="12"/>
+      <c r="HK2" s="12"/>
+      <c r="HL2" s="12"/>
+      <c r="HM2" s="12"/>
+      <c r="HN2" s="12"/>
+      <c r="HO2" s="12"/>
+      <c r="HP2" s="12"/>
+      <c r="HQ2" s="12"/>
+      <c r="HR2" s="12"/>
+      <c r="HS2" s="12"/>
+      <c r="HT2" s="12"/>
+      <c r="HU2" s="12"/>
+      <c r="HV2" s="12"/>
+      <c r="HW2" s="12"/>
+      <c r="HX2" s="12"/>
+      <c r="HY2" s="12"/>
+      <c r="HZ2" s="12"/>
+      <c r="IA2" s="12"/>
+      <c r="IB2" s="12"/>
+      <c r="IC2" s="12"/>
+      <c r="ID2" s="12"/>
+      <c r="IE2" s="12"/>
+      <c r="IF2" s="12"/>
+      <c r="IG2" s="12"/>
+      <c r="IH2" s="12"/>
+      <c r="II2" s="12"/>
+      <c r="IJ2" s="12"/>
+      <c r="IK2" s="12"/>
+      <c r="IL2" s="12"/>
+      <c r="IM2" s="12"/>
+      <c r="IN2" s="12"/>
+      <c r="IO2" s="12"/>
+      <c r="IP2" s="12"/>
+      <c r="IQ2" s="12"/>
+      <c r="IR2" s="12"/>
+      <c r="IS2" s="12"/>
+      <c r="IT2" s="12"/>
+      <c r="IU2" s="12"/>
+      <c r="IV2" s="12"/>
+      <c r="IW2" s="12"/>
+      <c r="IX2" s="12"/>
+      <c r="IY2" s="12"/>
+      <c r="IZ2" s="12"/>
+      <c r="JA2" s="12"/>
+      <c r="JB2" s="12"/>
+      <c r="JC2" s="12"/>
+      <c r="JD2" s="12"/>
+      <c r="JE2" s="12"/>
+      <c r="JF2" s="12"/>
+      <c r="JG2" s="12"/>
+      <c r="JH2" s="12"/>
+      <c r="JI2" s="12"/>
+      <c r="JJ2" s="12"/>
+      <c r="JK2" s="12"/>
+      <c r="JL2" s="12"/>
+      <c r="JM2" s="12"/>
+      <c r="JN2" s="12"/>
+      <c r="JO2" s="12"/>
+      <c r="JP2" s="12"/>
+      <c r="JQ2" s="12"/>
+      <c r="JR2" s="12"/>
+      <c r="JS2" s="12"/>
+      <c r="JT2" s="12"/>
+      <c r="JU2" s="12"/>
+      <c r="JV2" s="12"/>
+      <c r="JW2" s="12"/>
+      <c r="JX2" s="12"/>
+      <c r="JY2" s="12"/>
+      <c r="JZ2" s="12"/>
+      <c r="KA2" s="12"/>
+      <c r="KB2" s="12"/>
+      <c r="KC2" s="12"/>
+      <c r="KD2" s="12"/>
+      <c r="KE2" s="12"/>
+      <c r="KF2" s="12"/>
+      <c r="KG2" s="12"/>
+      <c r="KH2" s="12"/>
+      <c r="KI2" s="12"/>
+      <c r="KJ2" s="12"/>
+      <c r="KK2" s="12"/>
+      <c r="KL2" s="12"/>
+      <c r="KM2" s="12"/>
+      <c r="KN2" s="12"/>
+      <c r="KO2" s="12"/>
+      <c r="KP2" s="12"/>
+      <c r="KQ2" s="12"/>
+      <c r="KR2" s="12"/>
+      <c r="KS2" s="12"/>
+      <c r="KT2" s="12"/>
+      <c r="KU2" s="12"/>
+      <c r="KV2" s="12"/>
+      <c r="KW2" s="12"/>
+      <c r="KX2" s="12"/>
+      <c r="KY2" s="12"/>
+      <c r="KZ2" s="12"/>
+      <c r="LA2" s="12"/>
+      <c r="LB2" s="12"/>
+      <c r="LC2" s="12"/>
+      <c r="LD2" s="12"/>
+      <c r="LE2" s="12"/>
+      <c r="LF2" s="12"/>
+      <c r="LG2" s="12"/>
+      <c r="LH2" s="12"/>
+      <c r="LI2" s="12"/>
+      <c r="LJ2" s="12"/>
+      <c r="LK2" s="12"/>
+      <c r="LL2" s="12"/>
+      <c r="LM2" s="12"/>
+      <c r="LN2" s="12"/>
+      <c r="LO2" s="12"/>
+      <c r="LP2" s="12"/>
+      <c r="LQ2" s="12"/>
+      <c r="LR2" s="12"/>
+      <c r="LS2" s="12"/>
+      <c r="LT2" s="12"/>
+      <c r="LU2" s="12"/>
+      <c r="LV2" s="12"/>
+      <c r="LW2" s="12"/>
+      <c r="LX2" s="12"/>
+      <c r="LY2" s="12"/>
+      <c r="LZ2" s="12"/>
+      <c r="MA2" s="12"/>
+      <c r="MB2" s="12"/>
+      <c r="MC2" s="12"/>
+      <c r="MD2" s="12"/>
+      <c r="ME2" s="12"/>
+      <c r="MF2" s="12"/>
+      <c r="MG2" s="12"/>
+      <c r="MH2" s="12"/>
+      <c r="MI2" s="12"/>
+      <c r="MJ2" s="12"/>
+      <c r="MK2" s="12"/>
+      <c r="ML2" s="12"/>
+      <c r="MM2" s="12"/>
+      <c r="MN2" s="12"/>
+      <c r="MO2" s="12"/>
+      <c r="MP2" s="12"/>
+      <c r="MQ2" s="12"/>
+      <c r="MR2" s="12"/>
+      <c r="MS2" s="12"/>
+      <c r="MT2" s="12"/>
+      <c r="MU2" s="12"/>
+      <c r="MV2" s="12"/>
+      <c r="MW2" s="12"/>
+      <c r="MX2" s="12"/>
+      <c r="MY2" s="12"/>
+      <c r="MZ2" s="12"/>
+      <c r="NA2" s="12"/>
+      <c r="NB2" s="12"/>
+      <c r="NC2" s="12"/>
+      <c r="ND2" s="12"/>
+      <c r="NE2" s="12"/>
+      <c r="NF2" s="12"/>
+      <c r="NG2" s="12"/>
+      <c r="NH2" s="12"/>
+      <c r="NI2" s="12"/>
+      <c r="NJ2" s="12"/>
+      <c r="NK2" s="12"/>
+      <c r="NL2" s="12"/>
+      <c r="NM2" s="12"/>
+      <c r="NN2" s="12"/>
+      <c r="NO2" s="12"/>
+      <c r="NP2" s="12"/>
+      <c r="NQ2" s="12"/>
+      <c r="NR2" s="12"/>
+      <c r="NS2" s="12"/>
+      <c r="NT2" s="12"/>
+      <c r="NU2" s="12"/>
+      <c r="NV2" s="12"/>
+      <c r="NW2" s="12"/>
+      <c r="NX2" s="12"/>
+      <c r="NY2" s="12"/>
+      <c r="NZ2" s="12"/>
+      <c r="OA2" s="12"/>
+      <c r="OB2" s="12"/>
+      <c r="OC2" s="12"/>
+      <c r="OD2" s="12"/>
+      <c r="OE2" s="12"/>
+      <c r="OF2" s="12"/>
+      <c r="OG2" s="12"/>
+      <c r="OH2" s="12"/>
+      <c r="OI2" s="12"/>
+      <c r="OJ2" s="12"/>
+      <c r="OK2" s="12"/>
+      <c r="OL2" s="12"/>
+      <c r="OM2" s="12"/>
+      <c r="ON2" s="12"/>
+      <c r="OO2" s="12"/>
+      <c r="OP2" s="12"/>
+      <c r="OQ2" s="12"/>
+      <c r="OR2" s="12"/>
+      <c r="OS2" s="12"/>
+      <c r="OT2" s="12"/>
+      <c r="OU2" s="12"/>
+      <c r="OV2" s="12"/>
+      <c r="OW2" s="12"/>
+      <c r="OX2" s="12"/>
+      <c r="OY2" s="12"/>
+      <c r="OZ2" s="12"/>
+      <c r="PA2" s="12"/>
+      <c r="PB2" s="12"/>
+      <c r="PC2" s="12"/>
+      <c r="PD2" s="12"/>
+      <c r="PE2" s="12"/>
+      <c r="PF2" s="12"/>
+      <c r="PG2" s="12"/>
+      <c r="PH2" s="12"/>
+      <c r="PI2" s="12"/>
+      <c r="PJ2" s="12"/>
+      <c r="PK2" s="12"/>
+      <c r="PL2" s="12"/>
+      <c r="PM2" s="12"/>
+      <c r="PN2" s="12"/>
+      <c r="PO2" s="12"/>
+      <c r="PP2" s="12"/>
+      <c r="PQ2" s="12"/>
+      <c r="PR2" s="12"/>
+      <c r="PS2" s="12"/>
+      <c r="PT2" s="12"/>
+      <c r="PU2" s="12"/>
+      <c r="PV2" s="12"/>
+      <c r="PW2" s="12"/>
+      <c r="PX2" s="12"/>
+      <c r="PY2" s="12"/>
+      <c r="PZ2" s="12"/>
+      <c r="QA2" s="12"/>
+      <c r="QB2" s="12"/>
+      <c r="QC2" s="12"/>
+      <c r="QD2" s="12"/>
+      <c r="QE2" s="12"/>
+      <c r="QF2" s="12"/>
+      <c r="QG2" s="12"/>
+      <c r="QH2" s="12"/>
+      <c r="QI2" s="12"/>
+      <c r="QJ2" s="12"/>
+      <c r="QK2" s="12"/>
+      <c r="QL2" s="12"/>
+      <c r="QM2" s="12"/>
+      <c r="QN2" s="12"/>
+      <c r="QO2" s="12"/>
+      <c r="QP2" s="12"/>
+      <c r="QQ2" s="12"/>
+      <c r="QR2" s="12"/>
+      <c r="QS2" s="12"/>
+      <c r="QT2" s="12"/>
+      <c r="QU2" s="12"/>
+      <c r="QV2" s="12"/>
+      <c r="QW2" s="12"/>
+      <c r="QX2" s="12"/>
+      <c r="QY2" s="12"/>
+      <c r="QZ2" s="12"/>
+      <c r="RA2" s="12"/>
+      <c r="RB2" s="12"/>
+      <c r="RC2" s="12"/>
+      <c r="RD2" s="12"/>
+      <c r="RE2" s="12"/>
+      <c r="RF2" s="12"/>
+      <c r="RG2" s="12"/>
+      <c r="RH2" s="12"/>
+      <c r="RI2" s="12"/>
+      <c r="RJ2" s="12"/>
+      <c r="RK2" s="12"/>
+      <c r="RL2" s="12"/>
+      <c r="RM2" s="12"/>
+      <c r="RN2" s="12"/>
+      <c r="RO2" s="12"/>
+      <c r="RP2" s="12"/>
+      <c r="RQ2" s="12"/>
+      <c r="RR2" s="12"/>
+      <c r="RS2" s="12"/>
+      <c r="RT2" s="12"/>
+      <c r="RU2" s="12"/>
+      <c r="RV2" s="12"/>
+      <c r="RW2" s="12"/>
+      <c r="RX2" s="12"/>
+      <c r="RY2" s="12"/>
+      <c r="RZ2" s="12"/>
+      <c r="SA2" s="12"/>
+      <c r="SB2" s="12"/>
+      <c r="SC2" s="12"/>
+      <c r="SD2" s="12"/>
+      <c r="SE2" s="12"/>
+      <c r="SF2" s="12"/>
+      <c r="SG2" s="12"/>
+      <c r="SH2" s="12"/>
+      <c r="SI2" s="12"/>
+      <c r="SJ2" s="12"/>
+      <c r="SK2" s="12"/>
+      <c r="SL2" s="12"/>
+      <c r="SM2" s="12"/>
+      <c r="SN2" s="12"/>
+      <c r="SO2" s="12"/>
+      <c r="SP2" s="12"/>
+      <c r="SQ2" s="12"/>
+      <c r="SR2" s="12"/>
+      <c r="SS2" s="12"/>
+      <c r="ST2" s="12"/>
+      <c r="SU2" s="12"/>
+      <c r="SV2" s="12"/>
+      <c r="SW2" s="12"/>
+      <c r="SX2" s="12"/>
+      <c r="SY2" s="12"/>
+      <c r="SZ2" s="12"/>
+      <c r="TA2" s="12"/>
+      <c r="TB2" s="12"/>
+      <c r="TC2" s="12"/>
+      <c r="TD2" s="12"/>
+      <c r="TE2" s="12"/>
+      <c r="TF2" s="12"/>
+      <c r="TG2" s="12"/>
+      <c r="TH2" s="12"/>
+      <c r="TI2" s="12"/>
+      <c r="TJ2" s="12"/>
+      <c r="TK2" s="12"/>
+      <c r="TL2" s="12"/>
+      <c r="TM2" s="12"/>
+      <c r="TN2" s="12"/>
+      <c r="TO2" s="12"/>
+      <c r="TP2" s="12"/>
+      <c r="TQ2" s="12"/>
+      <c r="TR2" s="12"/>
+      <c r="TS2" s="12"/>
+      <c r="TT2" s="12"/>
+      <c r="TU2" s="12"/>
+      <c r="TV2" s="12"/>
+      <c r="TW2" s="12"/>
+      <c r="TX2" s="12"/>
+      <c r="TY2" s="12"/>
+      <c r="TZ2" s="12"/>
+      <c r="UA2" s="12"/>
+      <c r="UB2" s="12"/>
+      <c r="UC2" s="12"/>
+      <c r="UD2" s="12"/>
+      <c r="UE2" s="12"/>
+      <c r="UF2" s="12"/>
+      <c r="UG2" s="12"/>
+      <c r="UH2" s="12"/>
+      <c r="UI2" s="12"/>
+      <c r="UJ2" s="12"/>
+      <c r="UK2" s="12"/>
+      <c r="UL2" s="12"/>
+      <c r="UM2" s="12"/>
+      <c r="UN2" s="12"/>
+      <c r="UO2" s="12"/>
+      <c r="UP2" s="12"/>
+      <c r="UQ2" s="12"/>
+      <c r="UR2" s="12"/>
+      <c r="US2" s="12"/>
+      <c r="UT2" s="12"/>
+      <c r="UU2" s="12"/>
+      <c r="UV2" s="12"/>
+      <c r="UW2" s="12"/>
+      <c r="UX2" s="12"/>
+      <c r="UY2" s="12"/>
+      <c r="UZ2" s="12"/>
+      <c r="VA2" s="12"/>
+      <c r="VB2" s="12"/>
+      <c r="VC2" s="12"/>
+      <c r="VD2" s="12"/>
+      <c r="VE2" s="12"/>
+      <c r="VF2" s="12"/>
+      <c r="VG2" s="12"/>
+      <c r="VH2" s="12"/>
+      <c r="VI2" s="12"/>
+      <c r="VJ2" s="12"/>
+      <c r="VK2" s="12"/>
+      <c r="VL2" s="12"/>
+      <c r="VM2" s="12"/>
+      <c r="VN2" s="12"/>
+      <c r="VO2" s="12"/>
+      <c r="VP2" s="12"/>
+      <c r="VQ2" s="12"/>
+      <c r="VR2" s="12"/>
+      <c r="VS2" s="12"/>
+      <c r="VT2" s="12"/>
+      <c r="VU2" s="12"/>
+      <c r="VV2" s="12"/>
+      <c r="VW2" s="12"/>
+      <c r="VX2" s="12"/>
+      <c r="VY2" s="12"/>
+      <c r="VZ2" s="12"/>
+      <c r="WA2" s="12"/>
+      <c r="WB2" s="12"/>
+      <c r="WC2" s="12"/>
+      <c r="WD2" s="12"/>
+      <c r="WE2" s="12"/>
+      <c r="WF2" s="12"/>
+      <c r="WG2" s="12"/>
+      <c r="WH2" s="12"/>
+      <c r="WI2" s="12"/>
+      <c r="WJ2" s="12"/>
+      <c r="WK2" s="12"/>
+      <c r="WL2" s="12"/>
+      <c r="WM2" s="12"/>
+      <c r="WN2" s="12"/>
+      <c r="WO2" s="12"/>
+      <c r="WP2" s="12"/>
+      <c r="WQ2" s="12"/>
+      <c r="WR2" s="12"/>
+      <c r="WS2" s="12"/>
+      <c r="WT2" s="12"/>
+      <c r="WU2" s="12"/>
+      <c r="WV2" s="12"/>
+      <c r="WW2" s="12"/>
+      <c r="WX2" s="12"/>
+      <c r="WY2" s="12"/>
+      <c r="WZ2" s="12"/>
+      <c r="XA2" s="12"/>
+      <c r="XB2" s="12"/>
+      <c r="XC2" s="12"/>
+      <c r="XD2" s="12"/>
+      <c r="XE2" s="12"/>
+      <c r="XF2" s="12"/>
+      <c r="XG2" s="12"/>
+      <c r="XH2" s="12"/>
+      <c r="XI2" s="12"/>
+      <c r="XJ2" s="12"/>
+      <c r="XK2" s="12"/>
+      <c r="XL2" s="12"/>
+      <c r="XM2" s="12"/>
+      <c r="XN2" s="12"/>
+      <c r="XO2" s="12"/>
+      <c r="XP2" s="12"/>
+      <c r="XQ2" s="12"/>
+      <c r="XR2" s="12"/>
+      <c r="XS2" s="12"/>
+      <c r="XT2" s="12"/>
+      <c r="XU2" s="12"/>
+      <c r="XV2" s="12"/>
+      <c r="XW2" s="12"/>
+      <c r="XX2" s="12"/>
+      <c r="XY2" s="12"/>
+      <c r="XZ2" s="12"/>
+      <c r="YA2" s="12"/>
+      <c r="YB2" s="12"/>
+      <c r="YC2" s="12"/>
+      <c r="YD2" s="12"/>
+      <c r="YE2" s="12"/>
+      <c r="YF2" s="12"/>
+      <c r="YG2" s="12"/>
+      <c r="YH2" s="12"/>
+      <c r="YI2" s="12"/>
+      <c r="YJ2" s="12"/>
+      <c r="YK2" s="12"/>
+      <c r="YL2" s="12"/>
+      <c r="YM2" s="12"/>
+      <c r="YN2" s="12"/>
+      <c r="YO2" s="12"/>
+      <c r="YP2" s="12"/>
+      <c r="YQ2" s="12"/>
+      <c r="YR2" s="12"/>
+      <c r="YS2" s="12"/>
+      <c r="YT2" s="12"/>
+      <c r="YU2" s="12"/>
+      <c r="YV2" s="12"/>
+      <c r="YW2" s="12"/>
+      <c r="YX2" s="12"/>
+      <c r="YY2" s="12"/>
+      <c r="YZ2" s="12"/>
+      <c r="ZA2" s="12"/>
+      <c r="ZB2" s="12"/>
+      <c r="ZC2" s="12"/>
+      <c r="ZD2" s="12"/>
+      <c r="ZE2" s="12"/>
+      <c r="ZF2" s="12"/>
+      <c r="ZG2" s="12"/>
+      <c r="ZH2" s="12"/>
+      <c r="ZI2" s="12"/>
+      <c r="ZJ2" s="12"/>
+      <c r="ZK2" s="12"/>
+      <c r="ZL2" s="12"/>
+      <c r="ZM2" s="12"/>
+      <c r="ZN2" s="12"/>
+      <c r="ZO2" s="12"/>
+      <c r="ZP2" s="12"/>
+      <c r="ZQ2" s="12"/>
+      <c r="ZR2" s="12"/>
+      <c r="ZS2" s="12"/>
+      <c r="ZT2" s="12"/>
+      <c r="ZU2" s="12"/>
+      <c r="ZV2" s="12"/>
+      <c r="ZW2" s="12"/>
+      <c r="ZX2" s="12"/>
+      <c r="ZY2" s="12"/>
+      <c r="ZZ2" s="12"/>
+      <c r="AAA2" s="12"/>
+      <c r="AAB2" s="12"/>
+      <c r="AAC2" s="12"/>
+      <c r="AAD2" s="12"/>
+      <c r="AAE2" s="12"/>
+      <c r="AAF2" s="12"/>
+      <c r="AAG2" s="12"/>
+      <c r="AAH2" s="12"/>
+      <c r="AAI2" s="12"/>
+      <c r="AAJ2" s="12"/>
+      <c r="AAK2" s="12"/>
+      <c r="AAL2" s="12"/>
+      <c r="AAM2" s="12"/>
+      <c r="AAN2" s="12"/>
+      <c r="AAO2" s="12"/>
+      <c r="AAP2" s="12"/>
+      <c r="AAQ2" s="12"/>
+      <c r="AAR2" s="12"/>
+      <c r="AAS2" s="12"/>
+      <c r="AAT2" s="12"/>
+      <c r="AAU2" s="12"/>
+      <c r="AAV2" s="12"/>
+      <c r="AAW2" s="12"/>
+      <c r="AAX2" s="12"/>
+      <c r="AAY2" s="12"/>
+      <c r="AAZ2" s="12"/>
+      <c r="ABA2" s="12"/>
+      <c r="ABB2" s="12"/>
+      <c r="ABC2" s="12"/>
+      <c r="ABD2" s="12"/>
+      <c r="ABE2" s="12"/>
+      <c r="ABF2" s="12"/>
+      <c r="ABG2" s="12"/>
+      <c r="ABH2" s="12"/>
+      <c r="ABI2" s="12"/>
+      <c r="ABJ2" s="12"/>
+      <c r="ABK2" s="12"/>
+      <c r="ABL2" s="12"/>
+      <c r="ABM2" s="12"/>
+      <c r="ABN2" s="12"/>
+      <c r="ABO2" s="12"/>
+      <c r="ABP2" s="12"/>
+      <c r="ABQ2" s="12"/>
+      <c r="ABR2" s="12"/>
+      <c r="ABS2" s="12"/>
+      <c r="ABT2" s="12"/>
+      <c r="ABU2" s="12"/>
+      <c r="ABV2" s="12"/>
+      <c r="ABW2" s="12"/>
+      <c r="ABX2" s="12"/>
+      <c r="ABY2" s="12"/>
+      <c r="ABZ2" s="12"/>
+      <c r="ACA2" s="12"/>
+      <c r="ACB2" s="12"/>
+      <c r="ACC2" s="12"/>
+      <c r="ACD2" s="12"/>
+      <c r="ACE2" s="12"/>
+      <c r="ACF2" s="12"/>
+      <c r="ACG2" s="12"/>
+      <c r="ACH2" s="12"/>
+      <c r="ACI2" s="12"/>
+      <c r="ACJ2" s="12"/>
+      <c r="ACK2" s="12"/>
+      <c r="ACL2" s="12"/>
+      <c r="ACM2" s="12"/>
+      <c r="ACN2" s="12"/>
+      <c r="ACO2" s="12"/>
+      <c r="ACP2" s="12"/>
+      <c r="ACQ2" s="12"/>
+      <c r="ACR2" s="12"/>
+      <c r="ACS2" s="12"/>
+      <c r="ACT2" s="12"/>
+      <c r="ACU2" s="12"/>
+      <c r="ACV2" s="12"/>
+      <c r="ACW2" s="12"/>
+      <c r="ACX2" s="12"/>
+      <c r="ACY2" s="12"/>
+      <c r="ACZ2" s="12"/>
+      <c r="ADA2" s="12"/>
+      <c r="ADB2" s="12"/>
+      <c r="ADC2" s="12"/>
+      <c r="ADD2" s="12"/>
+      <c r="ADE2" s="12"/>
+      <c r="ADF2" s="12"/>
+      <c r="ADG2" s="12"/>
+      <c r="ADH2" s="12"/>
+      <c r="ADI2" s="12"/>
+      <c r="ADJ2" s="12"/>
+      <c r="ADK2" s="12"/>
+      <c r="ADL2" s="12"/>
+      <c r="ADM2" s="12"/>
+      <c r="ADN2" s="12"/>
+      <c r="ADO2" s="12"/>
+      <c r="ADP2" s="12"/>
+      <c r="ADQ2" s="12"/>
+      <c r="ADR2" s="12"/>
+      <c r="ADS2" s="12"/>
+      <c r="ADT2" s="12"/>
+      <c r="ADU2" s="12"/>
+      <c r="ADV2" s="12"/>
+      <c r="ADW2" s="12"/>
+      <c r="ADX2" s="12"/>
+      <c r="ADY2" s="12"/>
+      <c r="ADZ2" s="12"/>
+      <c r="AEA2" s="12"/>
+      <c r="AEB2" s="12"/>
+      <c r="AEC2" s="12"/>
+      <c r="AED2" s="12"/>
+      <c r="AEE2" s="12"/>
+      <c r="AEF2" s="12"/>
+      <c r="AEG2" s="12"/>
+      <c r="AEH2" s="12"/>
+      <c r="AEI2" s="12"/>
+      <c r="AEJ2" s="12"/>
+      <c r="AEK2" s="12"/>
+      <c r="AEL2" s="12"/>
+      <c r="AEM2" s="12"/>
+      <c r="AEN2" s="12"/>
+      <c r="AEO2" s="12"/>
+      <c r="AEP2" s="12"/>
+      <c r="AEQ2" s="12"/>
+      <c r="AER2" s="12"/>
+      <c r="AES2" s="12"/>
+      <c r="AET2" s="12"/>
+      <c r="AEU2" s="12"/>
+      <c r="AEV2" s="12"/>
+      <c r="AEW2" s="12"/>
+      <c r="AEX2" s="12"/>
+      <c r="AEY2" s="12"/>
+      <c r="AEZ2" s="12"/>
+      <c r="AFA2" s="12"/>
+      <c r="AFB2" s="12"/>
+      <c r="AFC2" s="12"/>
+      <c r="AFD2" s="12"/>
+      <c r="AFE2" s="12"/>
+      <c r="AFF2" s="12"/>
+      <c r="AFG2" s="12"/>
+      <c r="AFH2" s="12"/>
+      <c r="AFI2" s="12"/>
+      <c r="AFJ2" s="12"/>
+      <c r="AFK2" s="12"/>
+      <c r="AFL2" s="12"/>
+      <c r="AFM2" s="12"/>
+      <c r="AFN2" s="12"/>
+      <c r="AFO2" s="12"/>
+      <c r="AFP2" s="12"/>
+      <c r="AFQ2" s="12"/>
+      <c r="AFR2" s="12"/>
+      <c r="AFS2" s="12"/>
+      <c r="AFT2" s="12"/>
+      <c r="AFU2" s="12"/>
+      <c r="AFV2" s="12"/>
+      <c r="AFW2" s="12"/>
+      <c r="AFX2" s="12"/>
+      <c r="AFY2" s="12"/>
+      <c r="AFZ2" s="12"/>
+      <c r="AGA2" s="12"/>
+      <c r="AGB2" s="12"/>
+      <c r="AGC2" s="12"/>
+      <c r="AGD2" s="12"/>
+      <c r="AGE2" s="12"/>
+      <c r="AGF2" s="12"/>
+      <c r="AGG2" s="12"/>
+      <c r="AGH2" s="12"/>
+      <c r="AGI2" s="12"/>
+      <c r="AGJ2" s="12"/>
+      <c r="AGK2" s="12"/>
+      <c r="AGL2" s="12"/>
+      <c r="AGM2" s="12"/>
+      <c r="AGN2" s="12"/>
+      <c r="AGO2" s="12"/>
+      <c r="AGP2" s="12"/>
+      <c r="AGQ2" s="12"/>
+      <c r="AGR2" s="12"/>
+      <c r="AGS2" s="12"/>
+      <c r="AGT2" s="12"/>
+      <c r="AGU2" s="12"/>
+      <c r="AGV2" s="12"/>
+      <c r="AGW2" s="12"/>
+      <c r="AGX2" s="12"/>
+      <c r="AGY2" s="12"/>
+      <c r="AGZ2" s="12"/>
+      <c r="AHA2" s="12"/>
+      <c r="AHB2" s="12"/>
+      <c r="AHC2" s="12"/>
+      <c r="AHD2" s="12"/>
+      <c r="AHE2" s="12"/>
+      <c r="AHF2" s="12"/>
+      <c r="AHG2" s="12"/>
+      <c r="AHH2" s="12"/>
+      <c r="AHI2" s="12"/>
+      <c r="AHJ2" s="12"/>
+      <c r="AHK2" s="12"/>
+      <c r="AHL2" s="12"/>
+      <c r="AHM2" s="12"/>
+      <c r="AHN2" s="12"/>
+      <c r="AHO2" s="12"/>
+      <c r="AHP2" s="12"/>
+      <c r="AHQ2" s="12"/>
+      <c r="AHR2" s="12"/>
+      <c r="AHS2" s="12"/>
+      <c r="AHT2" s="12"/>
+      <c r="AHU2" s="12"/>
+      <c r="AHV2" s="12"/>
+      <c r="AHW2" s="12"/>
+      <c r="AHX2" s="12"/>
+      <c r="AHY2" s="12"/>
+      <c r="AHZ2" s="12"/>
+      <c r="AIA2" s="12"/>
+      <c r="AIB2" s="12"/>
+      <c r="AIC2" s="12"/>
+      <c r="AID2" s="12"/>
+      <c r="AIE2" s="12"/>
+      <c r="AIF2" s="12"/>
+      <c r="AIG2" s="12"/>
+      <c r="AIH2" s="12"/>
+      <c r="AII2" s="12"/>
+      <c r="AIJ2" s="12"/>
+      <c r="AIK2" s="12"/>
+      <c r="AIL2" s="12"/>
+      <c r="AIM2" s="12"/>
+      <c r="AIN2" s="12"/>
+      <c r="AIO2" s="12"/>
+      <c r="AIP2" s="12"/>
+      <c r="AIQ2" s="12"/>
+      <c r="AIR2" s="12"/>
+      <c r="AIS2" s="12"/>
+      <c r="AIT2" s="12"/>
+      <c r="AIU2" s="12"/>
+      <c r="AIV2" s="12"/>
+      <c r="AIW2" s="12"/>
+      <c r="AIX2" s="12"/>
+      <c r="AIY2" s="12"/>
+      <c r="AIZ2" s="12"/>
+      <c r="AJA2" s="12"/>
+      <c r="AJB2" s="12"/>
+      <c r="AJC2" s="12"/>
+      <c r="AJD2" s="12"/>
+      <c r="AJE2" s="12"/>
+      <c r="AJF2" s="12"/>
+      <c r="AJG2" s="12"/>
+      <c r="AJH2" s="12"/>
+      <c r="AJI2" s="12"/>
+      <c r="AJJ2" s="12"/>
+      <c r="AJK2" s="12"/>
+      <c r="AJL2" s="12"/>
+      <c r="AJM2" s="12"/>
+      <c r="AJN2" s="12"/>
+      <c r="AJO2" s="12"/>
+      <c r="AJP2" s="12"/>
+      <c r="AJQ2" s="12"/>
+      <c r="AJR2" s="12"/>
+      <c r="AJS2" s="12"/>
+      <c r="AJT2" s="12"/>
+      <c r="AJU2" s="12"/>
+      <c r="AJV2" s="12"/>
+      <c r="AJW2" s="12"/>
+      <c r="AJX2" s="12"/>
+      <c r="AJY2" s="12"/>
+      <c r="AJZ2" s="12"/>
+      <c r="AKA2" s="12"/>
+      <c r="AKB2" s="12"/>
+      <c r="AKC2" s="12"/>
+      <c r="AKD2" s="12"/>
+      <c r="AKE2" s="12"/>
+      <c r="AKF2" s="12"/>
+      <c r="AKG2" s="12"/>
+      <c r="AKH2" s="12"/>
+      <c r="AKI2" s="12"/>
+      <c r="AKJ2" s="12"/>
+      <c r="AKK2" s="12"/>
+      <c r="AKL2" s="12"/>
+      <c r="AKM2" s="12"/>
+      <c r="AKN2" s="12"/>
+      <c r="AKO2" s="12"/>
+      <c r="AKP2" s="12"/>
+      <c r="AKQ2" s="12"/>
+      <c r="AKR2" s="12"/>
+      <c r="AKS2" s="12"/>
+      <c r="AKT2" s="12"/>
+      <c r="AKU2" s="12"/>
+      <c r="AKV2" s="12"/>
+      <c r="AKW2" s="12"/>
+      <c r="AKX2" s="12"/>
+      <c r="AKY2" s="12"/>
+      <c r="AKZ2" s="12"/>
+      <c r="ALA2" s="12"/>
+      <c r="ALB2" s="12"/>
+      <c r="ALC2" s="12"/>
+      <c r="ALD2" s="12"/>
+      <c r="ALE2" s="12"/>
+      <c r="ALF2" s="12"/>
+      <c r="ALG2" s="12"/>
+      <c r="ALH2" s="12"/>
+      <c r="ALI2" s="12"/>
+      <c r="ALJ2" s="12"/>
+      <c r="ALK2" s="12"/>
+      <c r="ALL2" s="12"/>
+      <c r="ALM2" s="12"/>
+      <c r="ALN2" s="12"/>
+      <c r="ALO2" s="12"/>
+      <c r="ALP2" s="12"/>
+      <c r="ALQ2" s="12"/>
+      <c r="ALR2" s="12"/>
+      <c r="ALS2" s="12"/>
+      <c r="ALT2" s="12"/>
+      <c r="ALU2" s="12"/>
+      <c r="ALV2" s="12"/>
+      <c r="ALW2" s="12"/>
+      <c r="ALX2" s="12"/>
+      <c r="ALY2" s="12"/>
+      <c r="ALZ2" s="12"/>
+      <c r="AMA2" s="12"/>
+      <c r="AMB2" s="12"/>
+      <c r="AMC2" s="12"/>
+      <c r="AMD2" s="12"/>
+      <c r="AME2" s="12"/>
+      <c r="AMF2" s="12"/>
+      <c r="AMG2" s="12"/>
+      <c r="AMH2" s="12"/>
+      <c r="AMI2" s="12"/>
+      <c r="AMJ2" s="12"/>
+      <c r="AMK2" s="12"/>
+      <c r="AML2" s="12"/>
+      <c r="AMM2" s="12"/>
+      <c r="AMN2" s="12"/>
+      <c r="AMO2" s="12"/>
+      <c r="AMP2" s="12"/>
+      <c r="AMQ2" s="12"/>
+      <c r="AMR2" s="12"/>
       <c r="AMS2"/>
       <c r="AMT2"/>
       <c r="AMU2"/>
@@ -36265,28 +36260,28 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:14">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:16">
       <c r="A3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -36295,16 +36290,22 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -36313,7 +36314,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -36349,19 +36350,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -36381,10 +36382,10 @@
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="E2" s="7">
         <v>29</v>
@@ -36393,15 +36394,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7">
         <v>29</v>
@@ -36410,7 +36411,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -36451,10 +36452,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>60</v>
@@ -36477,30 +36478,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -36577,36 +36578,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$H$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Observables!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Functions!$A$1:$D$2</definedName>
@@ -61,9 +61,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$H$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$H$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$H$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$4</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">'Initial species concentrations'!$A$1:$E$3</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="161">
   <si>
     <t>Table</t>
   </si>
@@ -321,6 +321,15 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
     <t>Empirical formula</t>
   </si>
   <si>
@@ -334,9 +343,6 @@
   </si>
   <si>
     <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
   </si>
   <si>
     <t>protein</t>
@@ -433,9 +439,6 @@
   </si>
   <si>
     <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Standard error</t>
@@ -587,10 +590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -644,6 +647,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -651,22 +659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,11 +682,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,7 +714,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,8 +780,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,51 +793,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -820,6 +823,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -838,13 +847,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +877,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,19 +901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,31 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,37 +979,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,12 +1011,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1044,21 +1060,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1075,8 +1076,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1091,16 +1094,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1108,138 +1111,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,11 +1287,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1972,7 +1975,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>60</v>
@@ -2030,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
@@ -2053,10 +2056,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
@@ -2103,7 +2106,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -2121,22 +2124,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>60</v>
@@ -2159,20 +2162,20 @@
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2221,16 +2224,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>60</v>
@@ -2253,19 +2256,19 @@
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2286,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2304,19 +2307,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
@@ -2367,13 +2370,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>38</v>
@@ -2428,13 +2431,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>60</v>
@@ -2497,13 +2500,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>60</v>
@@ -2526,18 +2529,18 @@
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7">
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="7">
         <v>0.3</v>
@@ -2548,27 +2551,27 @@
     </row>
     <row r="4" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7">
         <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -2579,18 +2582,18 @@
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2630,7 +2633,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>60</v>
@@ -2681,7 +2684,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
@@ -2693,11 +2696,11 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="Q1" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T1" s="5"/>
     </row>
@@ -2709,22 +2712,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>44</v>
@@ -2736,19 +2739,19 @@
         <v>51</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>27</v>
@@ -2918,7 +2921,7 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="5"/>
     </row>
@@ -2930,16 +2933,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>
@@ -3035,46 +3038,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>38</v>
@@ -3119,28 +3122,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3181,28 +3184,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>38</v>
@@ -3223,7 +3226,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3450,19 +3453,19 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
@@ -19833,7 +19836,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -36325,99 +36328,112 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="2" max="1028" width="8.575" style="1"/>
+    <col min="1029" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="3:8">
+      <c r="C1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="7">
-        <v>29</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:7">
+    <row r="3" s="7" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="G3" s="7">
         <v>29</v>
       </c>
-      <c r="F3" s="7">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
+      <c r="I3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I3">
+  <autoFilter ref="A2:K4">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -36452,10 +36468,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>60</v>
@@ -36478,30 +36494,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -36578,10 +36594,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>68</v>
@@ -36590,15 +36606,15 @@
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>68</v>
@@ -36607,7 +36623,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_1_reaction_with_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="dFBA objective species" sheetId="13" r:id="rId16"/>
     <sheet name="Parameters" sheetId="14" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId18"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="21" r:id="rId20"/>
-    <sheet name="References" sheetId="16" r:id="rId21"/>
-    <sheet name="Authors" sheetId="22" r:id="rId22"/>
-    <sheet name="Changes" sheetId="23" r:id="rId23"/>
+    <sheet name="Observations" sheetId="19" r:id="rId19"/>
+    <sheet name="Observation sets" sheetId="25" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="21" r:id="rId21"/>
+    <sheet name="References" sheetId="16" r:id="rId22"/>
+    <sheet name="Authors" sheetId="22" r:id="rId23"/>
+    <sheet name="Changes" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Submodels!$A$1:$G$2</definedName>
@@ -48,7 +49,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Model!$A$1:$B$7</definedName>
@@ -91,16 +92,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="17">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="20">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="163">
   <si>
     <t>Table</t>
   </si>
@@ -162,10 +163,13 @@
     <t>Stop conditions</t>
   </si>
   <si>
-    <t>Evidence</t>
+    <t>Observations</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Observation sets</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -244,6 +248,9 @@
   </si>
   <si>
     <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
   </si>
   <si>
     <t>test_submodel</t>
@@ -474,10 +481,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
+    <t>Data generation process</t>
   </si>
   <si>
-    <t>Analysis method</t>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -498,7 +505,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -581,9 +591,6 @@
   <si>
     <t>Intention type</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
@@ -592,8 +599,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -647,21 +654,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,7 +706,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,16 +720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,14 +744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,7 +760,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,56 +795,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -817,7 +824,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,19 +908,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,139 +956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,6 +978,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1008,6 +1015,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1029,32 +1095,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,176 +1115,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1691,12 +1698,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -1884,7 +1891,7 @@
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -1893,7 +1900,7 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -1902,7 +1909,7 @@
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -1914,9 +1921,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:C23">
+  <autoFilter ref="A1:C24">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -1937,11 +1953,11 @@
     <hyperlink ref="A16" location="'dFBA objective species'!A1" display="dFBA objective species" tooltip="Click to view dfba objective species"/>
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
-    <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
-    <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
-    <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
-    <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A22" location="'References'!A1" display="References" tooltip="Click to view references"/>
+    <hyperlink ref="A23" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" display="Observations" tooltip="Click to view evidence"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1969,31 +1985,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2027,42 +2043,42 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2122,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -2118,64 +2134,64 @@
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="7" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2218,57 +2234,57 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2301,40 +2317,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2364,34 +2380,34 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2425,37 +2441,37 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2494,106 +2510,106 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="7">
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7">
         <v>0.3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7">
         <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1">
         <v>1100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2627,31 +2643,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2667,14 +2683,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2684,7 +2700,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
@@ -2696,86 +2712,83 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="Q1" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" customHeight="1" spans="1:24">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2811,80 +2824,80 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7"/>
     </row>
@@ -2901,14 +2914,72 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1017" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2921,49 +2992,52 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
@@ -3011,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -3032,58 +3106,58 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
@@ -3116,40 +3190,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
@@ -3178,55 +3252,55 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3256,32 +3330,32 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3315,20 +3389,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -3336,25 +3410,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3384,36 +3458,36 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3454,14 +3528,14 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="12"/>
       <c r="M1" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
@@ -19837,67 +19911,67 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
@@ -36265,26 +36339,26 @@
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:16">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -36293,13 +36367,13 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="N3" s="1">
         <v>7.75</v>
@@ -36308,7 +36382,7 @@
         <v>0.775</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -36330,7 +36404,7 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -36347,7 +36421,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -36357,51 +36431,51 @@
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" s="7">
         <v>29</v>
@@ -36410,12 +36484,12 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7">
         <v>29</v>
@@ -36424,7 +36498,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -36462,62 +36536,62 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -36556,74 +36630,74 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>33.2107808085433</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
